--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="307">
   <si>
     <t>Term</t>
   </si>
@@ -5794,16 +5794,12 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K4" s="21"/>
       <c r="L4" s="19"/>
       <c r="M4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N4" s="19"/>
       <c r="O4" s="33" t="s">
         <v>22</v>
       </c>
@@ -5844,16 +5840,12 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K5" s="21"/>
       <c r="L5" s="19"/>
       <c r="M5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N5" s="19"/>
       <c r="O5" s="33" t="s">
         <v>22</v>
       </c>
@@ -5894,16 +5886,12 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="19"/>
       <c r="M6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N6" s="19"/>
       <c r="O6" s="33" t="s">
         <v>22</v>
       </c>
@@ -5942,16 +5930,12 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K7" s="21"/>
       <c r="L7" s="19"/>
       <c r="M7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N7" s="19"/>
       <c r="O7" s="33" t="s">
         <v>22</v>
       </c>
@@ -5992,16 +5976,12 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K8" s="21"/>
       <c r="L8" s="19"/>
       <c r="M8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N8" s="19"/>
       <c r="O8" s="33" t="s">
         <v>22</v>
       </c>
@@ -6042,16 +6022,12 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K9" s="21"/>
       <c r="L9" s="19"/>
       <c r="M9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N9" s="19"/>
       <c r="O9" s="33" t="s">
         <v>22</v>
       </c>
@@ -6092,16 +6068,12 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K10" s="21"/>
       <c r="L10" s="19"/>
       <c r="M10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N10" s="19"/>
       <c r="O10" s="33" t="s">
         <v>22</v>
       </c>
@@ -6142,16 +6114,12 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K11" s="21"/>
       <c r="L11" s="19"/>
       <c r="M11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N11" s="19"/>
       <c r="O11" s="33" t="s">
         <v>22</v>
       </c>
@@ -6192,16 +6160,12 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="19"/>
       <c r="M12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N12" s="19"/>
       <c r="O12" s="33" t="s">
         <v>22</v>
       </c>
@@ -6238,16 +6202,12 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K13" s="21"/>
       <c r="L13" s="19"/>
       <c r="M13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N13" s="19"/>
       <c r="O13" s="33" t="s">
         <v>22</v>
       </c>
@@ -6284,16 +6244,12 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
-      <c r="K14" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="19"/>
       <c r="M14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N14" s="19"/>
       <c r="O14" s="33" t="s">
         <v>22</v>
       </c>
@@ -6330,16 +6286,12 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
-      <c r="K15" s="21">
-        <v>44867.0</v>
-      </c>
+      <c r="K15" s="21"/>
       <c r="L15" s="19"/>
       <c r="M15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>75</v>
-      </c>
+      <c r="N15" s="19"/>
       <c r="O15" s="33" t="s">
         <v>22</v>
       </c>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -78,7 +78,7 @@
     <t>accepted</t>
   </si>
   <si>
-    <t>Harshvardhan J Pandit, Beatriz Esteves, Georg P Krog</t>
+    <t>Harshvardhan J. Pandit, Beatriz Esteves, Georg P. Krog</t>
   </si>
   <si>
     <t>https://www.w3.org/2020/11/18-dpvcg-minutes.html</t>
@@ -99,7 +99,7 @@
     <t>Based on use of definitions, the notion of 'Data Subject Right' can be equivalent to 'Individual Right' or 'Right of a Person'</t>
   </si>
   <si>
-    <t>Beatriz Esteves, Georg P Krog, Harshvardhan Pandit</t>
+    <t>Beatriz Esteves, Georg P. Krog, Harshvardhan J. Pandit</t>
   </si>
   <si>
     <t>Types of Rights</t>
@@ -117,7 +117,7 @@
     <t>Active rights require the entity to expressly exercise them. For example, a Data Subject exercising their right to withdraw their consent.</t>
   </si>
   <si>
-    <t>Harshvardhan J Pandit, Beatriz Esteves, Georg P Krog, Paul Ryan</t>
+    <t>Harshvardhan J. Pandit, Beatriz Esteves, Georg P. Krog, Paul Ryan</t>
   </si>
   <si>
     <t>PassiveRight</t>
@@ -2481,7 +2481,7 @@
       <c r="M2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="O2" s="17" t="s">
@@ -2533,7 +2533,7 @@
       <c r="M3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="18" t="s">

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="305">
   <si>
     <t>Term</t>
   </si>
@@ -343,12 +343,6 @@
   </si>
   <si>
     <t>Specfiying the temporal validity of an activity associated with Right Exercise. For example, limits on duration for providing or accessing provided information</t>
-  </si>
-  <si>
-    <t>Concepts in DPV this extends</t>
-  </si>
-  <si>
-    <t>dpv:DataSubjectRight</t>
   </si>
   <si>
     <t>EUFundamentalRights</t>
@@ -409,7 +403,7 @@
     <t>A1 Human Dignity</t>
   </si>
   <si>
-    <t>eu-rights:T1-Dignity,eu-rights:EUFundamentalRights</t>
+    <t>eu-rights:T1-Dignity</t>
   </si>
   <si>
     <r>
@@ -550,7 +544,7 @@
     <t>A6 Right To Libery Security</t>
   </si>
   <si>
-    <t>eu-rights:T2-Freedoms,eu-rights:EUFundamentalRights</t>
+    <t>eu-rights:T2-Freedoms</t>
   </si>
   <si>
     <r>
@@ -898,7 +892,7 @@
     <t>A20 Equality Before Law</t>
   </si>
   <si>
-    <t>eu-rights:T3-Equality,eu-rights:EUFundamentalRights</t>
+    <t>eu-rights:T3-Equality</t>
   </si>
   <si>
     <r>
@@ -1085,7 +1079,7 @@
     <t>A27 Workers Right To Information Consultation</t>
   </si>
   <si>
-    <t>eu-rights:T4-Solidarity,eu-rights:EUFundamentalRights</t>
+    <t>eu-rights:T4-Solidarity</t>
   </si>
   <si>
     <r>
@@ -1387,7 +1381,7 @@
     <t>A39 Right To Vote Stand As Canditate E U Parliament</t>
   </si>
   <si>
-    <t>eu-rights:T5-CitizensRights,eu-rights:EUFundamentalRights</t>
+    <t>eu-rights:T5-CitizensRights</t>
   </si>
   <si>
     <r>
@@ -1597,7 +1591,7 @@
     <t>A47 Right To Effective Remedy Fair Trial</t>
   </si>
   <si>
-    <t>eu-rights:T6-Justice,eu-rights:EUFundamentalRights</t>
+    <t>eu-rights:T6-Justice</t>
   </si>
   <si>
     <r>
@@ -1715,7 +1709,7 @@
     <t>A51 Field Of Application</t>
   </si>
   <si>
-    <t>eu-rights:T7-InterpretationAndApplication,eu-rights:EUFundamentalRights</t>
+    <t>eu-rights:T7-InterpretationAndApplication</t>
   </si>
   <si>
     <r>
@@ -9282,35 +9276,114 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+    <row r="3">
+      <c r="A3" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="21">
+        <v>44734.0</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="21">
+        <v>44735.0</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>113</v>
+      <c r="A5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>26</v>
@@ -9320,10 +9393,10 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="40" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K5" s="21">
-        <v>44734.0</v>
+        <v>44736.0</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="20" t="s">
@@ -9333,7 +9406,7 @@
         <v>75</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -9352,28 +9425,28 @@
       <c r="AD5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="41"/>
+      <c r="A6" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="40" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K6" s="21">
-        <v>44735.0</v>
+        <v>44737.0</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="20" t="s">
@@ -9383,34 +9456,34 @@
         <v>75</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
+        <v>113</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>26</v>
@@ -9420,10 +9493,10 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="40" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K7" s="21">
-        <v>44736.0</v>
+        <v>44738.0</v>
       </c>
       <c r="L7" s="19"/>
       <c r="M7" s="20" t="s">
@@ -9433,7 +9506,7 @@
         <v>75</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -9453,14 +9526,14 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>26</v>
@@ -9470,10 +9543,10 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="40" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K8" s="21">
-        <v>44737.0</v>
+        <v>44739.0</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="20" t="s">
@@ -9483,7 +9556,7 @@
         <v>75</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -9503,14 +9576,14 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>26</v>
@@ -9520,10 +9593,10 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="40" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K9" s="21">
-        <v>44738.0</v>
+        <v>44740.0</v>
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="20" t="s">
@@ -9533,7 +9606,7 @@
         <v>75</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -9552,28 +9625,28 @@
       <c r="AD9" s="19"/>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="19"/>
+      <c r="A10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="41"/>
       <c r="D10" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K10" s="21">
-        <v>44739.0</v>
+        <v>44741.0</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="20" t="s">
@@ -9583,34 +9656,34 @@
         <v>75</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>26</v>
@@ -9620,10 +9693,10 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="40" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K11" s="21">
-        <v>44740.0</v>
+        <v>44742.0</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="20" t="s">
@@ -9633,7 +9706,7 @@
         <v>75</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -9652,28 +9725,28 @@
       <c r="AD11" s="19"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="41"/>
+      <c r="A12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="40" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K12" s="21">
-        <v>44741.0</v>
+        <v>44743.0</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="20" t="s">
@@ -9683,34 +9756,34 @@
         <v>75</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
+        <v>113</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>26</v>
@@ -9720,10 +9793,10 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="21">
-        <v>44742.0</v>
+        <v>44744.0</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="20" t="s">
@@ -9733,7 +9806,7 @@
         <v>75</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -9753,14 +9826,14 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
@@ -9770,10 +9843,10 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="40" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K14" s="21">
-        <v>44743.0</v>
+        <v>44745.0</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="20" t="s">
@@ -9783,7 +9856,7 @@
         <v>75</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -9803,14 +9876,14 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>26</v>
@@ -9820,10 +9893,10 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K15" s="21">
-        <v>44744.0</v>
+        <v>44746.0</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="20" t="s">
@@ -9833,7 +9906,7 @@
         <v>75</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -9853,14 +9926,14 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>26</v>
@@ -9870,10 +9943,10 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K16" s="21">
-        <v>44745.0</v>
+        <v>44747.0</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="20" t="s">
@@ -9883,7 +9956,7 @@
         <v>75</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -9903,14 +9976,14 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>26</v>
@@ -9920,10 +9993,10 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K17" s="21">
-        <v>44746.0</v>
+        <v>44748.0</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="20" t="s">
@@ -9933,7 +10006,7 @@
         <v>75</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -9953,14 +10026,14 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>26</v>
@@ -9970,10 +10043,10 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="40" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K18" s="21">
-        <v>44747.0</v>
+        <v>44749.0</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="20" t="s">
@@ -9983,7 +10056,7 @@
         <v>75</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -10003,14 +10076,14 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
@@ -10020,10 +10093,10 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="40" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K19" s="21">
-        <v>44748.0</v>
+        <v>44750.0</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="20" t="s">
@@ -10033,7 +10106,7 @@
         <v>75</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -10053,14 +10126,14 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>26</v>
@@ -10070,10 +10143,10 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K20" s="21">
-        <v>44749.0</v>
+        <v>44751.0</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="20" t="s">
@@ -10083,7 +10156,7 @@
         <v>75</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -10103,14 +10176,14 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
@@ -10120,10 +10193,10 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="40" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K21" s="21">
-        <v>44750.0</v>
+        <v>44752.0</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="20" t="s">
@@ -10133,7 +10206,7 @@
         <v>75</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -10153,14 +10226,14 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>26</v>
@@ -10170,10 +10243,10 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K22" s="21">
-        <v>44751.0</v>
+        <v>44753.0</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="20" t="s">
@@ -10183,7 +10256,7 @@
         <v>75</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -10203,14 +10276,14 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>26</v>
@@ -10220,10 +10293,10 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K23" s="21">
-        <v>44752.0</v>
+        <v>44754.0</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="20" t="s">
@@ -10233,7 +10306,7 @@
         <v>75</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -10253,14 +10326,14 @@
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
@@ -10270,10 +10343,10 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K24" s="21">
-        <v>44753.0</v>
+        <v>44755.0</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="20" t="s">
@@ -10283,7 +10356,7 @@
         <v>75</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -10302,28 +10375,28 @@
       <c r="AD24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="19"/>
+      <c r="A25" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="41"/>
       <c r="D25" s="20" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K25" s="21">
-        <v>44754.0</v>
+        <v>44756.0</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="20" t="s">
@@ -10333,34 +10406,34 @@
         <v>75</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
@@ -10370,10 +10443,10 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="40" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K26" s="21">
-        <v>44755.0</v>
+        <v>44757.0</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="20" t="s">
@@ -10383,7 +10456,7 @@
         <v>75</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -10402,28 +10475,28 @@
       <c r="AD26" s="19"/>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C27" s="41"/>
+      <c r="A27" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="40" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K27" s="21">
-        <v>44756.0</v>
+        <v>44758.0</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="20" t="s">
@@ -10433,34 +10506,34 @@
         <v>75</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
+        <v>113</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>26</v>
@@ -10470,10 +10543,10 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K28" s="21">
-        <v>44757.0</v>
+        <v>44759.0</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="20" t="s">
@@ -10483,7 +10556,7 @@
         <v>75</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -10503,14 +10576,14 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>26</v>
@@ -10520,10 +10593,10 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="40" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K29" s="21">
-        <v>44758.0</v>
+        <v>44760.0</v>
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="20" t="s">
@@ -10533,7 +10606,7 @@
         <v>75</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -10553,14 +10626,14 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="19"/>
+        <v>197</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>26</v>
@@ -10570,10 +10643,10 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K30" s="21">
-        <v>44759.0</v>
+        <v>44761.0</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="20" t="s">
@@ -10583,7 +10656,7 @@
         <v>75</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -10603,14 +10676,14 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
@@ -10620,10 +10693,10 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="40" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K31" s="21">
-        <v>44760.0</v>
+        <v>44762.0</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="20" t="s">
@@ -10633,7 +10706,7 @@
         <v>75</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -10653,14 +10726,14 @@
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="20"/>
+        <v>203</v>
+      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>26</v>
@@ -10670,10 +10743,10 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K32" s="21">
-        <v>44761.0</v>
+        <v>44763.0</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="20" t="s">
@@ -10683,7 +10756,7 @@
         <v>75</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -10702,28 +10775,28 @@
       <c r="AD32" s="19"/>
     </row>
     <row r="33">
-      <c r="A33" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="19"/>
+      <c r="A33" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="41"/>
       <c r="D33" s="20" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K33" s="21">
-        <v>44762.0</v>
+        <v>44764.0</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="20" t="s">
@@ -10733,34 +10806,34 @@
         <v>75</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>26</v>
@@ -10770,10 +10843,10 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="40" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K34" s="21">
-        <v>44763.0</v>
+        <v>44765.0</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="20" t="s">
@@ -10783,7 +10856,7 @@
         <v>75</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -10802,28 +10875,28 @@
       <c r="AD34" s="19"/>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="41"/>
+      <c r="A35" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="19"/>
       <c r="D35" s="20" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="40" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K35" s="21">
-        <v>44764.0</v>
+        <v>44766.0</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="20" t="s">
@@ -10833,34 +10906,34 @@
         <v>75</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
+        <v>113</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>26</v>
@@ -10870,10 +10943,10 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K36" s="21">
-        <v>44765.0</v>
+        <v>44767.0</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="20" t="s">
@@ -10883,7 +10956,7 @@
         <v>75</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -10903,14 +10976,14 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>26</v>
@@ -10920,10 +10993,10 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K37" s="21">
-        <v>44766.0</v>
+        <v>44768.0</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="20" t="s">
@@ -10933,7 +11006,7 @@
         <v>75</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -10953,14 +11026,14 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>26</v>
@@ -10970,10 +11043,10 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K38" s="21">
-        <v>44767.0</v>
+        <v>44769.0</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="20" t="s">
@@ -10983,7 +11056,7 @@
         <v>75</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -11003,14 +11076,14 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>26</v>
@@ -11020,10 +11093,10 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K39" s="21">
-        <v>44768.0</v>
+        <v>44770.0</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" s="20" t="s">
@@ -11033,7 +11106,7 @@
         <v>75</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -11053,14 +11126,14 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>26</v>
@@ -11070,10 +11143,10 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="40" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K40" s="21">
-        <v>44769.0</v>
+        <v>44771.0</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="20" t="s">
@@ -11083,7 +11156,7 @@
         <v>75</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -11103,14 +11176,14 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>26</v>
@@ -11120,10 +11193,10 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K41" s="21">
-        <v>44770.0</v>
+        <v>44772.0</v>
       </c>
       <c r="L41" s="19"/>
       <c r="M41" s="20" t="s">
@@ -11133,7 +11206,7 @@
         <v>75</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -11153,14 +11226,14 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>26</v>
@@ -11170,10 +11243,10 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="40" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K42" s="21">
-        <v>44771.0</v>
+        <v>44773.0</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="20" t="s">
@@ -11183,7 +11256,7 @@
         <v>75</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -11203,14 +11276,14 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>26</v>
@@ -11220,10 +11293,10 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="40" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K43" s="21">
-        <v>44772.0</v>
+        <v>44774.0</v>
       </c>
       <c r="L43" s="19"/>
       <c r="M43" s="20" t="s">
@@ -11233,7 +11306,7 @@
         <v>75</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -11253,14 +11326,14 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>26</v>
@@ -11270,10 +11343,10 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="40" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K44" s="21">
-        <v>44773.0</v>
+        <v>44775.0</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" s="20" t="s">
@@ -11283,7 +11356,7 @@
         <v>75</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -11303,14 +11376,14 @@
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>26</v>
@@ -11320,10 +11393,10 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="40" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K45" s="21">
-        <v>44774.0</v>
+        <v>44776.0</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="20" t="s">
@@ -11333,7 +11406,7 @@
         <v>75</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -11352,28 +11425,28 @@
       <c r="AD45" s="19"/>
     </row>
     <row r="46">
-      <c r="A46" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="19"/>
+      <c r="A46" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="41"/>
       <c r="D46" s="20" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K46" s="21">
-        <v>44775.0</v>
+        <v>44777.0</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="20" t="s">
@@ -11383,34 +11456,34 @@
         <v>75</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="41"/>
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="20" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>26</v>
@@ -11420,10 +11493,10 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="40" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K47" s="21">
-        <v>44776.0</v>
+        <v>44778.0</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="20" t="s">
@@ -11433,7 +11506,7 @@
         <v>75</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -11452,28 +11525,28 @@
       <c r="AD47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C48" s="41"/>
+      <c r="A48" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="19"/>
       <c r="D48" s="20" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
       <c r="J48" s="40" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K48" s="21">
-        <v>44777.0</v>
+        <v>44779.0</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="20" t="s">
@@ -11483,34 +11556,34 @@
         <v>75</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
+        <v>113</v>
+      </c>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>26</v>
@@ -11520,10 +11593,10 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="40" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K49" s="21">
-        <v>44778.0</v>
+        <v>44780.0</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="20" t="s">
@@ -11533,7 +11606,7 @@
         <v>75</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -11553,14 +11626,14 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>26</v>
@@ -11570,10 +11643,10 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="40" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K50" s="21">
-        <v>44779.0</v>
+        <v>44781.0</v>
       </c>
       <c r="L50" s="19"/>
       <c r="M50" s="20" t="s">
@@ -11583,7 +11656,7 @@
         <v>75</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -11603,14 +11676,14 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>26</v>
@@ -11620,10 +11693,10 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="40" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K51" s="21">
-        <v>44780.0</v>
+        <v>44782.0</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="20" t="s">
@@ -11633,7 +11706,7 @@
         <v>75</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -11653,14 +11726,14 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>26</v>
@@ -11670,10 +11743,10 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="40" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K52" s="21">
-        <v>44781.0</v>
+        <v>44783.0</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="20" t="s">
@@ -11683,7 +11756,7 @@
         <v>75</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -11703,14 +11776,14 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>26</v>
@@ -11720,10 +11793,10 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="40" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K53" s="21">
-        <v>44782.0</v>
+        <v>44784.0</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="20" t="s">
@@ -11733,7 +11806,7 @@
         <v>75</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -11753,14 +11826,14 @@
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>26</v>
@@ -11770,10 +11843,10 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="40" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K54" s="21">
-        <v>44783.0</v>
+        <v>44785.0</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="20" t="s">
@@ -11783,7 +11856,7 @@
         <v>75</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -11802,28 +11875,28 @@
       <c r="AD54" s="19"/>
     </row>
     <row r="55">
-      <c r="A55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C55" s="19"/>
+      <c r="A55" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="41"/>
       <c r="D55" s="20" t="s">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K55" s="21">
-        <v>44784.0</v>
+        <v>44786.0</v>
       </c>
       <c r="L55" s="19"/>
       <c r="M55" s="20" t="s">
@@ -11833,34 +11906,34 @@
         <v>75</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41"/>
+      <c r="AD55" s="41"/>
     </row>
     <row r="56">
-      <c r="A56" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>273</v>
+      <c r="A56" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="C56" s="19"/>
-      <c r="D56" s="20" t="s">
-        <v>252</v>
+      <c r="D56" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>26</v>
@@ -11870,10 +11943,10 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="40" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K56" s="21">
-        <v>44785.0</v>
+        <v>44787.0</v>
       </c>
       <c r="L56" s="19"/>
       <c r="M56" s="20" t="s">
@@ -11883,7 +11956,7 @@
         <v>75</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -11902,28 +11975,28 @@
       <c r="AD56" s="19"/>
     </row>
     <row r="57">
-      <c r="A57" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="20" t="s">
-        <v>118</v>
+      <c r="A57" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
       <c r="J57" s="40" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K57" s="21">
-        <v>44786.0</v>
+        <v>44788.0</v>
       </c>
       <c r="L57" s="19"/>
       <c r="M57" s="20" t="s">
@@ -11933,34 +12006,34 @@
         <v>75</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="41"/>
+        <v>113</v>
+      </c>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>26</v>
@@ -11970,10 +12043,10 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="40" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K58" s="21">
-        <v>44787.0</v>
+        <v>44789.0</v>
       </c>
       <c r="L58" s="19"/>
       <c r="M58" s="20" t="s">
@@ -11983,7 +12056,7 @@
         <v>75</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -12002,15 +12075,15 @@
       <c r="AD58" s="19"/>
     </row>
     <row r="59">
-      <c r="A59" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>283</v>
+      <c r="A59" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>26</v>
@@ -12020,10 +12093,10 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="40" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K59" s="21">
-        <v>44788.0</v>
+        <v>44790.0</v>
       </c>
       <c r="L59" s="19"/>
       <c r="M59" s="20" t="s">
@@ -12033,7 +12106,7 @@
         <v>75</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -12052,15 +12125,15 @@
       <c r="AD59" s="19"/>
     </row>
     <row r="60">
-      <c r="A60" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>286</v>
+      <c r="A60" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="C60" s="19"/>
-      <c r="D60" s="22" t="s">
-        <v>280</v>
+      <c r="D60" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>26</v>
@@ -12070,10 +12143,10 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="40" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K60" s="21">
-        <v>44789.0</v>
+        <v>44791.0</v>
       </c>
       <c r="L60" s="19"/>
       <c r="M60" s="20" t="s">
@@ -12083,7 +12156,7 @@
         <v>75</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -12103,14 +12176,14 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C61" s="19"/>
-      <c r="D61" s="22" t="s">
-        <v>280</v>
+      <c r="D61" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>26</v>
@@ -12120,10 +12193,10 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="40" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K61" s="21">
-        <v>44790.0</v>
+        <v>44792.0</v>
       </c>
       <c r="L61" s="19"/>
       <c r="M61" s="20" t="s">
@@ -12133,7 +12206,7 @@
         <v>75</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -12152,15 +12225,15 @@
       <c r="AD61" s="19"/>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>292</v>
+      <c r="A62" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="20" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>26</v>
@@ -12170,10 +12243,10 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="40" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K62" s="21">
-        <v>44791.0</v>
+        <v>44793.0</v>
       </c>
       <c r="L62" s="19"/>
       <c r="M62" s="20" t="s">
@@ -12183,7 +12256,7 @@
         <v>75</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -12203,14 +12276,14 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>26</v>
@@ -12220,10 +12293,10 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="40" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K63" s="21">
-        <v>44792.0</v>
+        <v>44794.0</v>
       </c>
       <c r="L63" s="19"/>
       <c r="M63" s="20" t="s">
@@ -12233,7 +12306,7 @@
         <v>75</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -12253,14 +12326,14 @@
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>26</v>
@@ -12270,10 +12343,10 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="40" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K64" s="21">
-        <v>44793.0</v>
+        <v>44795.0</v>
       </c>
       <c r="L64" s="19"/>
       <c r="M64" s="20" t="s">
@@ -12283,7 +12356,7 @@
         <v>75</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -12302,104 +12375,10 @@
       <c r="AD64" s="19"/>
     </row>
     <row r="65">
-      <c r="A65" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="K65" s="21">
-        <v>44794.0</v>
-      </c>
-      <c r="L65" s="19"/>
-      <c r="M65" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N65" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="O65" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="19"/>
-      <c r="Z65" s="19"/>
-      <c r="AA65" s="19"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
+      <c r="K65" s="21"/>
     </row>
     <row r="66">
-      <c r="A66" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="K66" s="21">
-        <v>44795.0</v>
-      </c>
-      <c r="L66" s="19"/>
-      <c r="M66" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="O66" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="19"/>
-      <c r="Y66" s="19"/>
-      <c r="Z66" s="19"/>
-      <c r="AA66" s="19"/>
-      <c r="AB66" s="19"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
+      <c r="K66" s="21"/>
     </row>
     <row r="67">
       <c r="K67" s="21"/>
@@ -12423,52 +12402,60 @@
       <c r="K73" s="21"/>
     </row>
     <row r="74">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
       <c r="K74" s="21"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="9"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
+      <c r="AB74" s="41"/>
+      <c r="AC74" s="41"/>
+      <c r="AD74" s="41"/>
     </row>
     <row r="75">
       <c r="K75" s="21"/>
     </row>
     <row r="76">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
       <c r="K76" s="21"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="9"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
-      <c r="V76" s="41"/>
-      <c r="W76" s="41"/>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
-      <c r="AB76" s="41"/>
-      <c r="AC76" s="41"/>
-      <c r="AD76" s="41"/>
     </row>
     <row r="77">
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="43"/>
       <c r="K77" s="21"/>
     </row>
     <row r="78">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="45"/>
       <c r="K78" s="21"/>
     </row>
     <row r="79">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="43"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
       <c r="K79" s="21"/>
     </row>
     <row r="80">
@@ -12486,9 +12473,9 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="45"/>
       <c r="K82" s="21"/>
     </row>
@@ -12496,176 +12483,162 @@
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
+      <c r="D83" s="47"/>
       <c r="K83" s="21"/>
     </row>
     <row r="84">
-      <c r="A84" s="46"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="46"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
       <c r="D84" s="45"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="45"/>
-      <c r="K86" s="21"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AD223">
+  <conditionalFormatting sqref="A2:AD221">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB189">
+  <conditionalFormatting sqref="A2:AB187">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C6 D2:D12 E2:E223 F2:I6 J2:O223 P2:AB6 AC2:AD27 A24:C27 D24:D25 F24:I27 P24:AB27 D27:D35 A41:D42 F41:I42 P41:AD42 D48 D57 D62 A66:D223 F66:I223 P66:AD223">
+  <conditionalFormatting sqref="A2:C4 D2:D10 E2:E221 F2:I4 J2:O221 P2:AB4 AC2:AD25 A22:C25 D22:D23 F22:I25 P22:AB25 D25:D33 A39:D40 F39:I40 P39:AD40 D46 D55 D60 A64:D221 F64:I221 P64:AD221">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M2="changed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C6 D2:D12 E2:E223 F2:I6 J2:O223 P2:AB6 AC2:AD27 A24:C27 D24:D25 F24:I27 P24:AB27 D27:D35 A41:D42 F41:I42 P41:AD42 D48 D57 D62 A66:D223 F66:I223 P66:AD223">
+  <conditionalFormatting sqref="A2:C4 D2:D10 E2:E221 F2:I4 J2:O221 P2:AB4 AC2:AD25 A22:C25 D22:D23 F22:I25 P22:AB25 D25:D33 A39:D40 F39:I40 P39:AD40 D46 D55 D60 A64:D221 F64:I221 P64:AD221">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J5"/>
-    <hyperlink r:id="rId2" ref="O5"/>
-    <hyperlink r:id="rId3" ref="J6"/>
-    <hyperlink r:id="rId4" ref="O6"/>
-    <hyperlink r:id="rId5" ref="J7"/>
-    <hyperlink r:id="rId6" ref="O7"/>
-    <hyperlink r:id="rId7" ref="J8"/>
-    <hyperlink r:id="rId8" ref="O8"/>
-    <hyperlink r:id="rId9" ref="J9"/>
-    <hyperlink r:id="rId10" ref="O9"/>
-    <hyperlink r:id="rId11" ref="J10"/>
-    <hyperlink r:id="rId12" ref="O10"/>
-    <hyperlink r:id="rId13" ref="J11"/>
-    <hyperlink r:id="rId14" ref="O11"/>
-    <hyperlink r:id="rId15" ref="J12"/>
-    <hyperlink r:id="rId16" ref="O12"/>
-    <hyperlink r:id="rId17" ref="J13"/>
-    <hyperlink r:id="rId18" ref="O13"/>
-    <hyperlink r:id="rId19" ref="J14"/>
-    <hyperlink r:id="rId20" ref="O14"/>
-    <hyperlink r:id="rId21" ref="J15"/>
-    <hyperlink r:id="rId22" ref="O15"/>
-    <hyperlink r:id="rId23" ref="J16"/>
-    <hyperlink r:id="rId24" ref="O16"/>
-    <hyperlink r:id="rId25" ref="J17"/>
-    <hyperlink r:id="rId26" ref="O17"/>
-    <hyperlink r:id="rId27" ref="J18"/>
-    <hyperlink r:id="rId28" ref="O18"/>
-    <hyperlink r:id="rId29" ref="J19"/>
-    <hyperlink r:id="rId30" ref="O19"/>
-    <hyperlink r:id="rId31" ref="J20"/>
-    <hyperlink r:id="rId32" ref="O20"/>
-    <hyperlink r:id="rId33" ref="J21"/>
-    <hyperlink r:id="rId34" ref="O21"/>
-    <hyperlink r:id="rId35" ref="J22"/>
-    <hyperlink r:id="rId36" ref="O22"/>
-    <hyperlink r:id="rId37" ref="J23"/>
-    <hyperlink r:id="rId38" ref="O23"/>
-    <hyperlink r:id="rId39" ref="J24"/>
-    <hyperlink r:id="rId40" ref="O24"/>
-    <hyperlink r:id="rId41" ref="J25"/>
-    <hyperlink r:id="rId42" ref="O25"/>
-    <hyperlink r:id="rId43" ref="J26"/>
-    <hyperlink r:id="rId44" ref="O26"/>
-    <hyperlink r:id="rId45" ref="J27"/>
-    <hyperlink r:id="rId46" ref="O27"/>
-    <hyperlink r:id="rId47" ref="J28"/>
-    <hyperlink r:id="rId48" ref="O28"/>
-    <hyperlink r:id="rId49" ref="J29"/>
-    <hyperlink r:id="rId50" ref="O29"/>
-    <hyperlink r:id="rId51" ref="J30"/>
-    <hyperlink r:id="rId52" ref="O30"/>
-    <hyperlink r:id="rId53" ref="J31"/>
-    <hyperlink r:id="rId54" ref="O31"/>
-    <hyperlink r:id="rId55" ref="J32"/>
-    <hyperlink r:id="rId56" ref="O32"/>
-    <hyperlink r:id="rId57" ref="J33"/>
-    <hyperlink r:id="rId58" ref="O33"/>
-    <hyperlink r:id="rId59" ref="J34"/>
-    <hyperlink r:id="rId60" ref="O34"/>
-    <hyperlink r:id="rId61" ref="J35"/>
-    <hyperlink r:id="rId62" ref="O35"/>
-    <hyperlink r:id="rId63" ref="J36"/>
-    <hyperlink r:id="rId64" ref="O36"/>
-    <hyperlink r:id="rId65" ref="J37"/>
-    <hyperlink r:id="rId66" ref="O37"/>
-    <hyperlink r:id="rId67" ref="J38"/>
-    <hyperlink r:id="rId68" ref="O38"/>
-    <hyperlink r:id="rId69" ref="J39"/>
-    <hyperlink r:id="rId70" ref="O39"/>
-    <hyperlink r:id="rId71" ref="J40"/>
-    <hyperlink r:id="rId72" ref="O40"/>
-    <hyperlink r:id="rId73" ref="J41"/>
-    <hyperlink r:id="rId74" ref="O41"/>
-    <hyperlink r:id="rId75" ref="J42"/>
-    <hyperlink r:id="rId76" ref="O42"/>
-    <hyperlink r:id="rId77" ref="J43"/>
-    <hyperlink r:id="rId78" ref="O43"/>
-    <hyperlink r:id="rId79" ref="J44"/>
-    <hyperlink r:id="rId80" ref="O44"/>
-    <hyperlink r:id="rId81" ref="J45"/>
-    <hyperlink r:id="rId82" ref="O45"/>
-    <hyperlink r:id="rId83" ref="J46"/>
-    <hyperlink r:id="rId84" ref="O46"/>
-    <hyperlink r:id="rId85" ref="J47"/>
-    <hyperlink r:id="rId86" ref="O47"/>
-    <hyperlink r:id="rId87" ref="J48"/>
-    <hyperlink r:id="rId88" ref="O48"/>
-    <hyperlink r:id="rId89" ref="J49"/>
-    <hyperlink r:id="rId90" ref="O49"/>
-    <hyperlink r:id="rId91" ref="J50"/>
-    <hyperlink r:id="rId92" ref="O50"/>
-    <hyperlink r:id="rId93" ref="J51"/>
-    <hyperlink r:id="rId94" ref="O51"/>
-    <hyperlink r:id="rId95" ref="J52"/>
-    <hyperlink r:id="rId96" ref="O52"/>
-    <hyperlink r:id="rId97" ref="J53"/>
-    <hyperlink r:id="rId98" ref="O53"/>
-    <hyperlink r:id="rId99" ref="J54"/>
-    <hyperlink r:id="rId100" ref="O54"/>
-    <hyperlink r:id="rId101" ref="J55"/>
-    <hyperlink r:id="rId102" ref="O55"/>
-    <hyperlink r:id="rId103" ref="J56"/>
-    <hyperlink r:id="rId104" ref="O56"/>
-    <hyperlink r:id="rId105" ref="J57"/>
-    <hyperlink r:id="rId106" ref="O57"/>
-    <hyperlink r:id="rId107" ref="J58"/>
-    <hyperlink r:id="rId108" ref="O58"/>
-    <hyperlink r:id="rId109" ref="J59"/>
-    <hyperlink r:id="rId110" ref="O59"/>
-    <hyperlink r:id="rId111" ref="J60"/>
-    <hyperlink r:id="rId112" ref="O60"/>
-    <hyperlink r:id="rId113" ref="J61"/>
-    <hyperlink r:id="rId114" ref="O61"/>
-    <hyperlink r:id="rId115" ref="J62"/>
-    <hyperlink r:id="rId116" ref="O62"/>
-    <hyperlink r:id="rId117" ref="J63"/>
-    <hyperlink r:id="rId118" ref="O63"/>
-    <hyperlink r:id="rId119" ref="J64"/>
-    <hyperlink r:id="rId120" ref="O64"/>
-    <hyperlink r:id="rId121" ref="J65"/>
-    <hyperlink r:id="rId122" ref="O65"/>
-    <hyperlink r:id="rId123" ref="J66"/>
-    <hyperlink r:id="rId124" ref="O66"/>
+    <hyperlink r:id="rId1" ref="J3"/>
+    <hyperlink r:id="rId2" ref="O3"/>
+    <hyperlink r:id="rId3" ref="J4"/>
+    <hyperlink r:id="rId4" ref="O4"/>
+    <hyperlink r:id="rId5" ref="J5"/>
+    <hyperlink r:id="rId6" ref="O5"/>
+    <hyperlink r:id="rId7" ref="J6"/>
+    <hyperlink r:id="rId8" ref="O6"/>
+    <hyperlink r:id="rId9" ref="J7"/>
+    <hyperlink r:id="rId10" ref="O7"/>
+    <hyperlink r:id="rId11" ref="J8"/>
+    <hyperlink r:id="rId12" ref="O8"/>
+    <hyperlink r:id="rId13" ref="J9"/>
+    <hyperlink r:id="rId14" ref="O9"/>
+    <hyperlink r:id="rId15" ref="J10"/>
+    <hyperlink r:id="rId16" ref="O10"/>
+    <hyperlink r:id="rId17" ref="J11"/>
+    <hyperlink r:id="rId18" ref="O11"/>
+    <hyperlink r:id="rId19" ref="J12"/>
+    <hyperlink r:id="rId20" ref="O12"/>
+    <hyperlink r:id="rId21" ref="J13"/>
+    <hyperlink r:id="rId22" ref="O13"/>
+    <hyperlink r:id="rId23" ref="J14"/>
+    <hyperlink r:id="rId24" ref="O14"/>
+    <hyperlink r:id="rId25" ref="J15"/>
+    <hyperlink r:id="rId26" ref="O15"/>
+    <hyperlink r:id="rId27" ref="J16"/>
+    <hyperlink r:id="rId28" ref="O16"/>
+    <hyperlink r:id="rId29" ref="J17"/>
+    <hyperlink r:id="rId30" ref="O17"/>
+    <hyperlink r:id="rId31" ref="J18"/>
+    <hyperlink r:id="rId32" ref="O18"/>
+    <hyperlink r:id="rId33" ref="J19"/>
+    <hyperlink r:id="rId34" ref="O19"/>
+    <hyperlink r:id="rId35" ref="J20"/>
+    <hyperlink r:id="rId36" ref="O20"/>
+    <hyperlink r:id="rId37" ref="J21"/>
+    <hyperlink r:id="rId38" ref="O21"/>
+    <hyperlink r:id="rId39" ref="J22"/>
+    <hyperlink r:id="rId40" ref="O22"/>
+    <hyperlink r:id="rId41" ref="J23"/>
+    <hyperlink r:id="rId42" ref="O23"/>
+    <hyperlink r:id="rId43" ref="J24"/>
+    <hyperlink r:id="rId44" ref="O24"/>
+    <hyperlink r:id="rId45" ref="J25"/>
+    <hyperlink r:id="rId46" ref="O25"/>
+    <hyperlink r:id="rId47" ref="J26"/>
+    <hyperlink r:id="rId48" ref="O26"/>
+    <hyperlink r:id="rId49" ref="J27"/>
+    <hyperlink r:id="rId50" ref="O27"/>
+    <hyperlink r:id="rId51" ref="J28"/>
+    <hyperlink r:id="rId52" ref="O28"/>
+    <hyperlink r:id="rId53" ref="J29"/>
+    <hyperlink r:id="rId54" ref="O29"/>
+    <hyperlink r:id="rId55" ref="J30"/>
+    <hyperlink r:id="rId56" ref="O30"/>
+    <hyperlink r:id="rId57" ref="J31"/>
+    <hyperlink r:id="rId58" ref="O31"/>
+    <hyperlink r:id="rId59" ref="J32"/>
+    <hyperlink r:id="rId60" ref="O32"/>
+    <hyperlink r:id="rId61" ref="J33"/>
+    <hyperlink r:id="rId62" ref="O33"/>
+    <hyperlink r:id="rId63" ref="J34"/>
+    <hyperlink r:id="rId64" ref="O34"/>
+    <hyperlink r:id="rId65" ref="J35"/>
+    <hyperlink r:id="rId66" ref="O35"/>
+    <hyperlink r:id="rId67" ref="J36"/>
+    <hyperlink r:id="rId68" ref="O36"/>
+    <hyperlink r:id="rId69" ref="J37"/>
+    <hyperlink r:id="rId70" ref="O37"/>
+    <hyperlink r:id="rId71" ref="J38"/>
+    <hyperlink r:id="rId72" ref="O38"/>
+    <hyperlink r:id="rId73" ref="J39"/>
+    <hyperlink r:id="rId74" ref="O39"/>
+    <hyperlink r:id="rId75" ref="J40"/>
+    <hyperlink r:id="rId76" ref="O40"/>
+    <hyperlink r:id="rId77" ref="J41"/>
+    <hyperlink r:id="rId78" ref="O41"/>
+    <hyperlink r:id="rId79" ref="J42"/>
+    <hyperlink r:id="rId80" ref="O42"/>
+    <hyperlink r:id="rId81" ref="J43"/>
+    <hyperlink r:id="rId82" ref="O43"/>
+    <hyperlink r:id="rId83" ref="J44"/>
+    <hyperlink r:id="rId84" ref="O44"/>
+    <hyperlink r:id="rId85" ref="J45"/>
+    <hyperlink r:id="rId86" ref="O45"/>
+    <hyperlink r:id="rId87" ref="J46"/>
+    <hyperlink r:id="rId88" ref="O46"/>
+    <hyperlink r:id="rId89" ref="J47"/>
+    <hyperlink r:id="rId90" ref="O47"/>
+    <hyperlink r:id="rId91" ref="J48"/>
+    <hyperlink r:id="rId92" ref="O48"/>
+    <hyperlink r:id="rId93" ref="J49"/>
+    <hyperlink r:id="rId94" ref="O49"/>
+    <hyperlink r:id="rId95" ref="J50"/>
+    <hyperlink r:id="rId96" ref="O50"/>
+    <hyperlink r:id="rId97" ref="J51"/>
+    <hyperlink r:id="rId98" ref="O51"/>
+    <hyperlink r:id="rId99" ref="J52"/>
+    <hyperlink r:id="rId100" ref="O52"/>
+    <hyperlink r:id="rId101" ref="J53"/>
+    <hyperlink r:id="rId102" ref="O53"/>
+    <hyperlink r:id="rId103" ref="J54"/>
+    <hyperlink r:id="rId104" ref="O54"/>
+    <hyperlink r:id="rId105" ref="J55"/>
+    <hyperlink r:id="rId106" ref="O55"/>
+    <hyperlink r:id="rId107" ref="J56"/>
+    <hyperlink r:id="rId108" ref="O56"/>
+    <hyperlink r:id="rId109" ref="J57"/>
+    <hyperlink r:id="rId110" ref="O57"/>
+    <hyperlink r:id="rId111" ref="J58"/>
+    <hyperlink r:id="rId112" ref="O58"/>
+    <hyperlink r:id="rId113" ref="J59"/>
+    <hyperlink r:id="rId114" ref="O59"/>
+    <hyperlink r:id="rId115" ref="J60"/>
+    <hyperlink r:id="rId116" ref="O60"/>
+    <hyperlink r:id="rId117" ref="J61"/>
+    <hyperlink r:id="rId118" ref="O61"/>
+    <hyperlink r:id="rId119" ref="J62"/>
+    <hyperlink r:id="rId120" ref="O62"/>
+    <hyperlink r:id="rId121" ref="J63"/>
+    <hyperlink r:id="rId122" ref="O63"/>
+    <hyperlink r:id="rId123" ref="J64"/>
+    <hyperlink r:id="rId124" ref="O64"/>
   </hyperlinks>
   <drawing r:id="rId125"/>
 </worksheet>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="310">
   <si>
     <t>Term</t>
   </si>
@@ -135,16 +135,37 @@
     <t>Exercising Rights</t>
   </si>
   <si>
+    <t>RightNotice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Notice </t>
+  </si>
+  <si>
+    <t>Information associated with rights, such as which rights exist, when and where they are applicable, and other relevant information</t>
+  </si>
+  <si>
+    <t>dpv:Notice</t>
+  </si>
+  <si>
+    <t>dpv:OrganisationalMeasure</t>
+  </si>
+  <si>
+    <t>This concept also covers information about rights exercise, with dpv:RightExerciseNotice specifically representing information provided in connection with exercising of rights. Both notices may be needed, e.g. RightNotice for providing information about existence and exercise of rights, and RightExerciseNotice for providing additional information specifically about exericse of rights - such as to request more information or provide updates on an exercised rights request</t>
+  </si>
+  <si>
+    <t>Harshvardhan J. Pandit</t>
+  </si>
+  <si>
     <t>RightExerciseNotice</t>
   </si>
   <si>
     <t>Right Exercise Notice</t>
   </si>
   <si>
-    <t>Information associated with exercising of an active right</t>
-  </si>
-  <si>
-    <t>dpv:OrganisationalMeasure</t>
+    <t>Information associated with exercising of an active right such as where and how to exercise the right, information required for it, or updates on an exercised rights request</t>
+  </si>
+  <si>
+    <t>dpv:RightNotice</t>
   </si>
   <si>
     <t>This concept is intended for providing information regarding a right exercise. For specific instances of such exercises, see RightExerciseActivity and RightExerciseRecord.</t>
@@ -192,7 +213,7 @@
     <t>Notice provided regarding fulfilment of a right</t>
   </si>
   <si>
-    <t>dpv:Notice</t>
+    <t>dpv:RightExerciseNotice</t>
   </si>
   <si>
     <t>This notice is associated with situations where information is provided with the intention of progressing the fulfilment of a right. For example, a notice asking for more information regarding the scope of the right, or providing information on where to access the data provided under a right.</t>
@@ -240,9 +261,6 @@
     <t>dpv:Relation</t>
   </si>
   <si>
-    <t>Harshvardhan J. Pandit</t>
-  </si>
-  <si>
     <t>isExercisedAt</t>
   </si>
   <si>
@@ -255,39 +273,36 @@
     <t>dpv:ActiveRight</t>
   </si>
   <si>
-    <t>dpv:RightExerciseNotice</t>
-  </si>
-  <si>
     <t>dpv:hasStatus</t>
   </si>
   <si>
+    <t>dpv:RightExerciseActivity</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
+  </si>
+  <si>
     <t>Indicates the status of a Right Exercise Activity</t>
   </si>
   <si>
-    <t>dpv:RightExerciseActivity</t>
-  </si>
-  <si>
-    <t>dpv:Status</t>
-  </si>
-  <si>
     <t>dpv:hasRecipient</t>
   </si>
   <si>
+    <t>dpv:Recipient</t>
+  </si>
+  <si>
     <t>Indicates the Recipient of a Right Exercise Activity</t>
   </si>
   <si>
-    <t>dpv:Recipient</t>
-  </si>
-  <si>
     <t>dpv:isImplementedByEntity</t>
   </si>
   <si>
+    <t>dpv:Entity</t>
+  </si>
+  <si>
     <t>Indicates the Entity that implements or performs a Right Exercise Activity</t>
   </si>
   <si>
-    <t>dpv:Entity</t>
-  </si>
-  <si>
     <t>foaf:page</t>
   </si>
   <si>
@@ -297,12 +312,12 @@
     <t>dct:hasPart</t>
   </si>
   <si>
+    <t>dpv:RightExerciseRecord</t>
+  </si>
+  <si>
     <t>Specifying a RightExerciseRecord has RightExerciseActivity as part of its records</t>
   </si>
   <si>
-    <t>dpv:RightExerciseRecord</t>
-  </si>
-  <si>
     <t>dct:isPartOf</t>
   </si>
   <si>
@@ -321,10 +336,10 @@
     <t>dpv:hasJustification</t>
   </si>
   <si>
+    <t>dpv:Justification</t>
+  </si>
+  <si>
     <t>Specifying a justification for non-fulfilment of Right Exercise</t>
-  </si>
-  <si>
-    <t>dpv:Justification</t>
   </si>
   <si>
     <t>dct:format</t>
@@ -2699,30 +2714,30 @@
       <c r="C10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="21">
-        <v>44856.0</v>
+        <v>45459.0</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="O10" s="20"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -2739,29 +2754,31 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="J11" s="23"/>
       <c r="K11" s="21">
-        <v>44867.0</v>
-      </c>
-      <c r="L11" s="19"/>
+        <v>44856.0</v>
+      </c>
+      <c r="L11" s="21"/>
       <c r="M11" s="20" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2786,7 @@
         <v>34</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -2787,25 +2804,23 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="21">
@@ -2819,7 +2834,7 @@
         <v>34</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -2836,96 +2851,96 @@
       <c r="AB12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="O13" s="27"/>
+      <c r="A13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="21">
+        <v>44867.0</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="C14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="O14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="21">
-        <v>44867.0</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
+      <c r="A15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="21">
@@ -2935,11 +2950,11 @@
       <c r="M16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="28" t="s">
-        <v>61</v>
+      <c r="N16" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -2956,55 +2971,102 @@
       <c r="AB16" s="19"/>
     </row>
     <row r="17">
-      <c r="A17" s="20"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21">
+        <v>44867.0</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="21">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="21">
         <v>44867.0</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20" t="s">
+      <c r="L19" s="19"/>
+      <c r="M19" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="29"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
     </row>
     <row r="20">
       <c r="B20" s="29"/>
@@ -5562,34 +5624,37 @@
     <row r="871">
       <c r="B871" s="29"/>
     </row>
+    <row r="872">
+      <c r="B872" s="29"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF2 N4:N12">
+  <conditionalFormatting sqref="A2:AF2 N4:N13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF2 N4:N12">
+  <conditionalFormatting sqref="A2:AF2 N4:N13">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB200">
+  <conditionalFormatting sqref="A2:AB201">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB17 AC2:AF821 A19:AB821">
+  <conditionalFormatting sqref="A2:AB18 AC2:AF822 A20:AB822">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="O2"/>
-    <hyperlink r:id="rId2" ref="O10"/>
-    <hyperlink r:id="rId3" ref="O11"/>
-    <hyperlink r:id="rId4" ref="O12"/>
-    <hyperlink r:id="rId5" ref="O15"/>
-    <hyperlink r:id="rId6" ref="O16"/>
+    <hyperlink r:id="rId2" ref="O11"/>
+    <hyperlink r:id="rId3" ref="O12"/>
+    <hyperlink r:id="rId4" ref="O13"/>
+    <hyperlink r:id="rId5" ref="O16"/>
+    <hyperlink r:id="rId6" ref="O17"/>
   </hyperlinks>
   <drawing r:id="rId7"/>
 </worksheet>
@@ -5629,13 +5694,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -5667,13 +5732,13 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -5682,7 +5747,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -5696,7 +5761,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>22</v>
@@ -5717,22 +5782,22 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -5746,7 +5811,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O3" s="33" t="s">
         <v>22</v>
@@ -5767,26 +5832,26 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="25" t="s">
+        <v>89</v>
+      </c>
       <c r="J4" s="19"/>
       <c r="K4" s="21"/>
       <c r="L4" s="19"/>
@@ -5813,26 +5878,26 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>86</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="25" t="s">
+        <v>92</v>
+      </c>
       <c r="J5" s="19"/>
       <c r="K5" s="21"/>
       <c r="L5" s="19"/>
@@ -5859,26 +5924,26 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>89</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="J6" s="19"/>
       <c r="K6" s="21"/>
       <c r="L6" s="19"/>
@@ -5905,24 +5970,24 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>92</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="J7" s="19"/>
       <c r="K7" s="21"/>
       <c r="L7" s="19"/>
@@ -5949,26 +6014,26 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>94</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="25" t="s">
+        <v>100</v>
+      </c>
       <c r="J8" s="19"/>
       <c r="K8" s="21"/>
       <c r="L8" s="19"/>
@@ -5995,26 +6060,26 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>97</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="J9" s="19"/>
       <c r="K9" s="21"/>
       <c r="L9" s="19"/>
@@ -6041,26 +6106,26 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="J10" s="19"/>
       <c r="K10" s="21"/>
       <c r="L10" s="19"/>
@@ -6087,26 +6152,26 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>99</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C11" s="19"/>
       <c r="D11" s="34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="J11" s="19"/>
       <c r="K11" s="21"/>
       <c r="L11" s="19"/>
@@ -6133,26 +6198,26 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>102</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="J12" s="19"/>
       <c r="K12" s="21"/>
       <c r="L12" s="19"/>
@@ -6179,22 +6244,22 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>105</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="J13" s="19"/>
       <c r="K13" s="21"/>
       <c r="L13" s="19"/>
@@ -6221,22 +6286,22 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>107</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="I14" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="J14" s="19"/>
       <c r="K14" s="21"/>
       <c r="L14" s="19"/>
@@ -6263,22 +6328,22 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>109</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="21"/>
       <c r="L15" s="19"/>
@@ -9278,10 +9343,10 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -9293,7 +9358,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K3" s="21">
         <v>44734.0</v>
@@ -9303,10 +9368,10 @@
         <v>20</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -9326,14 +9391,14 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>26</v>
@@ -9343,7 +9408,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
       <c r="J4" s="40" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K4" s="21">
         <v>44735.0</v>
@@ -9353,10 +9418,10 @@
         <v>20</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -9376,14 +9441,14 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>26</v>
@@ -9393,7 +9458,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="40" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K5" s="21">
         <v>44736.0</v>
@@ -9403,10 +9468,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -9426,14 +9491,14 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>26</v>
@@ -9443,7 +9508,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="40" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K6" s="21">
         <v>44737.0</v>
@@ -9453,10 +9518,10 @@
         <v>20</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -9476,14 +9541,14 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>26</v>
@@ -9493,7 +9558,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="40" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K7" s="21">
         <v>44738.0</v>
@@ -9503,10 +9568,10 @@
         <v>20</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -9526,14 +9591,14 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>26</v>
@@ -9543,7 +9608,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="40" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K8" s="21">
         <v>44739.0</v>
@@ -9553,10 +9618,10 @@
         <v>20</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -9576,14 +9641,14 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>26</v>
@@ -9593,7 +9658,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K9" s="21">
         <v>44740.0</v>
@@ -9603,10 +9668,10 @@
         <v>20</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -9626,14 +9691,14 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>26</v>
@@ -9643,7 +9708,7 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="40" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K10" s="21">
         <v>44741.0</v>
@@ -9653,10 +9718,10 @@
         <v>20</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
@@ -9676,14 +9741,14 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>26</v>
@@ -9693,7 +9758,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="40" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K11" s="21">
         <v>44742.0</v>
@@ -9703,10 +9768,10 @@
         <v>20</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -9726,14 +9791,14 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>26</v>
@@ -9743,7 +9808,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K12" s="21">
         <v>44743.0</v>
@@ -9753,10 +9818,10 @@
         <v>20</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -9776,14 +9841,14 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>26</v>
@@ -9793,7 +9858,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K13" s="21">
         <v>44744.0</v>
@@ -9803,10 +9868,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -9826,14 +9891,14 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
@@ -9843,7 +9908,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="40" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K14" s="21">
         <v>44745.0</v>
@@ -9853,10 +9918,10 @@
         <v>20</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -9876,14 +9941,14 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>26</v>
@@ -9893,7 +9958,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="40" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K15" s="21">
         <v>44746.0</v>
@@ -9903,10 +9968,10 @@
         <v>20</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -9926,14 +9991,14 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>26</v>
@@ -9943,7 +10008,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="40" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K16" s="21">
         <v>44747.0</v>
@@ -9953,10 +10018,10 @@
         <v>20</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -9976,14 +10041,14 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>26</v>
@@ -9993,7 +10058,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="40" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K17" s="21">
         <v>44748.0</v>
@@ -10003,10 +10068,10 @@
         <v>20</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -10026,14 +10091,14 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>26</v>
@@ -10043,7 +10108,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K18" s="21">
         <v>44749.0</v>
@@ -10053,10 +10118,10 @@
         <v>20</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -10076,14 +10141,14 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
@@ -10093,7 +10158,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="40" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K19" s="21">
         <v>44750.0</v>
@@ -10103,10 +10168,10 @@
         <v>20</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -10126,14 +10191,14 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>26</v>
@@ -10143,7 +10208,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="40" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K20" s="21">
         <v>44751.0</v>
@@ -10153,10 +10218,10 @@
         <v>20</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -10176,14 +10241,14 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
@@ -10193,7 +10258,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K21" s="21">
         <v>44752.0</v>
@@ -10203,10 +10268,10 @@
         <v>20</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -10226,14 +10291,14 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>26</v>
@@ -10243,7 +10308,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="40" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K22" s="21">
         <v>44753.0</v>
@@ -10253,10 +10318,10 @@
         <v>20</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -10276,14 +10341,14 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>26</v>
@@ -10293,7 +10358,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="40" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K23" s="21">
         <v>44754.0</v>
@@ -10303,10 +10368,10 @@
         <v>20</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -10326,14 +10391,14 @@
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
@@ -10343,7 +10408,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="40" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K24" s="21">
         <v>44755.0</v>
@@ -10353,10 +10418,10 @@
         <v>20</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -10376,14 +10441,14 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>26</v>
@@ -10393,7 +10458,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="40" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K25" s="21">
         <v>44756.0</v>
@@ -10403,10 +10468,10 @@
         <v>20</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
@@ -10426,14 +10491,14 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
@@ -10443,7 +10508,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="40" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K26" s="21">
         <v>44757.0</v>
@@ -10453,10 +10518,10 @@
         <v>20</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -10476,14 +10541,14 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>26</v>
@@ -10493,7 +10558,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="40" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K27" s="21">
         <v>44758.0</v>
@@ -10503,10 +10568,10 @@
         <v>20</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -10526,14 +10591,14 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>26</v>
@@ -10543,7 +10608,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="40" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K28" s="21">
         <v>44759.0</v>
@@ -10553,10 +10618,10 @@
         <v>20</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -10576,14 +10641,14 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>26</v>
@@ -10593,7 +10658,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="40" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K29" s="21">
         <v>44760.0</v>
@@ -10603,10 +10668,10 @@
         <v>20</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -10626,14 +10691,14 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>26</v>
@@ -10643,7 +10708,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="40" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K30" s="21">
         <v>44761.0</v>
@@ -10653,10 +10718,10 @@
         <v>20</v>
       </c>
       <c r="N30" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -10676,14 +10741,14 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
@@ -10693,7 +10758,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="40" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K31" s="21">
         <v>44762.0</v>
@@ -10703,10 +10768,10 @@
         <v>20</v>
       </c>
       <c r="N31" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -10726,14 +10791,14 @@
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>26</v>
@@ -10743,7 +10808,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="40" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K32" s="21">
         <v>44763.0</v>
@@ -10753,10 +10818,10 @@
         <v>20</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -10776,14 +10841,14 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C33" s="41"/>
       <c r="D33" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>26</v>
@@ -10793,7 +10858,7 @@
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
       <c r="J33" s="40" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K33" s="21">
         <v>44764.0</v>
@@ -10803,10 +10868,10 @@
         <v>20</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P33" s="41"/>
       <c r="Q33" s="41"/>
@@ -10826,14 +10891,14 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>26</v>
@@ -10843,7 +10908,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="40" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K34" s="21">
         <v>44765.0</v>
@@ -10853,10 +10918,10 @@
         <v>20</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -10876,14 +10941,14 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>26</v>
@@ -10893,7 +10958,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="40" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K35" s="21">
         <v>44766.0</v>
@@ -10903,10 +10968,10 @@
         <v>20</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -10926,14 +10991,14 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>26</v>
@@ -10943,7 +11008,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="40" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K36" s="21">
         <v>44767.0</v>
@@ -10953,10 +11018,10 @@
         <v>20</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -10976,14 +11041,14 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>26</v>
@@ -10993,7 +11058,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="40" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K37" s="21">
         <v>44768.0</v>
@@ -11003,10 +11068,10 @@
         <v>20</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -11026,14 +11091,14 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>26</v>
@@ -11043,7 +11108,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="40" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K38" s="21">
         <v>44769.0</v>
@@ -11053,10 +11118,10 @@
         <v>20</v>
       </c>
       <c r="N38" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -11076,14 +11141,14 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>26</v>
@@ -11093,7 +11158,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="40" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K39" s="21">
         <v>44770.0</v>
@@ -11103,10 +11168,10 @@
         <v>20</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -11126,14 +11191,14 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>26</v>
@@ -11143,7 +11208,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K40" s="21">
         <v>44771.0</v>
@@ -11153,10 +11218,10 @@
         <v>20</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -11176,14 +11241,14 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>26</v>
@@ -11193,7 +11258,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="40" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K41" s="21">
         <v>44772.0</v>
@@ -11203,10 +11268,10 @@
         <v>20</v>
       </c>
       <c r="N41" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -11226,14 +11291,14 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>26</v>
@@ -11243,7 +11308,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="40" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K42" s="21">
         <v>44773.0</v>
@@ -11253,10 +11318,10 @@
         <v>20</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -11276,14 +11341,14 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>26</v>
@@ -11293,7 +11358,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="40" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K43" s="21">
         <v>44774.0</v>
@@ -11303,10 +11368,10 @@
         <v>20</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -11326,14 +11391,14 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>26</v>
@@ -11343,7 +11408,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="40" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K44" s="21">
         <v>44775.0</v>
@@ -11353,10 +11418,10 @@
         <v>20</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -11376,14 +11441,14 @@
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>26</v>
@@ -11393,7 +11458,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="40" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K45" s="21">
         <v>44776.0</v>
@@ -11403,10 +11468,10 @@
         <v>20</v>
       </c>
       <c r="N45" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -11426,14 +11491,14 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>26</v>
@@ -11443,7 +11508,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
       <c r="J46" s="40" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K46" s="21">
         <v>44777.0</v>
@@ -11453,10 +11518,10 @@
         <v>20</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P46" s="41"/>
       <c r="Q46" s="41"/>
@@ -11476,14 +11541,14 @@
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>26</v>
@@ -11493,7 +11558,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="40" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K47" s="21">
         <v>44778.0</v>
@@ -11503,10 +11568,10 @@
         <v>20</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -11526,14 +11591,14 @@
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>26</v>
@@ -11543,7 +11608,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="40" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K48" s="21">
         <v>44779.0</v>
@@ -11553,10 +11618,10 @@
         <v>20</v>
       </c>
       <c r="N48" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -11576,14 +11641,14 @@
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>26</v>
@@ -11593,7 +11658,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="40" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K49" s="21">
         <v>44780.0</v>
@@ -11603,10 +11668,10 @@
         <v>20</v>
       </c>
       <c r="N49" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -11626,14 +11691,14 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>26</v>
@@ -11643,7 +11708,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="40" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K50" s="21">
         <v>44781.0</v>
@@ -11653,10 +11718,10 @@
         <v>20</v>
       </c>
       <c r="N50" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -11676,14 +11741,14 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>26</v>
@@ -11693,7 +11758,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="40" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K51" s="21">
         <v>44782.0</v>
@@ -11703,10 +11768,10 @@
         <v>20</v>
       </c>
       <c r="N51" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -11726,14 +11791,14 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>26</v>
@@ -11743,7 +11808,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="40" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K52" s="21">
         <v>44783.0</v>
@@ -11753,10 +11818,10 @@
         <v>20</v>
       </c>
       <c r="N52" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -11776,14 +11841,14 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>26</v>
@@ -11793,7 +11858,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="40" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K53" s="21">
         <v>44784.0</v>
@@ -11803,10 +11868,10 @@
         <v>20</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -11826,14 +11891,14 @@
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>26</v>
@@ -11843,7 +11908,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="40" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K54" s="21">
         <v>44785.0</v>
@@ -11853,10 +11918,10 @@
         <v>20</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -11876,14 +11941,14 @@
     </row>
     <row r="55">
       <c r="A55" s="42" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C55" s="41"/>
       <c r="D55" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>26</v>
@@ -11893,7 +11958,7 @@
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
       <c r="J55" s="40" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K55" s="21">
         <v>44786.0</v>
@@ -11903,10 +11968,10 @@
         <v>20</v>
       </c>
       <c r="N55" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -11926,14 +11991,14 @@
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="22" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>26</v>
@@ -11943,7 +12008,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="40" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K56" s="21">
         <v>44787.0</v>
@@ -11953,10 +12018,10 @@
         <v>20</v>
       </c>
       <c r="N56" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -11976,14 +12041,14 @@
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="22" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>26</v>
@@ -11993,7 +12058,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="40" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K57" s="21">
         <v>44788.0</v>
@@ -12003,10 +12068,10 @@
         <v>20</v>
       </c>
       <c r="N57" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -12026,14 +12091,14 @@
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="22" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>26</v>
@@ -12043,7 +12108,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="40" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K58" s="21">
         <v>44789.0</v>
@@ -12053,10 +12118,10 @@
         <v>20</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -12076,14 +12141,14 @@
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="22" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>26</v>
@@ -12093,7 +12158,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="40" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K59" s="21">
         <v>44790.0</v>
@@ -12103,10 +12168,10 @@
         <v>20</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -12126,14 +12191,14 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>26</v>
@@ -12143,7 +12208,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="40" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K60" s="21">
         <v>44791.0</v>
@@ -12153,10 +12218,10 @@
         <v>20</v>
       </c>
       <c r="N60" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -12176,14 +12241,14 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>26</v>
@@ -12193,7 +12258,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="40" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K61" s="21">
         <v>44792.0</v>
@@ -12203,10 +12268,10 @@
         <v>20</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -12226,14 +12291,14 @@
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>26</v>
@@ -12243,7 +12308,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="40" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K62" s="21">
         <v>44793.0</v>
@@ -12253,10 +12318,10 @@
         <v>20</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -12276,14 +12341,14 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>26</v>
@@ -12293,7 +12358,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="40" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K63" s="21">
         <v>44794.0</v>
@@ -12303,10 +12368,10 @@
         <v>20</v>
       </c>
       <c r="N63" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -12326,14 +12391,14 @@
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C64" s="19"/>
       <c r="D64" s="20" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>26</v>
@@ -12343,7 +12408,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="40" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K64" s="21">
         <v>44795.0</v>
@@ -12353,10 +12418,10 @@
         <v>20</v>
       </c>
       <c r="N64" s="20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -150,7 +150,7 @@
     <t>dpv:OrganisationalMeasure</t>
   </si>
   <si>
-    <t>This concept also covers information about rights exercise, with dpv:RightExerciseNotice specifically representing information provided in connection with exercising of rights. Both notices may be needed, e.g. RightNotice for providing information about existence and exercise of rights, and RightExerciseNotice for providing additional information specifically about exericse of rights - such as to request more information or provide updates on an exercised rights request</t>
+    <t>This concept also covers information about rights exercise, with dpv:RightExerciseNotice specifically representing information provided in connection with exercising of rights. Both notices may be needed, e.g. RightNotice for providing information about existence and exercise of rights, and RightExerciseNotice for providing additional information specifically about exercise of rights - such as to request more information or provide updates on an exercised rights request</t>
   </si>
   <si>
     <t>Harshvardhan J. Pandit</t>
@@ -351,13 +351,13 @@
     <t>dct:accessRights</t>
   </si>
   <si>
-    <t>Specfiying constraints on access associated with Rights Exercising (e.g. User must log in) or access to provided data (e.g. access via link)</t>
+    <t>Specifying constraints on access associated with Rights Exercising (e.g. User must log in) or access to provided data (e.g. access via link)</t>
   </si>
   <si>
     <t>dct:valid</t>
   </si>
   <si>
-    <t>Specfiying the temporal validity of an activity associated with Right Exercise. For example, limits on duration for providing or accessing provided information</t>
+    <t>Specifying the temporal validity of an activity associated with Right Exercise. For example, limits on duration for providing or accessing provided information</t>
   </si>
   <si>
     <t>EUFundamentalRights</t>
@@ -556,7 +556,7 @@
     <t>A6-RightToLiberySecurity</t>
   </si>
   <si>
-    <t>A6 Right To Libery Security</t>
+    <t>A6 Right To Liberty Security</t>
   </si>
   <si>
     <t>eu-rights:T2-Freedoms</t>
@@ -1393,7 +1393,7 @@
     <t>A39-RightToVoteStandAsCanditateEUParliament</t>
   </si>
   <si>
-    <t>A39 Right To Vote Stand As Canditate E U Parliament</t>
+    <t>A39 Right To Vote Stand As Candidate E U Parliament</t>
   </si>
   <si>
     <t>eu-rights:T5-CitizensRights</t>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="310">
   <si>
     <t>Term</t>
   </si>
@@ -9348,7 +9348,9 @@
       <c r="B3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20" t="s">
         <v>26</v>
@@ -9396,7 +9398,9 @@
       <c r="B4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="D4" s="20" t="s">
         <v>121</v>
       </c>
@@ -9446,7 +9450,9 @@
       <c r="B5" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="D5" s="20" t="s">
         <v>125</v>
       </c>
@@ -9496,7 +9502,9 @@
       <c r="B6" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="D6" s="20" t="s">
         <v>125</v>
       </c>
@@ -9546,7 +9554,9 @@
       <c r="B7" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="D7" s="20" t="s">
         <v>125</v>
       </c>
@@ -9596,7 +9606,9 @@
       <c r="B8" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>125</v>
       </c>
@@ -9646,7 +9658,9 @@
       <c r="B9" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>125</v>
       </c>
@@ -9696,7 +9710,9 @@
       <c r="B10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>121</v>
       </c>
@@ -9746,7 +9762,9 @@
       <c r="B11" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>144</v>
       </c>
@@ -9796,7 +9814,9 @@
       <c r="B12" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>144</v>
       </c>
@@ -9846,7 +9866,9 @@
       <c r="B13" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>144</v>
       </c>
@@ -9896,7 +9918,9 @@
       <c r="B14" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>144</v>
       </c>
@@ -9946,7 +9970,9 @@
       <c r="B15" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>144</v>
       </c>
@@ -9996,7 +10022,9 @@
       <c r="B16" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>144</v>
       </c>
@@ -10046,7 +10074,9 @@
       <c r="B17" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>144</v>
       </c>
@@ -10096,7 +10126,9 @@
       <c r="B18" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="20" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>144</v>
       </c>
@@ -10146,7 +10178,9 @@
       <c r="B19" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>144</v>
       </c>
@@ -10196,7 +10230,9 @@
       <c r="B20" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>144</v>
       </c>
@@ -10246,7 +10282,9 @@
       <c r="B21" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="D21" s="20" t="s">
         <v>144</v>
       </c>
@@ -10296,7 +10334,9 @@
       <c r="B22" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="D22" s="20" t="s">
         <v>144</v>
       </c>
@@ -10346,7 +10386,9 @@
       <c r="B23" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="D23" s="20" t="s">
         <v>144</v>
       </c>
@@ -10396,7 +10438,9 @@
       <c r="B24" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="20" t="s">
+        <v>183</v>
+      </c>
       <c r="D24" s="20" t="s">
         <v>144</v>
       </c>
@@ -10446,7 +10490,9 @@
       <c r="B25" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="D25" s="20" t="s">
         <v>121</v>
       </c>
@@ -10496,7 +10542,9 @@
       <c r="B26" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="D26" s="20" t="s">
         <v>190</v>
       </c>
@@ -10546,7 +10594,9 @@
       <c r="B27" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="D27" s="20" t="s">
         <v>190</v>
       </c>
@@ -10596,7 +10646,9 @@
       <c r="B28" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="D28" s="20" t="s">
         <v>190</v>
       </c>
@@ -10646,7 +10698,9 @@
       <c r="B29" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>199</v>
+      </c>
       <c r="D29" s="20" t="s">
         <v>190</v>
       </c>
@@ -10696,7 +10750,9 @@
       <c r="B30" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="D30" s="20" t="s">
         <v>190</v>
       </c>
@@ -10746,7 +10802,9 @@
       <c r="B31" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="D31" s="20" t="s">
         <v>190</v>
       </c>
@@ -10796,7 +10854,9 @@
       <c r="B32" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="D32" s="20" t="s">
         <v>190</v>
       </c>
@@ -10846,7 +10906,9 @@
       <c r="B33" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="41"/>
+      <c r="C33" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="D33" s="20" t="s">
         <v>121</v>
       </c>
@@ -10896,7 +10958,9 @@
       <c r="B34" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="D34" s="20" t="s">
         <v>215</v>
       </c>
@@ -10946,7 +11010,9 @@
       <c r="B35" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="D35" s="20" t="s">
         <v>215</v>
       </c>
@@ -10996,7 +11062,9 @@
       <c r="B36" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="D36" s="20" t="s">
         <v>215</v>
       </c>
@@ -11046,7 +11114,9 @@
       <c r="B37" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="D37" s="20" t="s">
         <v>215</v>
       </c>
@@ -11096,7 +11166,9 @@
       <c r="B38" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="D38" s="20" t="s">
         <v>215</v>
       </c>
@@ -11146,7 +11218,9 @@
       <c r="B39" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="20" t="s">
+        <v>230</v>
+      </c>
       <c r="D39" s="20" t="s">
         <v>215</v>
       </c>
@@ -11196,7 +11270,9 @@
       <c r="B40" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="D40" s="20" t="s">
         <v>215</v>
       </c>
@@ -11246,7 +11322,9 @@
       <c r="B41" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="D41" s="20" t="s">
         <v>215</v>
       </c>
@@ -11296,7 +11374,9 @@
       <c r="B42" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="19"/>
+      <c r="C42" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="D42" s="20" t="s">
         <v>215</v>
       </c>
@@ -11346,7 +11426,9 @@
       <c r="B43" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C43" s="19"/>
+      <c r="C43" s="20" t="s">
+        <v>242</v>
+      </c>
       <c r="D43" s="20" t="s">
         <v>215</v>
       </c>
@@ -11396,7 +11478,9 @@
       <c r="B44" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="20" t="s">
+        <v>245</v>
+      </c>
       <c r="D44" s="20" t="s">
         <v>215</v>
       </c>
@@ -11446,7 +11530,9 @@
       <c r="B45" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="19"/>
+      <c r="C45" s="20" t="s">
+        <v>248</v>
+      </c>
       <c r="D45" s="20" t="s">
         <v>215</v>
       </c>
@@ -11496,7 +11582,9 @@
       <c r="B46" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="41"/>
+      <c r="C46" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="D46" s="20" t="s">
         <v>121</v>
       </c>
@@ -11546,7 +11634,9 @@
       <c r="B47" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="19"/>
+      <c r="C47" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="D47" s="20" t="s">
         <v>255</v>
       </c>
@@ -11596,7 +11686,9 @@
       <c r="B48" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="19"/>
+      <c r="C48" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="D48" s="20" t="s">
         <v>255</v>
       </c>
@@ -11646,7 +11738,9 @@
       <c r="B49" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="D49" s="20" t="s">
         <v>255</v>
       </c>
@@ -11696,7 +11790,9 @@
       <c r="B50" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="19"/>
+      <c r="C50" s="20" t="s">
+        <v>264</v>
+      </c>
       <c r="D50" s="20" t="s">
         <v>255</v>
       </c>
@@ -11746,7 +11842,9 @@
       <c r="B51" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="19"/>
+      <c r="C51" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="D51" s="20" t="s">
         <v>255</v>
       </c>
@@ -11796,7 +11894,9 @@
       <c r="B52" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C52" s="19"/>
+      <c r="C52" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="D52" s="20" t="s">
         <v>255</v>
       </c>
@@ -11846,7 +11946,9 @@
       <c r="B53" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="C53" s="19"/>
+      <c r="C53" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="D53" s="20" t="s">
         <v>255</v>
       </c>
@@ -11896,7 +11998,9 @@
       <c r="B54" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C54" s="19"/>
+      <c r="C54" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="D54" s="20" t="s">
         <v>255</v>
       </c>
@@ -11946,7 +12050,9 @@
       <c r="B55" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="41"/>
+      <c r="C55" s="42" t="s">
+        <v>279</v>
+      </c>
       <c r="D55" s="20" t="s">
         <v>121</v>
       </c>
@@ -11996,7 +12102,9 @@
       <c r="B56" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C56" s="19"/>
+      <c r="C56" s="22" t="s">
+        <v>282</v>
+      </c>
       <c r="D56" s="22" t="s">
         <v>283</v>
       </c>
@@ -12046,7 +12154,9 @@
       <c r="B57" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="22" t="s">
+        <v>286</v>
+      </c>
       <c r="D57" s="22" t="s">
         <v>283</v>
       </c>
@@ -12096,7 +12206,9 @@
       <c r="B58" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="19"/>
+      <c r="C58" s="22" t="s">
+        <v>289</v>
+      </c>
       <c r="D58" s="22" t="s">
         <v>283</v>
       </c>
@@ -12146,7 +12258,9 @@
       <c r="B59" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="C59" s="19"/>
+      <c r="C59" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="D59" s="22" t="s">
         <v>283</v>
       </c>
@@ -12196,7 +12310,9 @@
       <c r="B60" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C60" s="19"/>
+      <c r="C60" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="D60" s="20" t="s">
         <v>121</v>
       </c>
@@ -12246,7 +12362,9 @@
       <c r="B61" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C61" s="19"/>
+      <c r="C61" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="D61" s="20" t="s">
         <v>299</v>
       </c>
@@ -12296,7 +12414,9 @@
       <c r="B62" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="19"/>
+      <c r="C62" s="20" t="s">
+        <v>302</v>
+      </c>
       <c r="D62" s="20" t="s">
         <v>299</v>
       </c>
@@ -12346,7 +12466,9 @@
       <c r="B63" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C63" s="19"/>
+      <c r="C63" s="20" t="s">
+        <v>305</v>
+      </c>
       <c r="D63" s="20" t="s">
         <v>299</v>
       </c>
@@ -12396,7 +12518,9 @@
       <c r="B64" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C64" s="19"/>
+      <c r="C64" s="20" t="s">
+        <v>308</v>
+      </c>
       <c r="D64" s="20" t="s">
         <v>299</v>
       </c>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Rights" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Rights_properties" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="EUFundamentalRights" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="EUFundamentalRights_Impacts" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="623">
   <si>
     <t>Term</t>
   </si>
@@ -1794,6 +1795,1995 @@
   </si>
   <si>
     <t>A54 Prohibition Of Abuse Of Rights</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>EUFundamentalRightsImpact</t>
+  </si>
+  <si>
+    <t>Impact on EU Fundamental Rights</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on EU Fundamental Rights</t>
+  </si>
+  <si>
+    <t>risk:RightsImpact</t>
+  </si>
+  <si>
+    <t>risk:RiskConcept</t>
+  </si>
+  <si>
+    <t>R,C,I</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T1-DignityImpact</t>
+  </si>
+  <si>
+    <t>Impact on T1 Dignity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T1 Dignity</t>
+  </si>
+  <si>
+    <t>eu-rights:EUFundamentalRightsImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A1-HumanDignityImpact</t>
+  </si>
+  <si>
+    <t>Impact on A1 Human Dignity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A1 Human Dignity</t>
+  </si>
+  <si>
+    <t>eu-rights:T1-DignityImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A2-RightToLifeImpact</t>
+  </si>
+  <si>
+    <t>Impact on A2 Right To Life</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A2 Right To Life</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A3-RightToIntegrityOfPersonImpact</t>
+  </si>
+  <si>
+    <t>Impact on A3 Right To Integrity Of Person</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A3 Right To Integrity Of Person</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A4-ProhibitionOfTortureDegradationPunishmentImpact</t>
+  </si>
+  <si>
+    <t>Impact on A4 Prohibition Of Torture Degradation Punishment</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A4 Prohibition Of Torture Degradation Punishment</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A5-ProhibitionOfSlaveryForcedLabourImpact</t>
+  </si>
+  <si>
+    <t>Impact on A5 Prohibition Of Slavery Forced Labour</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A5 Prohibition Of Slavery Forced Labour</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T2-FreedomsImpact</t>
+  </si>
+  <si>
+    <t>Impact on T2 Freedoms</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T2 Freedoms</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A6-RightToLiberySecurityImpact</t>
+  </si>
+  <si>
+    <t>Impact on A6 Right To Liberty Security</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A6 Right To Liberty Security</t>
+  </si>
+  <si>
+    <t>eu-rights:T2-FreedomsImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A7-RespectPrivateFamilyLifeImpact</t>
+  </si>
+  <si>
+    <t>Impact on A7 Respect Private Family Life</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A7 Respect Private Family Life</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProtectionOfPersonalDataImpact</t>
+  </si>
+  <si>
+    <t>Impact on A8 Protection Of Personal Data</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A8 Protection Of Personal Data</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A9-RightToMarryFoundFamilyImpact</t>
+  </si>
+  <si>
+    <t>Impact on A9 Right To Marry Found Family</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A9 Right To Marry Found Family</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A10-FreedomOfThoughtConscienceReligionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A10 Freedom Of Thought Conscience Religion</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A10 Freedom Of Thought Conscience Religion</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A11-FreedomOfExpressionInformationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A11 Freedom Of Expression Information</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A11 Freedom Of Expression Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A12-FreedomOfAssemblyAssociationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A12 Freedom Of Assembly Association</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A12 Freedom Of Assembly Association</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A13-FreedomOfArtsSciencesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A13 Freedom Of Arts Sciences</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A13 Freedom Of Arts Sciences</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A14-RightToEducationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A14 Right To Education</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A14 Right To Education</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A15-FreedomToChooseOccupationEngageWorkImpact</t>
+  </si>
+  <si>
+    <t>Impact on A15 Freedom To Choose Occupation Engage Work</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A15 Freedom To Choose Occupation Engage Work</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A16-FreedomToConductBusinessImpact</t>
+  </si>
+  <si>
+    <t>Impact on A16 Freedom To Conduct Business</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A16 Freedom To Conduct Business</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A17-RightToPropertyImpact</t>
+  </si>
+  <si>
+    <t>Impact on A17 Right To Property</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A17 Right To Property</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A18-RightToAsylumImpact</t>
+  </si>
+  <si>
+    <t>Impact on A18 Right To Asylum</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A18 Right To Asylum</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A19-ProtectionRemovalExpulsionExtraditionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A19 Protection Removal Expulsion Extradition</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A19 Protection Removal Expulsion Extradition</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T3-EqualityImpact</t>
+  </si>
+  <si>
+    <t>Impact on T3 Equality</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T3 Equality</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A20-EqualityBeforeLawImpact</t>
+  </si>
+  <si>
+    <t>Impact on A20 Equality Before Law</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A20 Equality Before Law</t>
+  </si>
+  <si>
+    <t>eu-rights:T3-EqualityImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A21-NonDiscriminationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A21 Non Discrimination</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A21 Non Discrimination</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A22-CulturalReligiousLinguisticDiversityImpact</t>
+  </si>
+  <si>
+    <t>Impact on A22 Cultural Religious Linguistic Diversity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A22 Cultural Religious Linguistic Diversity</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A23-EqualityBetweenWomenMenImpact</t>
+  </si>
+  <si>
+    <t>Impact on A23 Equality Between Women Men</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A23 Equality Between Women Men</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A24-RightsOfChildImpact</t>
+  </si>
+  <si>
+    <t>Impact on A24 Rights Of Child</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A24 Rights Of Child</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A25-RightsOfElderlyImpact</t>
+  </si>
+  <si>
+    <t>Impact on A25 Rights Of Elderly</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A25 Rights Of Elderly</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A26-IntegrationOfPersonsWithDisabilitiesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A26 Integration Of Persons With Disabilities</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A26 Integration Of Persons With Disabilities</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T4-SolidarityImpact</t>
+  </si>
+  <si>
+    <t>Impact on T4 Solidarity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T4 Solidarity</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A27-WorkersRightToInformationConsultationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A27 Workers Right To Information Consultation</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A27 Workers Right To Information Consultation</t>
+  </si>
+  <si>
+    <t>eu-rights:T4-SolidarityImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A28-RightOfCollectiveBargainingActionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A28 Right Of Collective Bargaining Action</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A28 Right Of Collective Bargaining Action</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A29-RightOfAccessToPlacementServicesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A29 Right Of Access To Placement Services</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A29 Right Of Access To Placement Services</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A30-ProtectionUnjustifiedDismissalImpact</t>
+  </si>
+  <si>
+    <t>Impact on A30 Protection Unjustified Dismissal</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A30 Protection Unjustified Dismissal</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A31-FairJustWorkingConditionsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A31 Fair Just Working Conditions</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A31 Fair Just Working Conditions</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A32-ProhibitionOfChildLabourProtectionofYoungAtWorkImpact</t>
+  </si>
+  <si>
+    <t>Impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A33-FamilyProfessionalLifeImpact</t>
+  </si>
+  <si>
+    <t>Impact on A33 Family Professional Life</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A33 Family Professional Life</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A34-SocialSecuritySocialAssistanceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A34 Social Security Social Assistance</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A34 Social Security Social Assistance</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A35-HealthcareImpact</t>
+  </si>
+  <si>
+    <t>Impact on A35 Healthcare</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A35 Healthcare</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A36-AccessToServicesOfGeneralEconomicInterestImpact</t>
+  </si>
+  <si>
+    <t>Impact on A36 Access To Services Of General Economic Interest</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A36 Access To Services Of General Economic Interest</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A37-EnvironmentalProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A37 Environmental Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A37 Environmental Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A38-ConsumerProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A38 Consumer Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A38 Consumer Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T5-CitizensRightsImpact</t>
+  </si>
+  <si>
+    <t>Impact on T5 Citizens Rights</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T5 Citizens Rights</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A39-RightToVoteStandAsCanditateEUParliamentImpact</t>
+  </si>
+  <si>
+    <t>Impact on A39 Right To Vote Stand As Candidate E U Parliament</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A39 Right To Vote Stand As Candidate E U Parliament</t>
+  </si>
+  <si>
+    <t>eu-rights:T5-CitizensRightsImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A40-RightToVoteStandAsCandidateMunicipalElectionsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A40 Right To Vote Stand As Candidate Municipal Elections</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A40 Right To Vote Stand As Candidate Municipal Elections</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A41-RightToGoodAdministrationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A41 Right To Good Administration</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A41 Right To Good Administration</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A42-RightToAccessToDocumentsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A42 Right To Access To Documents</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A42 Right To Access To Documents</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A43-EuropeanOmbudsmanImpact</t>
+  </si>
+  <si>
+    <t>Impact on A43 European Ombudsman</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A43 European Ombudsman</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A44-RightToPetitionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A44 Right To Petition</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A44 Right To Petition</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A45-FreedomOfMovementAndResidenceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A45 Freedom Of Movement And Residence</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A45 Freedom Of Movement And Residence</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A46-DiplomaticConsularProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A46 Diplomatic Consular Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A46 Diplomatic Consular Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T6-JusticeImpact</t>
+  </si>
+  <si>
+    <t>Impact on T6 Justice</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T6 Justice</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A47-RightToEffectiveRemedyFairTrialImpact</t>
+  </si>
+  <si>
+    <t>Impact on A47 Right To Effective Remedy Fair Trial</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A47 Right To Effective Remedy Fair Trial</t>
+  </si>
+  <si>
+    <t>eu-rights:T6-JusticeImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A48-PresumptionOfInnocenceRightOfDefenceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A48 Presumption Of Innocence Right Of Defence</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A48 Presumption Of Innocence Right Of Defence</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A49-PrinciplesOfLegalityProportionalityCriminalOffencesPenaltiesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A49 Principles Of Legality Proportionality Criminal Offences Penalties</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A49 Principles Of Legality Proportionality Criminal Offences Penalties</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A50-RightNotBeTriedPunishedTwiceForSameCriminalOffenceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A50 Right Not Be Tried Punished Twice For Same Criminal Offence</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A50 Right Not Be Tried Punished Twice For Same Criminal Offence</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T7-InterpretationAndApplicationImpact</t>
+  </si>
+  <si>
+    <t>Impact on T7 Interpretation And Application</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T7 Interpretation And Application</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A51-FieldOfApplicationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A51 Field Of Application</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A51 Field Of Application</t>
+  </si>
+  <si>
+    <t>eu-rights:T7-InterpretationAndApplicationImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A52-ScopeInterpretationOfRightsPrinciplesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A52 Scope Interpretation Of Rights Principles</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A52 Scope Interpretation Of Rights Principles</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A53-LevelOfProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A53 Level Of Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A53 Level Of Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A54-ProhibitionOfAbuseOfRightsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A54 Prohibition Of Abuse Of Rights</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A54 Prohibition Of Abuse Of Rights</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Violated</t>
+  </si>
+  <si>
+    <t>A8 Violated</t>
+  </si>
+  <si>
+    <t>Where the right to protection of personal data is violated</t>
+  </si>
+  <si>
+    <t>eu-rights:A8-ProtectionOfPersonalDataImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ExercisePrevented</t>
+  </si>
+  <si>
+    <t>A8 ExercisePrevented</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is prevented from being carried out</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Limited</t>
+  </si>
+  <si>
+    <t>A8 Limited</t>
+  </si>
+  <si>
+    <t>Where not all personal data has been protected or adequately protected</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Denied</t>
+  </si>
+  <si>
+    <t>A8 Denied</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is denied to be applicable or required</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Unfulfilled</t>
+  </si>
+  <si>
+    <t>A8 Unfulfilled</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is not carried out</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Obstructed</t>
+  </si>
+  <si>
+    <t>A8 Obstructed</t>
+  </si>
+  <si>
+    <t>Where barriers are created or are present to protect personal data</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Eroded</t>
+  </si>
+  <si>
+    <t>A8 Eroded</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is affected negatively systematically and over time</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-UnfairProcessing</t>
+  </si>
+  <si>
+    <t>A8 Unfair Processing</t>
+  </si>
+  <si>
+    <t>Where there is unfair processing of personal data</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProcessingWithNonspecificPurposes</t>
+  </si>
+  <si>
+    <t>A8 Processing with Nonspecific Purposes</t>
+  </si>
+  <si>
+    <t>Where there is processing of personal data for or with non-specific purposes i.e. processing is not limited to specific purposes</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProcessingWithoutValidLegalBasis</t>
+  </si>
+  <si>
+    <t>A8 Processing without Valid Legal Basis</t>
+  </si>
+  <si>
+    <t>Where there is processing of personal data without a valid legal basis established in law</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProcessingWithoutValidConsent</t>
+  </si>
+  <si>
+    <t>A8 Processing without Valid Consent</t>
+  </si>
+  <si>
+    <t>Where there is processing of personal data without valid consent where consent is the valid legal basis as established in law</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-AccessImpacted</t>
+  </si>
+  <si>
+    <t>A8 Access Impacted</t>
+  </si>
+  <si>
+    <t>Where the right of access of personal data is impacted</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-RectificiationImpacted</t>
+  </si>
+  <si>
+    <t>A8 Rectificiation Impacted</t>
+  </si>
+  <si>
+    <t>Where the right of rectification of personal data is impacted</t>
   </si>
   <si>
     <r>
@@ -1966,7 +3956,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2105,6 +4095,9 @@
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2195,6 +4188,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -12831,4 +14828,4379 @@
   </hyperlinks>
   <drawing r:id="rId125"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.88"/>
+    <col customWidth="1" min="2" max="2" width="31.88"/>
+    <col customWidth="1" min="3" max="3" width="60.88"/>
+    <col customWidth="1" min="10" max="10" width="43.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" s="21">
+        <v>44734.0</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L3" s="21">
+        <v>44735.0</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="21">
+        <v>44736.0</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="21">
+        <v>44737.0</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L6" s="21">
+        <v>44738.0</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L7" s="21">
+        <v>44739.0</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L8" s="21">
+        <v>44740.0</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="21">
+        <v>44741.0</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L10" s="21">
+        <v>44742.0</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L11" s="21">
+        <v>44743.0</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L12" s="21">
+        <v>44744.0</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L13" s="21">
+        <v>44745.0</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="21">
+        <v>44746.0</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="L15" s="21">
+        <v>44747.0</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="L16" s="21">
+        <v>44748.0</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="L17" s="21">
+        <v>44749.0</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="L18" s="21">
+        <v>44750.0</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="L19" s="21">
+        <v>44751.0</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="L20" s="21">
+        <v>44752.0</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="L21" s="21">
+        <v>44753.0</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L22" s="21">
+        <v>44754.0</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="L23" s="21">
+        <v>44755.0</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="L24" s="21">
+        <v>44756.0</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" s="21">
+        <v>44757.0</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="L26" s="21">
+        <v>44758.0</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="L27" s="21">
+        <v>44759.0</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="L28" s="21">
+        <v>44760.0</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="L29" s="21">
+        <v>44761.0</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="L30" s="21">
+        <v>44762.0</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="L31" s="21">
+        <v>44763.0</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="L32" s="21">
+        <v>44764.0</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="L33" s="21">
+        <v>44765.0</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="L34" s="21">
+        <v>44766.0</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="L35" s="21">
+        <v>44767.0</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="L36" s="21">
+        <v>44768.0</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="L37" s="21">
+        <v>44769.0</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="L38" s="21">
+        <v>44770.0</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="L39" s="21">
+        <v>44771.0</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="L40" s="21">
+        <v>44772.0</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="L41" s="21">
+        <v>44773.0</v>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="L42" s="21">
+        <v>44774.0</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="L43" s="21">
+        <v>44775.0</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="L44" s="21">
+        <v>44776.0</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="G45" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="L45" s="21">
+        <v>44777.0</v>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="L46" s="21">
+        <v>44778.0</v>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="L47" s="21">
+        <v>44779.0</v>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="L48" s="21">
+        <v>44780.0</v>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="L49" s="21">
+        <v>44781.0</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="L50" s="21">
+        <v>44782.0</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="L51" s="21">
+        <v>44783.0</v>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="L52" s="21">
+        <v>44784.0</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="L53" s="21">
+        <v>44785.0</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="L54" s="21">
+        <v>44786.0</v>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="L55" s="21">
+        <v>44787.0</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="L56" s="21">
+        <v>44788.0</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="L57" s="21">
+        <v>44789.0</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="L58" s="21">
+        <v>44790.0</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="L59" s="21">
+        <v>44791.0</v>
+      </c>
+      <c r="M59" s="19"/>
+      <c r="N59" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="L60" s="21">
+        <v>44792.0</v>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="L61" s="21">
+        <v>44793.0</v>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="L62" s="21">
+        <v>44794.0</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="L63" s="21">
+        <v>44795.0</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P63" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+    </row>
+    <row r="64">
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="L66" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M66" s="19"/>
+      <c r="N66" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="L67" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="L68" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M68" s="19"/>
+      <c r="N68" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="L69" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M69" s="19"/>
+      <c r="N69" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="L70" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="19"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="L71" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="19"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="L72" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="9"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="41"/>
+      <c r="AC73" s="41"/>
+      <c r="AD73" s="41"/>
+      <c r="AE73" s="41"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="L74" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M74" s="19"/>
+      <c r="N74" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="L75" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M75" s="19"/>
+      <c r="N75" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="L76" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M76" s="19"/>
+      <c r="N76" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="46" t="s">
+        <v>611</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="G77" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="L77" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M77" s="19"/>
+      <c r="N77" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="46" t="s">
+        <v>615</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="40" t="s">
+        <v>618</v>
+      </c>
+      <c r="L78" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M78" s="19"/>
+      <c r="N78" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="19"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="19"/>
+      <c r="AB78" s="19"/>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="19"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="46" t="s">
+        <v>619</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="19"/>
+      <c r="G79" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="L79" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M79" s="19"/>
+      <c r="N79" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="19"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19"/>
+      <c r="AE79" s="19"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="46"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="45"/>
+      <c r="L81" s="21"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="47"/>
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="L83" s="21"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AE220">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$N2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AC186">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$N2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C3 D2:D9 E2:E220 F2:F3 G2:G220 H2:J3 K2:P220 Q2:AC3 AD2:AE24 A21:C24 D21:D22 F21:F24 H21:J24 Q21:AC24 D24:D32 A38:D39 F38:F39 H38:J39 Q38:AE39 D45 D54 D59 A63:D220 F63:F220 H63:J220 Q63:AE220">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$N2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C3 D2:D9 E2:E220 F2:F3 G2:G220 H2:J3 K2:P220 Q2:AC3 AD2:AE24 A21:C24 D21:D22 F21:F24 H21:J24 Q21:AC24 D24:D32 A38:D39 F38:F39 H38:J39 Q38:AE39 D45 D54 D59 A63:D220 F63:F220 H63:J220 Q63:AE220">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$N2="deprecated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="K2"/>
+    <hyperlink r:id="rId2" ref="P2"/>
+    <hyperlink r:id="rId3" ref="K3"/>
+    <hyperlink r:id="rId4" ref="P3"/>
+    <hyperlink r:id="rId5" ref="K4"/>
+    <hyperlink r:id="rId6" ref="P4"/>
+    <hyperlink r:id="rId7" ref="K5"/>
+    <hyperlink r:id="rId8" ref="P5"/>
+    <hyperlink r:id="rId9" ref="K6"/>
+    <hyperlink r:id="rId10" ref="P6"/>
+    <hyperlink r:id="rId11" ref="K7"/>
+    <hyperlink r:id="rId12" ref="P7"/>
+    <hyperlink r:id="rId13" ref="K8"/>
+    <hyperlink r:id="rId14" ref="P8"/>
+    <hyperlink r:id="rId15" ref="K9"/>
+    <hyperlink r:id="rId16" ref="P9"/>
+    <hyperlink r:id="rId17" ref="K10"/>
+    <hyperlink r:id="rId18" ref="P10"/>
+    <hyperlink r:id="rId19" ref="K11"/>
+    <hyperlink r:id="rId20" ref="P11"/>
+    <hyperlink r:id="rId21" ref="K12"/>
+    <hyperlink r:id="rId22" ref="P12"/>
+    <hyperlink r:id="rId23" ref="K13"/>
+    <hyperlink r:id="rId24" ref="P13"/>
+    <hyperlink r:id="rId25" ref="K14"/>
+    <hyperlink r:id="rId26" ref="P14"/>
+    <hyperlink r:id="rId27" ref="K15"/>
+    <hyperlink r:id="rId28" ref="P15"/>
+    <hyperlink r:id="rId29" ref="K16"/>
+    <hyperlink r:id="rId30" ref="P16"/>
+    <hyperlink r:id="rId31" ref="K17"/>
+    <hyperlink r:id="rId32" ref="P17"/>
+    <hyperlink r:id="rId33" ref="K18"/>
+    <hyperlink r:id="rId34" ref="P18"/>
+    <hyperlink r:id="rId35" ref="K19"/>
+    <hyperlink r:id="rId36" ref="P19"/>
+    <hyperlink r:id="rId37" ref="K20"/>
+    <hyperlink r:id="rId38" ref="P20"/>
+    <hyperlink r:id="rId39" ref="K21"/>
+    <hyperlink r:id="rId40" ref="P21"/>
+    <hyperlink r:id="rId41" ref="K22"/>
+    <hyperlink r:id="rId42" ref="P22"/>
+    <hyperlink r:id="rId43" ref="K23"/>
+    <hyperlink r:id="rId44" ref="P23"/>
+    <hyperlink r:id="rId45" ref="K24"/>
+    <hyperlink r:id="rId46" ref="P24"/>
+    <hyperlink r:id="rId47" ref="K25"/>
+    <hyperlink r:id="rId48" ref="P25"/>
+    <hyperlink r:id="rId49" ref="K26"/>
+    <hyperlink r:id="rId50" ref="P26"/>
+    <hyperlink r:id="rId51" ref="K27"/>
+    <hyperlink r:id="rId52" ref="P27"/>
+    <hyperlink r:id="rId53" ref="K28"/>
+    <hyperlink r:id="rId54" ref="P28"/>
+    <hyperlink r:id="rId55" ref="K29"/>
+    <hyperlink r:id="rId56" ref="P29"/>
+    <hyperlink r:id="rId57" ref="K30"/>
+    <hyperlink r:id="rId58" ref="P30"/>
+    <hyperlink r:id="rId59" ref="K31"/>
+    <hyperlink r:id="rId60" ref="P31"/>
+    <hyperlink r:id="rId61" ref="K32"/>
+    <hyperlink r:id="rId62" ref="P32"/>
+    <hyperlink r:id="rId63" ref="K33"/>
+    <hyperlink r:id="rId64" ref="P33"/>
+    <hyperlink r:id="rId65" ref="K34"/>
+    <hyperlink r:id="rId66" ref="P34"/>
+    <hyperlink r:id="rId67" ref="K35"/>
+    <hyperlink r:id="rId68" ref="P35"/>
+    <hyperlink r:id="rId69" ref="K36"/>
+    <hyperlink r:id="rId70" ref="P36"/>
+    <hyperlink r:id="rId71" ref="K37"/>
+    <hyperlink r:id="rId72" ref="P37"/>
+    <hyperlink r:id="rId73" ref="K38"/>
+    <hyperlink r:id="rId74" ref="P38"/>
+    <hyperlink r:id="rId75" ref="K39"/>
+    <hyperlink r:id="rId76" ref="P39"/>
+    <hyperlink r:id="rId77" ref="K40"/>
+    <hyperlink r:id="rId78" ref="P40"/>
+    <hyperlink r:id="rId79" ref="K41"/>
+    <hyperlink r:id="rId80" ref="P41"/>
+    <hyperlink r:id="rId81" ref="K42"/>
+    <hyperlink r:id="rId82" ref="P42"/>
+    <hyperlink r:id="rId83" ref="K43"/>
+    <hyperlink r:id="rId84" ref="P43"/>
+    <hyperlink r:id="rId85" ref="K44"/>
+    <hyperlink r:id="rId86" ref="P44"/>
+    <hyperlink r:id="rId87" ref="K45"/>
+    <hyperlink r:id="rId88" ref="P45"/>
+    <hyperlink r:id="rId89" ref="K46"/>
+    <hyperlink r:id="rId90" ref="P46"/>
+    <hyperlink r:id="rId91" ref="K47"/>
+    <hyperlink r:id="rId92" ref="P47"/>
+    <hyperlink r:id="rId93" ref="K48"/>
+    <hyperlink r:id="rId94" ref="P48"/>
+    <hyperlink r:id="rId95" ref="K49"/>
+    <hyperlink r:id="rId96" ref="P49"/>
+    <hyperlink r:id="rId97" ref="K50"/>
+    <hyperlink r:id="rId98" ref="P50"/>
+    <hyperlink r:id="rId99" ref="K51"/>
+    <hyperlink r:id="rId100" ref="P51"/>
+    <hyperlink r:id="rId101" ref="K52"/>
+    <hyperlink r:id="rId102" ref="P52"/>
+    <hyperlink r:id="rId103" ref="K53"/>
+    <hyperlink r:id="rId104" ref="P53"/>
+    <hyperlink r:id="rId105" ref="K54"/>
+    <hyperlink r:id="rId106" ref="P54"/>
+    <hyperlink r:id="rId107" ref="K55"/>
+    <hyperlink r:id="rId108" ref="P55"/>
+    <hyperlink r:id="rId109" ref="K56"/>
+    <hyperlink r:id="rId110" ref="P56"/>
+    <hyperlink r:id="rId111" ref="K57"/>
+    <hyperlink r:id="rId112" ref="P57"/>
+    <hyperlink r:id="rId113" ref="K58"/>
+    <hyperlink r:id="rId114" ref="P58"/>
+    <hyperlink r:id="rId115" ref="K59"/>
+    <hyperlink r:id="rId116" ref="P59"/>
+    <hyperlink r:id="rId117" ref="K60"/>
+    <hyperlink r:id="rId118" ref="P60"/>
+    <hyperlink r:id="rId119" ref="K61"/>
+    <hyperlink r:id="rId120" ref="P61"/>
+    <hyperlink r:id="rId121" ref="K62"/>
+    <hyperlink r:id="rId122" ref="P62"/>
+    <hyperlink r:id="rId123" ref="K63"/>
+    <hyperlink r:id="rId124" ref="P63"/>
+    <hyperlink r:id="rId125" ref="K66"/>
+    <hyperlink r:id="rId126" ref="K67"/>
+    <hyperlink r:id="rId127" ref="K68"/>
+    <hyperlink r:id="rId128" ref="K69"/>
+    <hyperlink r:id="rId129" ref="K70"/>
+    <hyperlink r:id="rId130" ref="K71"/>
+    <hyperlink r:id="rId131" ref="K72"/>
+    <hyperlink r:id="rId132" ref="K74"/>
+    <hyperlink r:id="rId133" ref="K75"/>
+    <hyperlink r:id="rId134" ref="K76"/>
+    <hyperlink r:id="rId135" ref="K77"/>
+    <hyperlink r:id="rId136" ref="K78"/>
+    <hyperlink r:id="rId137" ref="K79"/>
+  </hyperlinks>
+  <drawing r:id="rId138"/>
+</worksheet>
 </file>
--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="624">
   <si>
     <t>Term</t>
   </si>
@@ -3472,6 +3472,9 @@
   </si>
   <si>
     <t>eu-rights:A8-ProtectionOfPersonalDataImpact</t>
+  </si>
+  <si>
+    <t>This concept is experimental and may change in future versions</t>
   </si>
   <si>
     <r>
@@ -18342,9 +18345,11 @@
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
+      <c r="J66" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K66" s="40" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L66" s="21">
         <v>45587.0</v>
@@ -18373,13 +18378,13 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>573</v>
@@ -18393,9 +18398,11 @@
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+      <c r="J67" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K67" s="40" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L67" s="21">
         <v>45587.0</v>
@@ -18424,13 +18431,13 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>573</v>
@@ -18444,9 +18451,11 @@
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="J68" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K68" s="40" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L68" s="21">
         <v>45587.0</v>
@@ -18475,13 +18484,13 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>573</v>
@@ -18495,9 +18504,11 @@
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
+      <c r="J69" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K69" s="40" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L69" s="21">
         <v>45587.0</v>
@@ -18526,13 +18537,13 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>573</v>
@@ -18546,9 +18557,11 @@
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
+      <c r="J70" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K70" s="40" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L70" s="21">
         <v>45587.0</v>
@@ -18577,13 +18590,13 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>573</v>
@@ -18597,9 +18610,11 @@
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
+      <c r="J71" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K71" s="40" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L71" s="21">
         <v>45587.0</v>
@@ -18628,13 +18643,13 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>573</v>
@@ -18648,9 +18663,11 @@
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
+      <c r="J72" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K72" s="40" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L72" s="21">
         <v>45587.0</v>
@@ -18686,7 +18703,6 @@
       <c r="G73" s="41"/>
       <c r="H73" s="41"/>
       <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
       <c r="K73" s="41"/>
       <c r="L73" s="21"/>
       <c r="M73" s="41"/>
@@ -18709,13 +18725,13 @@
     </row>
     <row r="74">
       <c r="A74" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>573</v>
@@ -18729,9 +18745,11 @@
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
+      <c r="J74" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K74" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L74" s="21">
         <v>45587.0</v>
@@ -18760,13 +18778,13 @@
     </row>
     <row r="75">
       <c r="A75" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>573</v>
@@ -18780,9 +18798,11 @@
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
+      <c r="J75" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K75" s="40" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L75" s="21">
         <v>45587.0</v>
@@ -18811,13 +18831,13 @@
     </row>
     <row r="76">
       <c r="A76" s="22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>573</v>
@@ -18831,9 +18851,11 @@
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
+      <c r="J76" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K76" s="40" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L76" s="21">
         <v>45587.0</v>
@@ -18862,13 +18884,13 @@
     </row>
     <row r="77">
       <c r="A77" s="46" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>573</v>
@@ -18882,9 +18904,11 @@
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
+      <c r="J77" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K77" s="40" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L77" s="21">
         <v>45587.0</v>
@@ -18913,13 +18937,13 @@
     </row>
     <row r="78">
       <c r="A78" s="46" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>573</v>
@@ -18933,9 +18957,11 @@
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
+      <c r="J78" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K78" s="40" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L78" s="21">
         <v>45587.0</v>
@@ -18964,13 +18990,13 @@
     </row>
     <row r="79">
       <c r="A79" s="46" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>573</v>
@@ -18984,9 +19010,11 @@
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
+      <c r="J79" s="20" t="s">
+        <v>574</v>
+      </c>
       <c r="K79" s="40" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L79" s="21">
         <v>45587.0</v>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -1829,7 +1829,7 @@
     <t>risk:RightsImpact</t>
   </si>
   <si>
-    <t>risk:RiskConcept</t>
+    <t>dpv:RiskConcept</t>
   </si>
   <si>
     <t>R,C,I</t>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Rights" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Rights_properties" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="EUFundamentalRights" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="EUFundamentalRights_Impacts" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="624">
   <si>
     <t>Term</t>
   </si>
@@ -1794,6 +1795,1998 @@
   </si>
   <si>
     <t>A54 Prohibition Of Abuse Of Rights</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>EUFundamentalRightsImpact</t>
+  </si>
+  <si>
+    <t>Impact on EU Fundamental Rights</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on EU Fundamental Rights</t>
+  </si>
+  <si>
+    <t>risk:RightsImpact</t>
+  </si>
+  <si>
+    <t>dpv:RiskConcept</t>
+  </si>
+  <si>
+    <t>R,C,I</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T1-DignityImpact</t>
+  </si>
+  <si>
+    <t>Impact on T1 Dignity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T1 Dignity</t>
+  </si>
+  <si>
+    <t>eu-rights:EUFundamentalRightsImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A1-HumanDignityImpact</t>
+  </si>
+  <si>
+    <t>Impact on A1 Human Dignity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A1 Human Dignity</t>
+  </si>
+  <si>
+    <t>eu-rights:T1-DignityImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A2-RightToLifeImpact</t>
+  </si>
+  <si>
+    <t>Impact on A2 Right To Life</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A2 Right To Life</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A3-RightToIntegrityOfPersonImpact</t>
+  </si>
+  <si>
+    <t>Impact on A3 Right To Integrity Of Person</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A3 Right To Integrity Of Person</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A4-ProhibitionOfTortureDegradationPunishmentImpact</t>
+  </si>
+  <si>
+    <t>Impact on A4 Prohibition Of Torture Degradation Punishment</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A4 Prohibition Of Torture Degradation Punishment</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A5-ProhibitionOfSlaveryForcedLabourImpact</t>
+  </si>
+  <si>
+    <t>Impact on A5 Prohibition Of Slavery Forced Labour</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A5 Prohibition Of Slavery Forced Labour</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T2-FreedomsImpact</t>
+  </si>
+  <si>
+    <t>Impact on T2 Freedoms</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T2 Freedoms</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A6-RightToLiberySecurityImpact</t>
+  </si>
+  <si>
+    <t>Impact on A6 Right To Liberty Security</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A6 Right To Liberty Security</t>
+  </si>
+  <si>
+    <t>eu-rights:T2-FreedomsImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A7-RespectPrivateFamilyLifeImpact</t>
+  </si>
+  <si>
+    <t>Impact on A7 Respect Private Family Life</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A7 Respect Private Family Life</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProtectionOfPersonalDataImpact</t>
+  </si>
+  <si>
+    <t>Impact on A8 Protection Of Personal Data</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A8 Protection Of Personal Data</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A9-RightToMarryFoundFamilyImpact</t>
+  </si>
+  <si>
+    <t>Impact on A9 Right To Marry Found Family</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A9 Right To Marry Found Family</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A10-FreedomOfThoughtConscienceReligionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A10 Freedom Of Thought Conscience Religion</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A10 Freedom Of Thought Conscience Religion</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A11-FreedomOfExpressionInformationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A11 Freedom Of Expression Information</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A11 Freedom Of Expression Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A12-FreedomOfAssemblyAssociationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A12 Freedom Of Assembly Association</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A12 Freedom Of Assembly Association</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A13-FreedomOfArtsSciencesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A13 Freedom Of Arts Sciences</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A13 Freedom Of Arts Sciences</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A14-RightToEducationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A14 Right To Education</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A14 Right To Education</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A15-FreedomToChooseOccupationEngageWorkImpact</t>
+  </si>
+  <si>
+    <t>Impact on A15 Freedom To Choose Occupation Engage Work</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A15 Freedom To Choose Occupation Engage Work</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A16-FreedomToConductBusinessImpact</t>
+  </si>
+  <si>
+    <t>Impact on A16 Freedom To Conduct Business</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A16 Freedom To Conduct Business</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A17-RightToPropertyImpact</t>
+  </si>
+  <si>
+    <t>Impact on A17 Right To Property</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A17 Right To Property</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A18-RightToAsylumImpact</t>
+  </si>
+  <si>
+    <t>Impact on A18 Right To Asylum</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A18 Right To Asylum</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A19-ProtectionRemovalExpulsionExtraditionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A19 Protection Removal Expulsion Extradition</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A19 Protection Removal Expulsion Extradition</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T3-EqualityImpact</t>
+  </si>
+  <si>
+    <t>Impact on T3 Equality</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T3 Equality</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A20-EqualityBeforeLawImpact</t>
+  </si>
+  <si>
+    <t>Impact on A20 Equality Before Law</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A20 Equality Before Law</t>
+  </si>
+  <si>
+    <t>eu-rights:T3-EqualityImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A21-NonDiscriminationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A21 Non Discrimination</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A21 Non Discrimination</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A22-CulturalReligiousLinguisticDiversityImpact</t>
+  </si>
+  <si>
+    <t>Impact on A22 Cultural Religious Linguistic Diversity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A22 Cultural Religious Linguistic Diversity</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A23-EqualityBetweenWomenMenImpact</t>
+  </si>
+  <si>
+    <t>Impact on A23 Equality Between Women Men</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A23 Equality Between Women Men</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A24-RightsOfChildImpact</t>
+  </si>
+  <si>
+    <t>Impact on A24 Rights Of Child</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A24 Rights Of Child</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A25-RightsOfElderlyImpact</t>
+  </si>
+  <si>
+    <t>Impact on A25 Rights Of Elderly</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A25 Rights Of Elderly</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A26-IntegrationOfPersonsWithDisabilitiesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A26 Integration Of Persons With Disabilities</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A26 Integration Of Persons With Disabilities</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T4-SolidarityImpact</t>
+  </si>
+  <si>
+    <t>Impact on T4 Solidarity</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T4 Solidarity</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A27-WorkersRightToInformationConsultationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A27 Workers Right To Information Consultation</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A27 Workers Right To Information Consultation</t>
+  </si>
+  <si>
+    <t>eu-rights:T4-SolidarityImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A28-RightOfCollectiveBargainingActionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A28 Right Of Collective Bargaining Action</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A28 Right Of Collective Bargaining Action</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A29-RightOfAccessToPlacementServicesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A29 Right Of Access To Placement Services</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A29 Right Of Access To Placement Services</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A30-ProtectionUnjustifiedDismissalImpact</t>
+  </si>
+  <si>
+    <t>Impact on A30 Protection Unjustified Dismissal</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A30 Protection Unjustified Dismissal</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A31-FairJustWorkingConditionsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A31 Fair Just Working Conditions</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A31 Fair Just Working Conditions</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A32-ProhibitionOfChildLabourProtectionofYoungAtWorkImpact</t>
+  </si>
+  <si>
+    <t>Impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A33-FamilyProfessionalLifeImpact</t>
+  </si>
+  <si>
+    <t>Impact on A33 Family Professional Life</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A33 Family Professional Life</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A34-SocialSecuritySocialAssistanceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A34 Social Security Social Assistance</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A34 Social Security Social Assistance</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A35-HealthcareImpact</t>
+  </si>
+  <si>
+    <t>Impact on A35 Healthcare</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A35 Healthcare</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A36-AccessToServicesOfGeneralEconomicInterestImpact</t>
+  </si>
+  <si>
+    <t>Impact on A36 Access To Services Of General Economic Interest</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A36 Access To Services Of General Economic Interest</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A37-EnvironmentalProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A37 Environmental Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A37 Environmental Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A38-ConsumerProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A38 Consumer Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A38 Consumer Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T5-CitizensRightsImpact</t>
+  </si>
+  <si>
+    <t>Impact on T5 Citizens Rights</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T5 Citizens Rights</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A39-RightToVoteStandAsCanditateEUParliamentImpact</t>
+  </si>
+  <si>
+    <t>Impact on A39 Right To Vote Stand As Candidate E U Parliament</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A39 Right To Vote Stand As Candidate E U Parliament</t>
+  </si>
+  <si>
+    <t>eu-rights:T5-CitizensRightsImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A40-RightToVoteStandAsCandidateMunicipalElectionsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A40 Right To Vote Stand As Candidate Municipal Elections</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A40 Right To Vote Stand As Candidate Municipal Elections</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A41-RightToGoodAdministrationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A41 Right To Good Administration</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A41 Right To Good Administration</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A42-RightToAccessToDocumentsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A42 Right To Access To Documents</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A42 Right To Access To Documents</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A43-EuropeanOmbudsmanImpact</t>
+  </si>
+  <si>
+    <t>Impact on A43 European Ombudsman</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A43 European Ombudsman</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A44-RightToPetitionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A44 Right To Petition</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A44 Right To Petition</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A45-FreedomOfMovementAndResidenceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A45 Freedom Of Movement And Residence</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A45 Freedom Of Movement And Residence</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A46-DiplomaticConsularProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A46 Diplomatic Consular Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A46 Diplomatic Consular Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T6-JusticeImpact</t>
+  </si>
+  <si>
+    <t>Impact on T6 Justice</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T6 Justice</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A47-RightToEffectiveRemedyFairTrialImpact</t>
+  </si>
+  <si>
+    <t>Impact on A47 Right To Effective Remedy Fair Trial</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A47 Right To Effective Remedy Fair Trial</t>
+  </si>
+  <si>
+    <t>eu-rights:T6-JusticeImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A48-PresumptionOfInnocenceRightOfDefenceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A48 Presumption Of Innocence Right Of Defence</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A48 Presumption Of Innocence Right Of Defence</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A49-PrinciplesOfLegalityProportionalityCriminalOffencesPenaltiesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A49 Principles Of Legality Proportionality Criminal Offences Penalties</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A49 Principles Of Legality Proportionality Criminal Offences Penalties</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A50-RightNotBeTriedPunishedTwiceForSameCriminalOffenceImpact</t>
+  </si>
+  <si>
+    <t>Impact on A50 Right Not Be Tried Punished Twice For Same Criminal Offence</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A50 Right Not Be Tried Punished Twice For Same Criminal Offence</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>T7-InterpretationAndApplicationImpact</t>
+  </si>
+  <si>
+    <t>Impact on T7 Interpretation And Application</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on T7 Interpretation And Application</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A51-FieldOfApplicationImpact</t>
+  </si>
+  <si>
+    <t>Impact on A51 Field Of Application</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A51 Field Of Application</t>
+  </si>
+  <si>
+    <t>eu-rights:T7-InterpretationAndApplicationImpact</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A52-ScopeInterpretationOfRightsPrinciplesImpact</t>
+  </si>
+  <si>
+    <t>Impact on A52 Scope Interpretation Of Rights Principles</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A52 Scope Interpretation Of Rights Principles</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A53-LevelOfProtectionImpact</t>
+  </si>
+  <si>
+    <t>Impact on A53 Level Of Protection</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A53 Level Of Protection</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A54-ProhibitionOfAbuseOfRightsImpact</t>
+  </si>
+  <si>
+    <t>Impact on A54 Prohibition Of Abuse Of Rights</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A54 Prohibition Of Abuse Of Rights</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Violated</t>
+  </si>
+  <si>
+    <t>A8 Violated</t>
+  </si>
+  <si>
+    <t>Where the right to protection of personal data is violated</t>
+  </si>
+  <si>
+    <t>eu-rights:A8-ProtectionOfPersonalDataImpact</t>
+  </si>
+  <si>
+    <t>This concept is experimental and may change in future versions</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ExercisePrevented</t>
+  </si>
+  <si>
+    <t>A8 ExercisePrevented</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is prevented from being carried out</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Limited</t>
+  </si>
+  <si>
+    <t>A8 Limited</t>
+  </si>
+  <si>
+    <t>Where not all personal data has been protected or adequately protected</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Denied</t>
+  </si>
+  <si>
+    <t>A8 Denied</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is denied to be applicable or required</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Unfulfilled</t>
+  </si>
+  <si>
+    <t>A8 Unfulfilled</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is not carried out</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Obstructed</t>
+  </si>
+  <si>
+    <t>A8 Obstructed</t>
+  </si>
+  <si>
+    <t>Where barriers are created or are present to protect personal data</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-Eroded</t>
+  </si>
+  <si>
+    <t>A8 Eroded</t>
+  </si>
+  <si>
+    <t>Where the protection of personal data is affected negatively systematically and over time</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-UnfairProcessing</t>
+  </si>
+  <si>
+    <t>A8 Unfair Processing</t>
+  </si>
+  <si>
+    <t>Where there is unfair processing of personal data</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProcessingWithNonspecificPurposes</t>
+  </si>
+  <si>
+    <t>A8 Processing with Nonspecific Purposes</t>
+  </si>
+  <si>
+    <t>Where there is processing of personal data for or with non-specific purposes i.e. processing is not limited to specific purposes</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProcessingWithoutValidLegalBasis</t>
+  </si>
+  <si>
+    <t>A8 Processing without Valid Legal Basis</t>
+  </si>
+  <si>
+    <t>Where there is processing of personal data without a valid legal basis established in law</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-ProcessingWithoutValidConsent</t>
+  </si>
+  <si>
+    <t>A8 Processing without Valid Consent</t>
+  </si>
+  <si>
+    <t>Where there is processing of personal data without valid consent where consent is the valid legal basis as established in law</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-AccessImpacted</t>
+  </si>
+  <si>
+    <t>A8 Access Impacted</t>
+  </si>
+  <si>
+    <t>Where the right of access of personal data is impacted</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>(Charter of Fundamental Rights of the European Union,</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://data.europa.eu/eli/treaty/char_2012/oj</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>A8-RectificiationImpacted</t>
+  </si>
+  <si>
+    <t>A8 Rectificiation Impacted</t>
+  </si>
+  <si>
+    <t>Where the right of rectification of personal data is impacted</t>
   </si>
   <si>
     <r>
@@ -1966,7 +3959,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2105,6 +4098,9 @@
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2195,6 +4191,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -12831,4 +14831,4404 @@
   </hyperlinks>
   <drawing r:id="rId125"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.88"/>
+    <col customWidth="1" min="2" max="2" width="31.88"/>
+    <col customWidth="1" min="3" max="3" width="60.88"/>
+    <col customWidth="1" min="10" max="10" width="43.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" s="21">
+        <v>44734.0</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L3" s="21">
+        <v>44735.0</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="21">
+        <v>44736.0</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="21">
+        <v>44737.0</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L6" s="21">
+        <v>44738.0</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L7" s="21">
+        <v>44739.0</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L8" s="21">
+        <v>44740.0</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="21">
+        <v>44741.0</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="L10" s="21">
+        <v>44742.0</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L11" s="21">
+        <v>44743.0</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L12" s="21">
+        <v>44744.0</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L13" s="21">
+        <v>44745.0</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="21">
+        <v>44746.0</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="L15" s="21">
+        <v>44747.0</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="L16" s="21">
+        <v>44748.0</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="L17" s="21">
+        <v>44749.0</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="L18" s="21">
+        <v>44750.0</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="L19" s="21">
+        <v>44751.0</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="L20" s="21">
+        <v>44752.0</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="L21" s="21">
+        <v>44753.0</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L22" s="21">
+        <v>44754.0</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="L23" s="21">
+        <v>44755.0</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="L24" s="21">
+        <v>44756.0</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" s="21">
+        <v>44757.0</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="L26" s="21">
+        <v>44758.0</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="L27" s="21">
+        <v>44759.0</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="L28" s="21">
+        <v>44760.0</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="L29" s="21">
+        <v>44761.0</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="L30" s="21">
+        <v>44762.0</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="L31" s="21">
+        <v>44763.0</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="L32" s="21">
+        <v>44764.0</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="L33" s="21">
+        <v>44765.0</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="L34" s="21">
+        <v>44766.0</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="L35" s="21">
+        <v>44767.0</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="L36" s="21">
+        <v>44768.0</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="L37" s="21">
+        <v>44769.0</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="L38" s="21">
+        <v>44770.0</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="L39" s="21">
+        <v>44771.0</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="L40" s="21">
+        <v>44772.0</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="L41" s="21">
+        <v>44773.0</v>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="L42" s="21">
+        <v>44774.0</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="L43" s="21">
+        <v>44775.0</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="L44" s="21">
+        <v>44776.0</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="G45" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="L45" s="21">
+        <v>44777.0</v>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="L46" s="21">
+        <v>44778.0</v>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P46" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="L47" s="21">
+        <v>44779.0</v>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="L48" s="21">
+        <v>44780.0</v>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="L49" s="21">
+        <v>44781.0</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="L50" s="21">
+        <v>44782.0</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="L51" s="21">
+        <v>44783.0</v>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="L52" s="21">
+        <v>44784.0</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="L53" s="21">
+        <v>44785.0</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F54" s="41"/>
+      <c r="G54" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="L54" s="21">
+        <v>44786.0</v>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="L55" s="21">
+        <v>44787.0</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="19"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="L56" s="21">
+        <v>44788.0</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P56" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="L57" s="21">
+        <v>44789.0</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="L58" s="21">
+        <v>44790.0</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P58" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="L59" s="21">
+        <v>44791.0</v>
+      </c>
+      <c r="M59" s="19"/>
+      <c r="N59" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="L60" s="21">
+        <v>44792.0</v>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P60" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="L61" s="21">
+        <v>44793.0</v>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P61" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="L62" s="21">
+        <v>44794.0</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P62" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="L63" s="21">
+        <v>44795.0</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P63" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+    </row>
+    <row r="64">
+      <c r="L64" s="21"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="L65" s="21"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="L66" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M66" s="19"/>
+      <c r="N66" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K67" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="L67" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K68" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="L68" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M68" s="19"/>
+      <c r="N68" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K69" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="L69" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M69" s="19"/>
+      <c r="N69" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K70" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="L70" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="19"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K71" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="L71" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="19"/>
+      <c r="AC71" s="19"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="19"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="L72" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="9"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="41"/>
+      <c r="AC73" s="41"/>
+      <c r="AD73" s="41"/>
+      <c r="AE73" s="41"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="G74" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K74" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="L74" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M74" s="19"/>
+      <c r="N74" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K75" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="L75" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M75" s="19"/>
+      <c r="N75" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="19"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E76" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="L76" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M76" s="19"/>
+      <c r="N76" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="B77" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E77" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="G77" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="L77" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M77" s="19"/>
+      <c r="N77" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>617</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E78" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="G78" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="L78" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M78" s="19"/>
+      <c r="N78" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="19"/>
+      <c r="W78" s="19"/>
+      <c r="X78" s="19"/>
+      <c r="Y78" s="19"/>
+      <c r="Z78" s="19"/>
+      <c r="AA78" s="19"/>
+      <c r="AB78" s="19"/>
+      <c r="AC78" s="19"/>
+      <c r="AD78" s="19"/>
+      <c r="AE78" s="19"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>621</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="19"/>
+      <c r="G79" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="K79" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="L79" s="21">
+        <v>45587.0</v>
+      </c>
+      <c r="M79" s="19"/>
+      <c r="N79" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="19"/>
+      <c r="AA79" s="19"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="19"/>
+      <c r="AE79" s="19"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="46"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="45"/>
+      <c r="L81" s="21"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="47"/>
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="L83" s="21"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:AE220">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$N2="accepted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:AC186">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$N2="proposed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C3 D2:D9 E2:E220 F2:F3 G2:G220 H2:J3 K2:P220 Q2:AC3 AD2:AE24 A21:C24 D21:D22 F21:F24 H21:J24 Q21:AC24 D24:D32 A38:D39 F38:F39 H38:J39 Q38:AE39 D45 D54 D59 A63:D220 F63:F220 H63:J220 Q63:AE220">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$N2="changed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:C3 D2:D9 E2:E220 F2:F3 G2:G220 H2:J3 K2:P220 Q2:AC3 AD2:AE24 A21:C24 D21:D22 F21:F24 H21:J24 Q21:AC24 D24:D32 A38:D39 F38:F39 H38:J39 Q38:AE39 D45 D54 D59 A63:D220 F63:F220 H63:J220 Q63:AE220">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$N2="deprecated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="K2"/>
+    <hyperlink r:id="rId2" ref="P2"/>
+    <hyperlink r:id="rId3" ref="K3"/>
+    <hyperlink r:id="rId4" ref="P3"/>
+    <hyperlink r:id="rId5" ref="K4"/>
+    <hyperlink r:id="rId6" ref="P4"/>
+    <hyperlink r:id="rId7" ref="K5"/>
+    <hyperlink r:id="rId8" ref="P5"/>
+    <hyperlink r:id="rId9" ref="K6"/>
+    <hyperlink r:id="rId10" ref="P6"/>
+    <hyperlink r:id="rId11" ref="K7"/>
+    <hyperlink r:id="rId12" ref="P7"/>
+    <hyperlink r:id="rId13" ref="K8"/>
+    <hyperlink r:id="rId14" ref="P8"/>
+    <hyperlink r:id="rId15" ref="K9"/>
+    <hyperlink r:id="rId16" ref="P9"/>
+    <hyperlink r:id="rId17" ref="K10"/>
+    <hyperlink r:id="rId18" ref="P10"/>
+    <hyperlink r:id="rId19" ref="K11"/>
+    <hyperlink r:id="rId20" ref="P11"/>
+    <hyperlink r:id="rId21" ref="K12"/>
+    <hyperlink r:id="rId22" ref="P12"/>
+    <hyperlink r:id="rId23" ref="K13"/>
+    <hyperlink r:id="rId24" ref="P13"/>
+    <hyperlink r:id="rId25" ref="K14"/>
+    <hyperlink r:id="rId26" ref="P14"/>
+    <hyperlink r:id="rId27" ref="K15"/>
+    <hyperlink r:id="rId28" ref="P15"/>
+    <hyperlink r:id="rId29" ref="K16"/>
+    <hyperlink r:id="rId30" ref="P16"/>
+    <hyperlink r:id="rId31" ref="K17"/>
+    <hyperlink r:id="rId32" ref="P17"/>
+    <hyperlink r:id="rId33" ref="K18"/>
+    <hyperlink r:id="rId34" ref="P18"/>
+    <hyperlink r:id="rId35" ref="K19"/>
+    <hyperlink r:id="rId36" ref="P19"/>
+    <hyperlink r:id="rId37" ref="K20"/>
+    <hyperlink r:id="rId38" ref="P20"/>
+    <hyperlink r:id="rId39" ref="K21"/>
+    <hyperlink r:id="rId40" ref="P21"/>
+    <hyperlink r:id="rId41" ref="K22"/>
+    <hyperlink r:id="rId42" ref="P22"/>
+    <hyperlink r:id="rId43" ref="K23"/>
+    <hyperlink r:id="rId44" ref="P23"/>
+    <hyperlink r:id="rId45" ref="K24"/>
+    <hyperlink r:id="rId46" ref="P24"/>
+    <hyperlink r:id="rId47" ref="K25"/>
+    <hyperlink r:id="rId48" ref="P25"/>
+    <hyperlink r:id="rId49" ref="K26"/>
+    <hyperlink r:id="rId50" ref="P26"/>
+    <hyperlink r:id="rId51" ref="K27"/>
+    <hyperlink r:id="rId52" ref="P27"/>
+    <hyperlink r:id="rId53" ref="K28"/>
+    <hyperlink r:id="rId54" ref="P28"/>
+    <hyperlink r:id="rId55" ref="K29"/>
+    <hyperlink r:id="rId56" ref="P29"/>
+    <hyperlink r:id="rId57" ref="K30"/>
+    <hyperlink r:id="rId58" ref="P30"/>
+    <hyperlink r:id="rId59" ref="K31"/>
+    <hyperlink r:id="rId60" ref="P31"/>
+    <hyperlink r:id="rId61" ref="K32"/>
+    <hyperlink r:id="rId62" ref="P32"/>
+    <hyperlink r:id="rId63" ref="K33"/>
+    <hyperlink r:id="rId64" ref="P33"/>
+    <hyperlink r:id="rId65" ref="K34"/>
+    <hyperlink r:id="rId66" ref="P34"/>
+    <hyperlink r:id="rId67" ref="K35"/>
+    <hyperlink r:id="rId68" ref="P35"/>
+    <hyperlink r:id="rId69" ref="K36"/>
+    <hyperlink r:id="rId70" ref="P36"/>
+    <hyperlink r:id="rId71" ref="K37"/>
+    <hyperlink r:id="rId72" ref="P37"/>
+    <hyperlink r:id="rId73" ref="K38"/>
+    <hyperlink r:id="rId74" ref="P38"/>
+    <hyperlink r:id="rId75" ref="K39"/>
+    <hyperlink r:id="rId76" ref="P39"/>
+    <hyperlink r:id="rId77" ref="K40"/>
+    <hyperlink r:id="rId78" ref="P40"/>
+    <hyperlink r:id="rId79" ref="K41"/>
+    <hyperlink r:id="rId80" ref="P41"/>
+    <hyperlink r:id="rId81" ref="K42"/>
+    <hyperlink r:id="rId82" ref="P42"/>
+    <hyperlink r:id="rId83" ref="K43"/>
+    <hyperlink r:id="rId84" ref="P43"/>
+    <hyperlink r:id="rId85" ref="K44"/>
+    <hyperlink r:id="rId86" ref="P44"/>
+    <hyperlink r:id="rId87" ref="K45"/>
+    <hyperlink r:id="rId88" ref="P45"/>
+    <hyperlink r:id="rId89" ref="K46"/>
+    <hyperlink r:id="rId90" ref="P46"/>
+    <hyperlink r:id="rId91" ref="K47"/>
+    <hyperlink r:id="rId92" ref="P47"/>
+    <hyperlink r:id="rId93" ref="K48"/>
+    <hyperlink r:id="rId94" ref="P48"/>
+    <hyperlink r:id="rId95" ref="K49"/>
+    <hyperlink r:id="rId96" ref="P49"/>
+    <hyperlink r:id="rId97" ref="K50"/>
+    <hyperlink r:id="rId98" ref="P50"/>
+    <hyperlink r:id="rId99" ref="K51"/>
+    <hyperlink r:id="rId100" ref="P51"/>
+    <hyperlink r:id="rId101" ref="K52"/>
+    <hyperlink r:id="rId102" ref="P52"/>
+    <hyperlink r:id="rId103" ref="K53"/>
+    <hyperlink r:id="rId104" ref="P53"/>
+    <hyperlink r:id="rId105" ref="K54"/>
+    <hyperlink r:id="rId106" ref="P54"/>
+    <hyperlink r:id="rId107" ref="K55"/>
+    <hyperlink r:id="rId108" ref="P55"/>
+    <hyperlink r:id="rId109" ref="K56"/>
+    <hyperlink r:id="rId110" ref="P56"/>
+    <hyperlink r:id="rId111" ref="K57"/>
+    <hyperlink r:id="rId112" ref="P57"/>
+    <hyperlink r:id="rId113" ref="K58"/>
+    <hyperlink r:id="rId114" ref="P58"/>
+    <hyperlink r:id="rId115" ref="K59"/>
+    <hyperlink r:id="rId116" ref="P59"/>
+    <hyperlink r:id="rId117" ref="K60"/>
+    <hyperlink r:id="rId118" ref="P60"/>
+    <hyperlink r:id="rId119" ref="K61"/>
+    <hyperlink r:id="rId120" ref="P61"/>
+    <hyperlink r:id="rId121" ref="K62"/>
+    <hyperlink r:id="rId122" ref="P62"/>
+    <hyperlink r:id="rId123" ref="K63"/>
+    <hyperlink r:id="rId124" ref="P63"/>
+    <hyperlink r:id="rId125" ref="K66"/>
+    <hyperlink r:id="rId126" ref="K67"/>
+    <hyperlink r:id="rId127" ref="K68"/>
+    <hyperlink r:id="rId128" ref="K69"/>
+    <hyperlink r:id="rId129" ref="K70"/>
+    <hyperlink r:id="rId130" ref="K71"/>
+    <hyperlink r:id="rId131" ref="K72"/>
+    <hyperlink r:id="rId132" ref="K74"/>
+    <hyperlink r:id="rId133" ref="K75"/>
+    <hyperlink r:id="rId134" ref="K76"/>
+    <hyperlink r:id="rId135" ref="K77"/>
+    <hyperlink r:id="rId136" ref="K78"/>
+    <hyperlink r:id="rId137" ref="K79"/>
+  </hyperlinks>
+  <drawing r:id="rId138"/>
+</worksheet>
 </file>
--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="625">
   <si>
     <t>Term</t>
   </si>
@@ -196,10 +196,13 @@
     <t>Record of a Right being exercised</t>
   </si>
   <si>
-    <t>dpv:Record</t>
+    <t>dpv:RecordOfActivity</t>
   </si>
   <si>
     <t>This concept represents a record of one or more right exercise activities, such as those associated with a single data subject or service or entity</t>
+  </si>
+  <si>
+    <t>modified</t>
   </si>
   <si>
     <t>Rights related Notices</t>
@@ -4866,19 +4869,17 @@
       <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
       <c r="I13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="19"/>
       <c r="K13" s="21">
         <v>44867.0</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="21">
+        <v>45803.0</v>
+      </c>
       <c r="M13" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>34</v>
@@ -4886,19 +4887,6 @@
       <c r="O13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
     </row>
     <row r="14">
       <c r="B14" s="22"/>
@@ -4910,7 +4898,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="20"/>
@@ -4922,16 +4910,16 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
@@ -4940,7 +4928,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="21">
@@ -4951,7 +4939,7 @@
         <v>20</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O16" s="24" t="s">
         <v>52</v>
@@ -4972,16 +4960,16 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
@@ -4990,7 +4978,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="21">
@@ -5001,7 +4989,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O17" s="24" t="s">
         <v>52</v>
@@ -5026,13 +5014,13 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>17</v>
@@ -7694,13 +7682,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7732,13 +7720,13 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -7747,7 +7735,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -7782,22 +7770,22 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -7832,25 +7820,25 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="21"/>
@@ -7878,25 +7866,25 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="21"/>
@@ -7924,25 +7912,25 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="21"/>
@@ -7970,23 +7958,23 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="21"/>
@@ -8014,25 +8002,25 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="21"/>
@@ -8060,25 +8048,25 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="21"/>
@@ -8106,25 +8094,25 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="21"/>
@@ -8152,25 +8140,25 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="21"/>
@@ -8198,25 +8186,25 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="21"/>
@@ -8244,21 +8232,21 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="21"/>
@@ -8286,21 +8274,21 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="21"/>
@@ -8328,21 +8316,21 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="21"/>
@@ -11343,13 +11331,13 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20" t="s">
@@ -11360,7 +11348,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" s="21">
         <v>44734.0</v>
@@ -11373,7 +11361,7 @@
         <v>46</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -11393,16 +11381,16 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>26</v>
@@ -11412,7 +11400,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
       <c r="J4" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" s="21">
         <v>44735.0</v>
@@ -11425,7 +11413,7 @@
         <v>46</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -11445,16 +11433,16 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>26</v>
@@ -11464,7 +11452,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="21">
         <v>44736.0</v>
@@ -11477,7 +11465,7 @@
         <v>46</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -11497,16 +11485,16 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>26</v>
@@ -11516,7 +11504,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K6" s="21">
         <v>44737.0</v>
@@ -11529,7 +11517,7 @@
         <v>46</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -11549,16 +11537,16 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>26</v>
@@ -11568,7 +11556,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K7" s="21">
         <v>44738.0</v>
@@ -11581,7 +11569,7 @@
         <v>46</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -11601,16 +11589,16 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>26</v>
@@ -11620,7 +11608,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K8" s="21">
         <v>44739.0</v>
@@ -11633,7 +11621,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -11653,16 +11641,16 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>26</v>
@@ -11672,7 +11660,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="21">
         <v>44740.0</v>
@@ -11685,7 +11673,7 @@
         <v>46</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -11705,16 +11693,16 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>26</v>
@@ -11724,7 +11712,7 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10" s="21">
         <v>44741.0</v>
@@ -11737,7 +11725,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
@@ -11757,16 +11745,16 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>26</v>
@@ -11776,7 +11764,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K11" s="21">
         <v>44742.0</v>
@@ -11789,7 +11777,7 @@
         <v>46</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
@@ -11809,16 +11797,16 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>26</v>
@@ -11828,7 +11816,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K12" s="21">
         <v>44743.0</v>
@@ -11841,7 +11829,7 @@
         <v>46</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -11861,16 +11849,16 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>26</v>
@@ -11880,7 +11868,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" s="21">
         <v>44744.0</v>
@@ -11893,7 +11881,7 @@
         <v>46</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -11913,16 +11901,16 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
@@ -11932,7 +11920,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="21">
         <v>44745.0</v>
@@ -11945,7 +11933,7 @@
         <v>46</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -11965,16 +11953,16 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>26</v>
@@ -11984,7 +11972,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K15" s="21">
         <v>44746.0</v>
@@ -11997,7 +11985,7 @@
         <v>46</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -12017,16 +12005,16 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>26</v>
@@ -12036,7 +12024,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K16" s="21">
         <v>44747.0</v>
@@ -12049,7 +12037,7 @@
         <v>46</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -12069,16 +12057,16 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>26</v>
@@ -12088,7 +12076,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K17" s="21">
         <v>44748.0</v>
@@ -12101,7 +12089,7 @@
         <v>46</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -12121,16 +12109,16 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>26</v>
@@ -12140,7 +12128,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K18" s="21">
         <v>44749.0</v>
@@ -12153,7 +12141,7 @@
         <v>46</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -12173,16 +12161,16 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
@@ -12192,7 +12180,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K19" s="21">
         <v>44750.0</v>
@@ -12205,7 +12193,7 @@
         <v>46</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -12225,16 +12213,16 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>26</v>
@@ -12244,7 +12232,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K20" s="21">
         <v>44751.0</v>
@@ -12257,7 +12245,7 @@
         <v>46</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -12277,16 +12265,16 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
@@ -12296,7 +12284,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K21" s="21">
         <v>44752.0</v>
@@ -12309,7 +12297,7 @@
         <v>46</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -12329,16 +12317,16 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>26</v>
@@ -12348,7 +12336,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K22" s="21">
         <v>44753.0</v>
@@ -12361,7 +12349,7 @@
         <v>46</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -12381,16 +12369,16 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>26</v>
@@ -12400,7 +12388,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K23" s="21">
         <v>44754.0</v>
@@ -12413,7 +12401,7 @@
         <v>46</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -12433,16 +12421,16 @@
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
@@ -12452,7 +12440,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K24" s="21">
         <v>44755.0</v>
@@ -12465,7 +12453,7 @@
         <v>46</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -12485,16 +12473,16 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>26</v>
@@ -12504,7 +12492,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K25" s="21">
         <v>44756.0</v>
@@ -12517,7 +12505,7 @@
         <v>46</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
@@ -12537,16 +12525,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
@@ -12556,7 +12544,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K26" s="21">
         <v>44757.0</v>
@@ -12569,7 +12557,7 @@
         <v>46</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -12589,16 +12577,16 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>26</v>
@@ -12608,7 +12596,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K27" s="21">
         <v>44758.0</v>
@@ -12621,7 +12609,7 @@
         <v>46</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -12641,16 +12629,16 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>26</v>
@@ -12660,7 +12648,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" s="21">
         <v>44759.0</v>
@@ -12673,7 +12661,7 @@
         <v>46</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -12693,16 +12681,16 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>26</v>
@@ -12712,7 +12700,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K29" s="21">
         <v>44760.0</v>
@@ -12725,7 +12713,7 @@
         <v>46</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -12745,16 +12733,16 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>26</v>
@@ -12764,7 +12752,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K30" s="21">
         <v>44761.0</v>
@@ -12777,7 +12765,7 @@
         <v>46</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -12797,16 +12785,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
@@ -12816,7 +12804,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K31" s="21">
         <v>44762.0</v>
@@ -12829,7 +12817,7 @@
         <v>46</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -12849,16 +12837,16 @@
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>26</v>
@@ -12868,7 +12856,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K32" s="21">
         <v>44763.0</v>
@@ -12881,7 +12869,7 @@
         <v>46</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -12901,16 +12889,16 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>26</v>
@@ -12920,7 +12908,7 @@
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
       <c r="J33" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K33" s="21">
         <v>44764.0</v>
@@ -12933,7 +12921,7 @@
         <v>46</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P33" s="41"/>
       <c r="Q33" s="41"/>
@@ -12953,16 +12941,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>26</v>
@@ -12972,7 +12960,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K34" s="21">
         <v>44765.0</v>
@@ -12985,7 +12973,7 @@
         <v>46</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -13005,16 +12993,16 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>26</v>
@@ -13024,7 +13012,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K35" s="21">
         <v>44766.0</v>
@@ -13037,7 +13025,7 @@
         <v>46</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -13057,16 +13045,16 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>26</v>
@@ -13076,7 +13064,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K36" s="21">
         <v>44767.0</v>
@@ -13089,7 +13077,7 @@
         <v>46</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -13109,16 +13097,16 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>26</v>
@@ -13128,7 +13116,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K37" s="21">
         <v>44768.0</v>
@@ -13141,7 +13129,7 @@
         <v>46</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -13161,16 +13149,16 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>26</v>
@@ -13180,7 +13168,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K38" s="21">
         <v>44769.0</v>
@@ -13193,7 +13181,7 @@
         <v>46</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -13213,16 +13201,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>26</v>
@@ -13232,7 +13220,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K39" s="21">
         <v>44770.0</v>
@@ -13245,7 +13233,7 @@
         <v>46</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -13265,16 +13253,16 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>26</v>
@@ -13284,7 +13272,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K40" s="21">
         <v>44771.0</v>
@@ -13297,7 +13285,7 @@
         <v>46</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -13317,16 +13305,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>26</v>
@@ -13336,7 +13324,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K41" s="21">
         <v>44772.0</v>
@@ -13349,7 +13337,7 @@
         <v>46</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -13369,16 +13357,16 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>26</v>
@@ -13388,7 +13376,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K42" s="21">
         <v>44773.0</v>
@@ -13401,7 +13389,7 @@
         <v>46</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -13421,16 +13409,16 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>26</v>
@@ -13440,7 +13428,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K43" s="21">
         <v>44774.0</v>
@@ -13453,7 +13441,7 @@
         <v>46</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -13473,16 +13461,16 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>26</v>
@@ -13492,7 +13480,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K44" s="21">
         <v>44775.0</v>
@@ -13505,7 +13493,7 @@
         <v>46</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -13525,16 +13513,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>26</v>
@@ -13544,7 +13532,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K45" s="21">
         <v>44776.0</v>
@@ -13557,7 +13545,7 @@
         <v>46</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -13577,16 +13565,16 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>26</v>
@@ -13596,7 +13584,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
       <c r="J46" s="40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K46" s="21">
         <v>44777.0</v>
@@ -13609,7 +13597,7 @@
         <v>46</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P46" s="41"/>
       <c r="Q46" s="41"/>
@@ -13629,16 +13617,16 @@
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>26</v>
@@ -13648,7 +13636,7 @@
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K47" s="21">
         <v>44778.0</v>
@@ -13661,7 +13649,7 @@
         <v>46</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
@@ -13681,16 +13669,16 @@
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>26</v>
@@ -13700,7 +13688,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K48" s="21">
         <v>44779.0</v>
@@ -13713,7 +13701,7 @@
         <v>46</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -13733,16 +13721,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>26</v>
@@ -13752,7 +13740,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K49" s="21">
         <v>44780.0</v>
@@ -13765,7 +13753,7 @@
         <v>46</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -13785,16 +13773,16 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>26</v>
@@ -13804,7 +13792,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K50" s="21">
         <v>44781.0</v>
@@ -13817,7 +13805,7 @@
         <v>46</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -13837,16 +13825,16 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>26</v>
@@ -13856,7 +13844,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K51" s="21">
         <v>44782.0</v>
@@ -13869,7 +13857,7 @@
         <v>46</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -13889,16 +13877,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>26</v>
@@ -13908,7 +13896,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K52" s="21">
         <v>44783.0</v>
@@ -13921,7 +13909,7 @@
         <v>46</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -13941,16 +13929,16 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>26</v>
@@ -13960,7 +13948,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K53" s="21">
         <v>44784.0</v>
@@ -13973,7 +13961,7 @@
         <v>46</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -13993,16 +13981,16 @@
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>26</v>
@@ -14012,7 +14000,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K54" s="21">
         <v>44785.0</v>
@@ -14025,7 +14013,7 @@
         <v>46</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -14045,16 +14033,16 @@
     </row>
     <row r="55">
       <c r="A55" s="42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>26</v>
@@ -14064,7 +14052,7 @@
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
       <c r="J55" s="40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K55" s="21">
         <v>44786.0</v>
@@ -14077,7 +14065,7 @@
         <v>46</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -14097,16 +14085,16 @@
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>26</v>
@@ -14116,7 +14104,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K56" s="21">
         <v>44787.0</v>
@@ -14129,7 +14117,7 @@
         <v>46</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -14149,16 +14137,16 @@
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>26</v>
@@ -14168,7 +14156,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K57" s="21">
         <v>44788.0</v>
@@ -14181,7 +14169,7 @@
         <v>46</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -14201,16 +14189,16 @@
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>26</v>
@@ -14220,7 +14208,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K58" s="21">
         <v>44789.0</v>
@@ -14233,7 +14221,7 @@
         <v>46</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -14253,16 +14241,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>26</v>
@@ -14272,7 +14260,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K59" s="21">
         <v>44790.0</v>
@@ -14285,7 +14273,7 @@
         <v>46</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -14305,16 +14293,16 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>26</v>
@@ -14324,7 +14312,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K60" s="21">
         <v>44791.0</v>
@@ -14337,7 +14325,7 @@
         <v>46</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -14357,16 +14345,16 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>26</v>
@@ -14376,7 +14364,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K61" s="21">
         <v>44792.0</v>
@@ -14389,7 +14377,7 @@
         <v>46</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -14409,16 +14397,16 @@
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>26</v>
@@ -14428,7 +14416,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K62" s="21">
         <v>44793.0</v>
@@ -14441,7 +14429,7 @@
         <v>46</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -14461,16 +14449,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>26</v>
@@ -14480,7 +14468,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K63" s="21">
         <v>44794.0</v>
@@ -14493,7 +14481,7 @@
         <v>46</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -14513,16 +14501,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>26</v>
@@ -14532,7 +14520,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K64" s="21">
         <v>44795.0</v>
@@ -14545,7 +14533,7 @@
         <v>46</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -14874,7 +14862,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>6</v>
@@ -14906,29 +14894,29 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L2" s="21">
         <v>44734.0</v>
@@ -14941,7 +14929,7 @@
         <v>46</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
@@ -14961,29 +14949,29 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
       <c r="K3" s="40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L3" s="21">
         <v>44735.0</v>
@@ -14996,7 +14984,7 @@
         <v>46</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
@@ -15016,29 +15004,29 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L4" s="21">
         <v>44736.0</v>
@@ -15051,7 +15039,7 @@
         <v>46</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
@@ -15071,29 +15059,29 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="40" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L5" s="21">
         <v>44737.0</v>
@@ -15106,7 +15094,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
@@ -15126,29 +15114,29 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L6" s="21">
         <v>44738.0</v>
@@ -15161,7 +15149,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
@@ -15181,29 +15169,29 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L7" s="21">
         <v>44739.0</v>
@@ -15216,7 +15204,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
@@ -15236,29 +15224,29 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L8" s="21">
         <v>44740.0</v>
@@ -15271,7 +15259,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
@@ -15291,29 +15279,29 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L9" s="21">
         <v>44741.0</v>
@@ -15326,7 +15314,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
@@ -15346,29 +15334,29 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L10" s="21">
         <v>44742.0</v>
@@ -15381,7 +15369,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -15401,29 +15389,29 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L11" s="21">
         <v>44743.0</v>
@@ -15436,7 +15424,7 @@
         <v>46</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
@@ -15456,29 +15444,29 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="40" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L12" s="21">
         <v>44744.0</v>
@@ -15491,7 +15479,7 @@
         <v>46</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
@@ -15511,29 +15499,29 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="40" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L13" s="21">
         <v>44745.0</v>
@@ -15546,7 +15534,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
@@ -15566,29 +15554,29 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="40" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L14" s="21">
         <v>44746.0</v>
@@ -15601,7 +15589,7 @@
         <v>46</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -15621,29 +15609,29 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="40" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L15" s="21">
         <v>44747.0</v>
@@ -15656,7 +15644,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -15676,29 +15664,29 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L16" s="21">
         <v>44748.0</v>
@@ -15711,7 +15699,7 @@
         <v>46</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -15731,29 +15719,29 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="40" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L17" s="21">
         <v>44749.0</v>
@@ -15766,7 +15754,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -15786,29 +15774,29 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="40" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L18" s="21">
         <v>44750.0</v>
@@ -15821,7 +15809,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
@@ -15841,29 +15829,29 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="40" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L19" s="21">
         <v>44751.0</v>
@@ -15876,7 +15864,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
@@ -15896,29 +15884,29 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L20" s="21">
         <v>44752.0</v>
@@ -15931,7 +15919,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
@@ -15951,29 +15939,29 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L21" s="21">
         <v>44753.0</v>
@@ -15986,7 +15974,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
@@ -16006,29 +15994,29 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="40" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L22" s="21">
         <v>44754.0</v>
@@ -16041,7 +16029,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -16061,29 +16049,29 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="40" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L23" s="21">
         <v>44755.0</v>
@@ -16096,7 +16084,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -16116,29 +16104,29 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
       <c r="K24" s="40" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L24" s="21">
         <v>44756.0</v>
@@ -16151,7 +16139,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
@@ -16171,29 +16159,29 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="40" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L25" s="21">
         <v>44757.0</v>
@@ -16206,7 +16194,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
@@ -16226,29 +16214,29 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="40" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L26" s="21">
         <v>44758.0</v>
@@ -16261,7 +16249,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
@@ -16281,29 +16269,29 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="40" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L27" s="21">
         <v>44759.0</v>
@@ -16316,7 +16304,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
@@ -16336,29 +16324,29 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L28" s="21">
         <v>44760.0</v>
@@ -16371,7 +16359,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
@@ -16391,29 +16379,29 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L29" s="21">
         <v>44761.0</v>
@@ -16426,7 +16414,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
@@ -16446,29 +16434,29 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="40" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L30" s="21">
         <v>44762.0</v>
@@ -16481,7 +16469,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -16501,29 +16489,29 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L31" s="21">
         <v>44763.0</v>
@@ -16536,7 +16524,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
@@ -16556,29 +16544,29 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
       <c r="K32" s="40" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L32" s="21">
         <v>44764.0</v>
@@ -16591,7 +16579,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
@@ -16611,29 +16599,29 @@
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L33" s="21">
         <v>44765.0</v>
@@ -16646,7 +16634,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
@@ -16666,29 +16654,29 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="40" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L34" s="21">
         <v>44766.0</v>
@@ -16701,7 +16689,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
@@ -16721,29 +16709,29 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L35" s="21">
         <v>44767.0</v>
@@ -16756,7 +16744,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
@@ -16776,29 +16764,29 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L36" s="21">
         <v>44768.0</v>
@@ -16811,7 +16799,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
@@ -16831,29 +16819,29 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="40" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L37" s="21">
         <v>44769.0</v>
@@ -16866,7 +16854,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
@@ -16886,29 +16874,29 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="40" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L38" s="21">
         <v>44770.0</v>
@@ -16921,7 +16909,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q38" s="19"/>
       <c r="R38" s="19"/>
@@ -16941,29 +16929,29 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="40" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L39" s="21">
         <v>44771.0</v>
@@ -16976,7 +16964,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -16996,29 +16984,29 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="40" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L40" s="21">
         <v>44772.0</v>
@@ -17031,7 +17019,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
@@ -17051,29 +17039,29 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
       <c r="K41" s="40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L41" s="21">
         <v>44773.0</v>
@@ -17086,7 +17074,7 @@
         <v>46</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
@@ -17106,29 +17094,29 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="40" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L42" s="21">
         <v>44774.0</v>
@@ -17141,7 +17129,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
@@ -17161,29 +17149,29 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="40" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L43" s="21">
         <v>44775.0</v>
@@ -17196,7 +17184,7 @@
         <v>46</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
@@ -17216,29 +17204,29 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="40" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L44" s="21">
         <v>44776.0</v>
@@ -17251,7 +17239,7 @@
         <v>46</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
@@ -17271,29 +17259,29 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
       <c r="K45" s="40" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L45" s="21">
         <v>44777.0</v>
@@ -17306,7 +17294,7 @@
         <v>46</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
@@ -17326,29 +17314,29 @@
     </row>
     <row r="46">
       <c r="A46" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="40" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L46" s="21">
         <v>44778.0</v>
@@ -17361,7 +17349,7 @@
         <v>46</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q46" s="19"/>
       <c r="R46" s="19"/>
@@ -17381,29 +17369,29 @@
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="40" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L47" s="21">
         <v>44779.0</v>
@@ -17416,7 +17404,7 @@
         <v>46</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
@@ -17436,29 +17424,29 @@
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="40" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L48" s="21">
         <v>44780.0</v>
@@ -17471,7 +17459,7 @@
         <v>46</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
@@ -17491,29 +17479,29 @@
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="40" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L49" s="21">
         <v>44781.0</v>
@@ -17526,7 +17514,7 @@
         <v>46</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
@@ -17546,29 +17534,29 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="40" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L50" s="21">
         <v>44782.0</v>
@@ -17581,7 +17569,7 @@
         <v>46</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
@@ -17601,29 +17589,29 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="40" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L51" s="21">
         <v>44783.0</v>
@@ -17636,7 +17624,7 @@
         <v>46</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
@@ -17656,29 +17644,29 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="40" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L52" s="21">
         <v>44784.0</v>
@@ -17691,7 +17679,7 @@
         <v>46</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -17711,29 +17699,29 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="40" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L53" s="21">
         <v>44785.0</v>
@@ -17746,7 +17734,7 @@
         <v>46</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -17766,29 +17754,29 @@
     </row>
     <row r="54">
       <c r="A54" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
       <c r="K54" s="40" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L54" s="21">
         <v>44786.0</v>
@@ -17801,7 +17789,7 @@
         <v>46</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q54" s="41"/>
       <c r="R54" s="41"/>
@@ -17821,29 +17809,29 @@
     </row>
     <row r="55">
       <c r="A55" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="40" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L55" s="21">
         <v>44787.0</v>
@@ -17856,7 +17844,7 @@
         <v>46</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
@@ -17876,29 +17864,29 @@
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="40" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L56" s="21">
         <v>44788.0</v>
@@ -17911,7 +17899,7 @@
         <v>46</v>
       </c>
       <c r="P56" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
@@ -17931,29 +17919,29 @@
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="40" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L57" s="21">
         <v>44789.0</v>
@@ -17966,7 +17954,7 @@
         <v>46</v>
       </c>
       <c r="P57" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
@@ -17986,29 +17974,29 @@
     </row>
     <row r="58">
       <c r="A58" s="20" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="40" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L58" s="21">
         <v>44790.0</v>
@@ -18021,7 +18009,7 @@
         <v>46</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
@@ -18041,29 +18029,29 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L59" s="21">
         <v>44791.0</v>
@@ -18076,7 +18064,7 @@
         <v>46</v>
       </c>
       <c r="P59" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
@@ -18096,29 +18084,29 @@
     </row>
     <row r="60">
       <c r="A60" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="40" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L60" s="21">
         <v>44792.0</v>
@@ -18131,7 +18119,7 @@
         <v>46</v>
       </c>
       <c r="P60" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
@@ -18151,29 +18139,29 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="40" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L61" s="21">
         <v>44793.0</v>
@@ -18186,7 +18174,7 @@
         <v>46</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
@@ -18206,29 +18194,29 @@
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="40" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L62" s="21">
         <v>44794.0</v>
@@ -18241,7 +18229,7 @@
         <v>46</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
@@ -18261,29 +18249,29 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
       <c r="K63" s="40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L63" s="21">
         <v>44795.0</v>
@@ -18296,7 +18284,7 @@
         <v>46</v>
       </c>
       <c r="P63" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
@@ -18319,37 +18307,37 @@
     </row>
     <row r="65">
       <c r="A65" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L65" s="21"/>
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L66" s="21">
         <v>45587.0</v>
@@ -18378,31 +18366,31 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K67" s="40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L67" s="21">
         <v>45587.0</v>
@@ -18431,31 +18419,31 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L68" s="21">
         <v>45587.0</v>
@@ -18484,31 +18472,31 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K69" s="40" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L69" s="21">
         <v>45587.0</v>
@@ -18537,31 +18525,31 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K70" s="40" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L70" s="21">
         <v>45587.0</v>
@@ -18590,31 +18578,31 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K71" s="40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L71" s="21">
         <v>45587.0</v>
@@ -18643,31 +18631,31 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K72" s="40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L72" s="21">
         <v>45587.0</v>
@@ -18725,31 +18713,31 @@
     </row>
     <row r="74">
       <c r="A74" s="20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K74" s="40" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L74" s="21">
         <v>45587.0</v>
@@ -18778,31 +18766,31 @@
     </row>
     <row r="75">
       <c r="A75" s="20" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K75" s="40" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L75" s="21">
         <v>45587.0</v>
@@ -18831,31 +18819,31 @@
     </row>
     <row r="76">
       <c r="A76" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L76" s="21">
         <v>45587.0</v>
@@ -18884,31 +18872,31 @@
     </row>
     <row r="77">
       <c r="A77" s="46" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L77" s="21">
         <v>45587.0</v>
@@ -18937,31 +18925,31 @@
     </row>
     <row r="78">
       <c r="A78" s="46" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="L78" s="21">
         <v>45587.0</v>
@@ -18990,31 +18978,31 @@
     </row>
     <row r="79">
       <c r="A79" s="46" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L79" s="21">
         <v>45587.0</v>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -139,7 +139,7 @@
     <t>RightNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Right Notice </t>
+    <t>Right Notice</t>
   </si>
   <si>
     <t>Information associated with rights, such as which rights exist, when and where they are applicable, and other relevant information</t>
@@ -235,7 +235,7 @@
     <t>Notice provided regarding non-fulfilment of a right</t>
   </si>
   <si>
-    <t>This notice is associated with situations where information is provided with the intention of communicating non-fulfilment of a right. For example, to provide justifications on why a right could not be fulfilled or providing information about another entity  who should be approached for exercising this right.</t>
+    <t>This notice is associated with situations where information is provided with the intention of communicating non-fulfilment of a right. For example, to provide justifications on why a right could not be fulfilled or providing information about another entity who should be approached for exercising this right.</t>
   </si>
   <si>
     <t>dcat:Resource</t>
@@ -1213,7 +1213,7 @@
     <t>A32-ProhibitionOfChildLabourProtectionofYoungAtWork</t>
   </si>
   <si>
-    <t>A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+    <t>A32 Prohibition Of Child Labour Protection Of Young At Work</t>
   </si>
   <si>
     <r>
@@ -2783,10 +2783,10 @@
     <t>A32-ProhibitionOfChildLabourProtectionofYoungAtWorkImpact</t>
   </si>
   <si>
-    <t>Impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
-  </si>
-  <si>
-    <t>Something that acts as or is considered as an impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+    <t>Impact on A32 Prohibition Of Child Labour Protection Of Young At Work</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A32 Prohibition Of Child Labour Protection Of Young At Work</t>
   </si>
   <si>
     <r>
@@ -3786,7 +3786,7 @@
     <t>A8-RectificiationImpacted</t>
   </si>
   <si>
-    <t>A8 Rectificiation Impacted</t>
+    <t>A8 Rectification Impacted</t>
   </si>
   <si>
     <t>Where the right of rectification of personal data is impacted</t>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="626">
   <si>
     <t>Term</t>
   </si>
@@ -557,7 +557,7 @@
     </r>
   </si>
   <si>
-    <t>A6-RightToLiberySecurity</t>
+    <t>A6-RightToLibertySecurity</t>
   </si>
   <si>
     <t>A6 Right To Liberty Security</t>
@@ -583,6 +583,9 @@
     </r>
   </si>
   <si>
+    <t>Harshvardhan J. Pandit, Arthit Suriyawongkul</t>
+  </si>
+  <si>
     <t>A7-RespectPrivateFamilyLife</t>
   </si>
   <si>
@@ -1394,7 +1397,7 @@
     </r>
   </si>
   <si>
-    <t>A39-RightToVoteStandAsCanditateEUParliament</t>
+    <t>A39-RightToVoteStandAsCandidateEUParliament</t>
   </si>
   <si>
     <t>A39 Right To Vote Stand As Candidate E U Parliament</t>
@@ -2043,7 +2046,7 @@
     </r>
   </si>
   <si>
-    <t>A6-RightToLiberySecurityImpact</t>
+    <t>A6-RightToLibertySecurityImpact</t>
   </si>
   <si>
     <t>Impact on A6 Right To Liberty Security</t>
@@ -2780,7 +2783,7 @@
     </r>
   </si>
   <si>
-    <t>A32-ProhibitionOfChildLabourProtectionofYoungAtWorkImpact</t>
+    <t>A32-ProhibitionOfChildLabourProtectionOfYoungAtWorkImpact</t>
   </si>
   <si>
     <t>Impact on A32 Prohibition Of Child Labour Protection Of Young At Work</t>
@@ -2988,7 +2991,7 @@
     </r>
   </si>
   <si>
-    <t>A39-RightToVoteStandAsCanditateEUParliamentImpact</t>
+    <t>A39-RightToVoteStandAsCandidateEUParliamentImpact</t>
   </si>
   <si>
     <t>Impact on A39 Right To Vote Stand As Candidate E U Parliament</t>
@@ -3783,7 +3786,7 @@
     </r>
   </si>
   <si>
-    <t>A8-RectificiationImpacted</t>
+    <t>A8-RectificationImpacted</t>
   </si>
   <si>
     <t>A8 Rectification Impacted</t>
@@ -11759,51 +11762,34 @@
       <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
       <c r="J11" s="40" t="s">
         <v>146</v>
       </c>
       <c r="K11" s="21">
         <v>44742.0</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="M11" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="O11" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>145</v>
@@ -11816,7 +11802,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K12" s="21">
         <v>44743.0</v>
@@ -11849,13 +11835,13 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>145</v>
@@ -11868,7 +11854,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13" s="21">
         <v>44744.0</v>
@@ -11901,13 +11887,13 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>145</v>
@@ -11920,7 +11906,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K14" s="21">
         <v>44745.0</v>
@@ -11953,13 +11939,13 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>145</v>
@@ -11972,7 +11958,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K15" s="21">
         <v>44746.0</v>
@@ -12005,13 +11991,13 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>145</v>
@@ -12024,7 +12010,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K16" s="21">
         <v>44747.0</v>
@@ -12057,13 +12043,13 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>145</v>
@@ -12076,7 +12062,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K17" s="21">
         <v>44748.0</v>
@@ -12109,13 +12095,13 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>145</v>
@@ -12128,7 +12114,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K18" s="21">
         <v>44749.0</v>
@@ -12161,13 +12147,13 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>145</v>
@@ -12180,7 +12166,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K19" s="21">
         <v>44750.0</v>
@@ -12213,13 +12199,13 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>145</v>
@@ -12232,7 +12218,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K20" s="21">
         <v>44751.0</v>
@@ -12265,13 +12251,13 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>145</v>
@@ -12284,7 +12270,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K21" s="21">
         <v>44752.0</v>
@@ -12317,13 +12303,13 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>145</v>
@@ -12336,7 +12322,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K22" s="21">
         <v>44753.0</v>
@@ -12369,13 +12355,13 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>145</v>
@@ -12388,7 +12374,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K23" s="21">
         <v>44754.0</v>
@@ -12421,13 +12407,13 @@
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>145</v>
@@ -12440,7 +12426,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K24" s="21">
         <v>44755.0</v>
@@ -12473,13 +12459,13 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>122</v>
@@ -12492,7 +12478,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K25" s="21">
         <v>44756.0</v>
@@ -12525,16 +12511,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
@@ -12544,7 +12530,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K26" s="21">
         <v>44757.0</v>
@@ -12577,16 +12563,16 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>26</v>
@@ -12596,7 +12582,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K27" s="21">
         <v>44758.0</v>
@@ -12629,16 +12615,16 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>26</v>
@@ -12648,7 +12634,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="21">
         <v>44759.0</v>
@@ -12681,16 +12667,16 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>26</v>
@@ -12700,7 +12686,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="21">
         <v>44760.0</v>
@@ -12733,16 +12719,16 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>26</v>
@@ -12752,7 +12738,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" s="21">
         <v>44761.0</v>
@@ -12785,16 +12771,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
@@ -12804,7 +12790,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K31" s="21">
         <v>44762.0</v>
@@ -12837,16 +12823,16 @@
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>26</v>
@@ -12856,7 +12842,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K32" s="21">
         <v>44763.0</v>
@@ -12889,13 +12875,13 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>122</v>
@@ -12908,7 +12894,7 @@
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
       <c r="J33" s="40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K33" s="21">
         <v>44764.0</v>
@@ -12941,16 +12927,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>26</v>
@@ -12960,7 +12946,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K34" s="21">
         <v>44765.0</v>
@@ -12993,16 +12979,16 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>26</v>
@@ -13012,7 +12998,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K35" s="21">
         <v>44766.0</v>
@@ -13045,16 +13031,16 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>26</v>
@@ -13064,7 +13050,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K36" s="21">
         <v>44767.0</v>
@@ -13097,16 +13083,16 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>26</v>
@@ -13116,7 +13102,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K37" s="21">
         <v>44768.0</v>
@@ -13149,16 +13135,16 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>26</v>
@@ -13168,7 +13154,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K38" s="21">
         <v>44769.0</v>
@@ -13201,16 +13187,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>26</v>
@@ -13220,7 +13206,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K39" s="21">
         <v>44770.0</v>
@@ -13253,16 +13239,16 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>26</v>
@@ -13272,7 +13258,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K40" s="21">
         <v>44771.0</v>
@@ -13305,16 +13291,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>26</v>
@@ -13324,7 +13310,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K41" s="21">
         <v>44772.0</v>
@@ -13357,16 +13343,16 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>26</v>
@@ -13376,7 +13362,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K42" s="21">
         <v>44773.0</v>
@@ -13409,16 +13395,16 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>26</v>
@@ -13428,7 +13414,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K43" s="21">
         <v>44774.0</v>
@@ -13461,16 +13447,16 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>26</v>
@@ -13480,7 +13466,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K44" s="21">
         <v>44775.0</v>
@@ -13513,16 +13499,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>26</v>
@@ -13532,7 +13518,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K45" s="21">
         <v>44776.0</v>
@@ -13565,13 +13551,13 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>122</v>
@@ -13584,7 +13570,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
       <c r="J46" s="40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K46" s="21">
         <v>44777.0</v>
@@ -13617,68 +13603,51 @@
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
       <c r="J47" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K47" s="21">
         <v>44778.0</v>
       </c>
-      <c r="L47" s="19"/>
+      <c r="L47" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="M47" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="O47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>26</v>
@@ -13688,7 +13657,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K48" s="21">
         <v>44779.0</v>
@@ -13721,16 +13690,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>26</v>
@@ -13740,7 +13709,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K49" s="21">
         <v>44780.0</v>
@@ -13773,16 +13742,16 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>26</v>
@@ -13792,7 +13761,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K50" s="21">
         <v>44781.0</v>
@@ -13825,16 +13794,16 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>26</v>
@@ -13844,7 +13813,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K51" s="21">
         <v>44782.0</v>
@@ -13877,16 +13846,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>26</v>
@@ -13896,7 +13865,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K52" s="21">
         <v>44783.0</v>
@@ -13929,16 +13898,16 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>26</v>
@@ -13948,7 +13917,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K53" s="21">
         <v>44784.0</v>
@@ -13981,16 +13950,16 @@
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>26</v>
@@ -14000,7 +13969,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K54" s="21">
         <v>44785.0</v>
@@ -14033,13 +14002,13 @@
     </row>
     <row r="55">
       <c r="A55" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>122</v>
@@ -14052,7 +14021,7 @@
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
       <c r="J55" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K55" s="21">
         <v>44786.0</v>
@@ -14085,16 +14054,16 @@
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>26</v>
@@ -14104,7 +14073,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K56" s="21">
         <v>44787.0</v>
@@ -14137,16 +14106,16 @@
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>26</v>
@@ -14156,7 +14125,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K57" s="21">
         <v>44788.0</v>
@@ -14189,16 +14158,16 @@
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>26</v>
@@ -14208,7 +14177,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K58" s="21">
         <v>44789.0</v>
@@ -14241,16 +14210,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>26</v>
@@ -14260,7 +14229,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K59" s="21">
         <v>44790.0</v>
@@ -14293,13 +14262,13 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>122</v>
@@ -14312,7 +14281,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="40" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K60" s="21">
         <v>44791.0</v>
@@ -14345,16 +14314,16 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>26</v>
@@ -14364,7 +14333,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K61" s="21">
         <v>44792.0</v>
@@ -14397,16 +14366,16 @@
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>26</v>
@@ -14416,7 +14385,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K62" s="21">
         <v>44793.0</v>
@@ -14449,16 +14418,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>26</v>
@@ -14468,7 +14437,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="40" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K63" s="21">
         <v>44794.0</v>
@@ -14501,16 +14470,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>26</v>
@@ -14520,7 +14489,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K64" s="21">
         <v>44795.0</v>
@@ -14862,7 +14831,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>6</v>
@@ -14894,29 +14863,29 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L2" s="21">
         <v>44734.0</v>
@@ -14949,29 +14918,29 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
       <c r="K3" s="40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L3" s="21">
         <v>44735.0</v>
@@ -15004,29 +14973,29 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="40" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L4" s="21">
         <v>44736.0</v>
@@ -15059,29 +15028,29 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L5" s="21">
         <v>44737.0</v>
@@ -15114,29 +15083,29 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L6" s="21">
         <v>44738.0</v>
@@ -15169,29 +15138,29 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L7" s="21">
         <v>44739.0</v>
@@ -15224,29 +15193,29 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L8" s="21">
         <v>44740.0</v>
@@ -15279,29 +15248,29 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L9" s="21">
         <v>44741.0</v>
@@ -15334,84 +15303,67 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G10" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+        <v>318</v>
+      </c>
       <c r="K10" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L10" s="21">
         <v>44742.0</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N10" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L11" s="21">
         <v>44743.0</v>
@@ -15444,29 +15396,29 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L12" s="21">
         <v>44744.0</v>
@@ -15499,29 +15451,29 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="40" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L13" s="21">
         <v>44745.0</v>
@@ -15554,29 +15506,29 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="40" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L14" s="21">
         <v>44746.0</v>
@@ -15609,29 +15561,29 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="40" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L15" s="21">
         <v>44747.0</v>
@@ -15664,29 +15616,29 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L16" s="21">
         <v>44748.0</v>
@@ -15719,29 +15671,29 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="40" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L17" s="21">
         <v>44749.0</v>
@@ -15774,29 +15726,29 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="40" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L18" s="21">
         <v>44750.0</v>
@@ -15829,29 +15781,29 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="40" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L19" s="21">
         <v>44751.0</v>
@@ -15884,29 +15836,29 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="40" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L20" s="21">
         <v>44752.0</v>
@@ -15939,29 +15891,29 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L21" s="21">
         <v>44753.0</v>
@@ -15994,29 +15946,29 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="40" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L22" s="21">
         <v>44754.0</v>
@@ -16049,29 +16001,29 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="40" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L23" s="21">
         <v>44755.0</v>
@@ -16104,29 +16056,29 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
       <c r="K24" s="40" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L24" s="21">
         <v>44756.0</v>
@@ -16159,29 +16111,29 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L25" s="21">
         <v>44757.0</v>
@@ -16214,29 +16166,29 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L26" s="21">
         <v>44758.0</v>
@@ -16269,29 +16221,29 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="40" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L27" s="21">
         <v>44759.0</v>
@@ -16324,29 +16276,29 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="40" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L28" s="21">
         <v>44760.0</v>
@@ -16379,29 +16331,29 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L29" s="21">
         <v>44761.0</v>
@@ -16434,29 +16386,29 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="40" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L30" s="21">
         <v>44762.0</v>
@@ -16489,29 +16441,29 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L31" s="21">
         <v>44763.0</v>
@@ -16544,29 +16496,29 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
       <c r="K32" s="40" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L32" s="21">
         <v>44764.0</v>
@@ -16599,29 +16551,29 @@
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L33" s="21">
         <v>44765.0</v>
@@ -16654,29 +16606,29 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="40" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L34" s="21">
         <v>44766.0</v>
@@ -16709,29 +16661,29 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L35" s="21">
         <v>44767.0</v>
@@ -16764,29 +16716,29 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="40" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L36" s="21">
         <v>44768.0</v>
@@ -16819,29 +16771,29 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="40" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L37" s="21">
         <v>44769.0</v>
@@ -16874,84 +16826,67 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="F38" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G38" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+        <v>318</v>
+      </c>
       <c r="K38" s="40" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L38" s="21">
         <v>44770.0</v>
       </c>
-      <c r="M38" s="19"/>
+      <c r="M38" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N38" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P38" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="40" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L39" s="21">
         <v>44771.0</v>
@@ -16984,29 +16919,29 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L40" s="21">
         <v>44772.0</v>
@@ -17039,29 +16974,29 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
       <c r="K41" s="40" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L41" s="21">
         <v>44773.0</v>
@@ -17094,29 +17029,29 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="40" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L42" s="21">
         <v>44774.0</v>
@@ -17149,29 +17084,29 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="40" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L43" s="21">
         <v>44775.0</v>
@@ -17204,29 +17139,29 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="40" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L44" s="21">
         <v>44776.0</v>
@@ -17259,29 +17194,29 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
       <c r="K45" s="40" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L45" s="21">
         <v>44777.0</v>
@@ -17314,84 +17249,67 @@
     </row>
     <row r="46">
       <c r="A46" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="F46" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G46" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+        <v>318</v>
+      </c>
       <c r="K46" s="40" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L46" s="21">
         <v>44778.0</v>
       </c>
-      <c r="M46" s="19"/>
+      <c r="M46" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N46" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P46" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L47" s="21">
         <v>44779.0</v>
@@ -17424,29 +17342,29 @@
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="40" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L48" s="21">
         <v>44780.0</v>
@@ -17479,29 +17397,29 @@
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="40" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L49" s="21">
         <v>44781.0</v>
@@ -17534,29 +17452,29 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="40" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L50" s="21">
         <v>44782.0</v>
@@ -17589,29 +17507,29 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="40" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L51" s="21">
         <v>44783.0</v>
@@ -17644,29 +17562,29 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="40" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L52" s="21">
         <v>44784.0</v>
@@ -17699,29 +17617,29 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="40" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L53" s="21">
         <v>44785.0</v>
@@ -17754,29 +17672,29 @@
     </row>
     <row r="54">
       <c r="A54" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
       <c r="K54" s="40" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L54" s="21">
         <v>44786.0</v>
@@ -17809,29 +17727,29 @@
     </row>
     <row r="55">
       <c r="A55" s="22" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="40" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L55" s="21">
         <v>44787.0</v>
@@ -17864,29 +17782,29 @@
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="40" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L56" s="21">
         <v>44788.0</v>
@@ -17919,29 +17837,29 @@
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="40" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L57" s="21">
         <v>44789.0</v>
@@ -17974,29 +17892,29 @@
     </row>
     <row r="58">
       <c r="A58" s="20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="40" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L58" s="21">
         <v>44790.0</v>
@@ -18029,29 +17947,29 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="40" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L59" s="21">
         <v>44791.0</v>
@@ -18084,29 +18002,29 @@
     </row>
     <row r="60">
       <c r="A60" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="40" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L60" s="21">
         <v>44792.0</v>
@@ -18139,29 +18057,29 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L61" s="21">
         <v>44793.0</v>
@@ -18194,29 +18112,29 @@
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="40" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L62" s="21">
         <v>44794.0</v>
@@ -18249,29 +18167,29 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
       <c r="K63" s="40" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L63" s="21">
         <v>44795.0</v>
@@ -18307,37 +18225,37 @@
     </row>
     <row r="65">
       <c r="A65" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L65" s="21"/>
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L66" s="21">
         <v>45587.0</v>
@@ -18366,31 +18284,31 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K67" s="40" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L67" s="21">
         <v>45587.0</v>
@@ -18419,31 +18337,31 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L68" s="21">
         <v>45587.0</v>
@@ -18472,31 +18390,31 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K69" s="40" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L69" s="21">
         <v>45587.0</v>
@@ -18525,31 +18443,31 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K70" s="40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L70" s="21">
         <v>45587.0</v>
@@ -18578,31 +18496,31 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K71" s="40" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L71" s="21">
         <v>45587.0</v>
@@ -18631,31 +18549,31 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K72" s="40" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L72" s="21">
         <v>45587.0</v>
@@ -18713,31 +18631,31 @@
     </row>
     <row r="74">
       <c r="A74" s="20" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K74" s="40" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L74" s="21">
         <v>45587.0</v>
@@ -18766,31 +18684,31 @@
     </row>
     <row r="75">
       <c r="A75" s="20" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K75" s="40" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L75" s="21">
         <v>45587.0</v>
@@ -18819,31 +18737,31 @@
     </row>
     <row r="76">
       <c r="A76" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L76" s="21">
         <v>45587.0</v>
@@ -18872,31 +18790,31 @@
     </row>
     <row r="77">
       <c r="A77" s="46" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L77" s="21">
         <v>45587.0</v>
@@ -18925,31 +18843,31 @@
     </row>
     <row r="78">
       <c r="A78" s="46" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L78" s="21">
         <v>45587.0</v>
@@ -18978,56 +18896,41 @@
     </row>
     <row r="79">
       <c r="A79" s="46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="F79" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G79" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
+        <v>318</v>
+      </c>
       <c r="J79" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L79" s="21">
         <v>45587.0</v>
       </c>
-      <c r="M79" s="19"/>
+      <c r="M79" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="O79" s="20" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="44"/>

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -196,7 +196,7 @@
     <t>Record of a Right being exercised</t>
   </si>
   <si>
-    <t>dpv:RecordOfActivity</t>
+    <t>dpv:RecordsOfActivities</t>
   </si>
   <si>
     <t>This concept represents a record of one or more right exercise activities, such as those associated with a single data subject or service or entity</t>
@@ -4879,7 +4879,7 @@
         <v>44867.0</v>
       </c>
       <c r="L13" s="21">
-        <v>45803.0</v>
+        <v>45886.0</v>
       </c>
       <c r="M13" s="20" t="s">
         <v>62</v>
@@ -11283,6 +11283,7 @@
     <col customWidth="1" min="2" max="2" width="31.88"/>
     <col customWidth="1" min="3" max="3" width="60.88"/>
     <col customWidth="1" min="9" max="9" width="43.13"/>
+    <col customWidth="1" min="10" max="10" width="55.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -14809,6 +14810,7 @@
     <col customWidth="1" min="2" max="2" width="31.88"/>
     <col customWidth="1" min="3" max="3" width="60.88"/>
     <col customWidth="1" min="10" max="10" width="43.13"/>
+    <col customWidth="1" min="11" max="11" width="98.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">

--- a/code/vocab_csv/rights.xlsx
+++ b/code/vocab_csv/rights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="626">
   <si>
     <t>Term</t>
   </si>
@@ -139,7 +139,7 @@
     <t>RightNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Right Notice </t>
+    <t>Right Notice</t>
   </si>
   <si>
     <t>Information associated with rights, such as which rights exist, when and where they are applicable, and other relevant information</t>
@@ -196,12 +196,15 @@
     <t>Record of a Right being exercised</t>
   </si>
   <si>
-    <t>dpv:Record</t>
+    <t>dpv:RecordsOfActivities</t>
   </si>
   <si>
     <t>This concept represents a record of one or more right exercise activities, such as those associated with a single data subject or service or entity</t>
   </si>
   <si>
+    <t>modified</t>
+  </si>
+  <si>
     <t>Rights related Notices</t>
   </si>
   <si>
@@ -232,7 +235,7 @@
     <t>Notice provided regarding non-fulfilment of a right</t>
   </si>
   <si>
-    <t>This notice is associated with situations where information is provided with the intention of communicating non-fulfilment of a right. For example, to provide justifications on why a right could not be fulfilled or providing information about another entity  who should be approached for exercising this right.</t>
+    <t>This notice is associated with situations where information is provided with the intention of communicating non-fulfilment of a right. For example, to provide justifications on why a right could not be fulfilled or providing information about another entity who should be approached for exercising this right.</t>
   </si>
   <si>
     <t>dcat:Resource</t>
@@ -554,7 +557,7 @@
     </r>
   </si>
   <si>
-    <t>A6-RightToLiberySecurity</t>
+    <t>A6-RightToLibertySecurity</t>
   </si>
   <si>
     <t>A6 Right To Liberty Security</t>
@@ -580,6 +583,9 @@
     </r>
   </si>
   <si>
+    <t>Harshvardhan J. Pandit, Arthit Suriyawongkul</t>
+  </si>
+  <si>
     <t>A7-RespectPrivateFamilyLife</t>
   </si>
   <si>
@@ -1210,7 +1216,7 @@
     <t>A32-ProhibitionOfChildLabourProtectionofYoungAtWork</t>
   </si>
   <si>
-    <t>A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+    <t>A32 Prohibition Of Child Labour Protection Of Young At Work</t>
   </si>
   <si>
     <r>
@@ -1391,7 +1397,7 @@
     </r>
   </si>
   <si>
-    <t>A39-RightToVoteStandAsCanditateEUParliament</t>
+    <t>A39-RightToVoteStandAsCandidateEUParliament</t>
   </si>
   <si>
     <t>A39 Right To Vote Stand As Candidate E U Parliament</t>
@@ -2040,7 +2046,7 @@
     </r>
   </si>
   <si>
-    <t>A6-RightToLiberySecurityImpact</t>
+    <t>A6-RightToLibertySecurityImpact</t>
   </si>
   <si>
     <t>Impact on A6 Right To Liberty Security</t>
@@ -2777,13 +2783,13 @@
     </r>
   </si>
   <si>
-    <t>A32-ProhibitionOfChildLabourProtectionofYoungAtWorkImpact</t>
-  </si>
-  <si>
-    <t>Impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
-  </si>
-  <si>
-    <t>Something that acts as or is considered as an impact on A32 Prohibition Of Child Labour Protectionof Young At Work</t>
+    <t>A32-ProhibitionOfChildLabourProtectionOfYoungAtWorkImpact</t>
+  </si>
+  <si>
+    <t>Impact on A32 Prohibition Of Child Labour Protection Of Young At Work</t>
+  </si>
+  <si>
+    <t>Something that acts as or is considered as an impact on A32 Prohibition Of Child Labour Protection Of Young At Work</t>
   </si>
   <si>
     <r>
@@ -2985,7 +2991,7 @@
     </r>
   </si>
   <si>
-    <t>A39-RightToVoteStandAsCanditateEUParliamentImpact</t>
+    <t>A39-RightToVoteStandAsCandidateEUParliamentImpact</t>
   </si>
   <si>
     <t>Impact on A39 Right To Vote Stand As Candidate E U Parliament</t>
@@ -3780,10 +3786,10 @@
     </r>
   </si>
   <si>
-    <t>A8-RectificiationImpacted</t>
-  </si>
-  <si>
-    <t>A8 Rectificiation Impacted</t>
+    <t>A8-RectificationImpacted</t>
+  </si>
+  <si>
+    <t>A8 Rectification Impacted</t>
   </si>
   <si>
     <t>Where the right of rectification of personal data is impacted</t>
@@ -4866,19 +4872,17 @@
       <c r="E13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
       <c r="I13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="19"/>
       <c r="K13" s="21">
         <v>44867.0</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="21">
+        <v>45886.0</v>
+      </c>
       <c r="M13" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N13" s="20" t="s">
         <v>34</v>
@@ -4886,19 +4890,6 @@
       <c r="O13" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
     </row>
     <row r="14">
       <c r="B14" s="22"/>
@@ -4910,7 +4901,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="20"/>
@@ -4922,16 +4913,16 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>44</v>
@@ -4940,7 +4931,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="21">
@@ -4951,7 +4942,7 @@
         <v>20</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O16" s="24" t="s">
         <v>52</v>
@@ -4972,16 +4963,16 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>44</v>
@@ -4990,7 +4981,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="21">
@@ -5001,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="N17" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O17" s="24" t="s">
         <v>52</v>
@@ -5026,13 +5017,13 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>17</v>
@@ -7694,13 +7685,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7732,13 +7723,13 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>17</v>
@@ -7747,7 +7738,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -7782,22 +7773,22 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -7832,25 +7823,25 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="21"/>
@@ -7878,25 +7869,25 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="21"/>
@@ -7924,25 +7915,25 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="21"/>
@@ -7970,23 +7961,23 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="21"/>
@@ -8014,25 +8005,25 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="21"/>
@@ -8060,25 +8051,25 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="21"/>
@@ -8106,25 +8097,25 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="21"/>
@@ -8152,25 +8143,25 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="21"/>
@@ -8198,25 +8189,25 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="21"/>
@@ -8244,21 +8235,21 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="21"/>
@@ -8286,21 +8277,21 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="21"/>
@@ -8328,21 +8319,21 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="21"/>
@@ -11292,6 +11283,7 @@
     <col customWidth="1" min="2" max="2" width="31.88"/>
     <col customWidth="1" min="3" max="3" width="60.88"/>
     <col customWidth="1" min="9" max="9" width="43.13"/>
+    <col customWidth="1" min="10" max="10" width="55.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -11343,13 +11335,13 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20" t="s">
@@ -11360,7 +11352,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3" s="21">
         <v>44734.0</v>
@@ -11373,7 +11365,7 @@
         <v>46</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
@@ -11393,16 +11385,16 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>26</v>
@@ -11412,7 +11404,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
       <c r="J4" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K4" s="21">
         <v>44735.0</v>
@@ -11425,7 +11417,7 @@
         <v>46</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
@@ -11445,16 +11437,16 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>26</v>
@@ -11464,7 +11456,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K5" s="21">
         <v>44736.0</v>
@@ -11477,7 +11469,7 @@
         <v>46</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -11497,16 +11489,16 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>26</v>
@@ -11516,7 +11508,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K6" s="21">
         <v>44737.0</v>
@@ -11529,7 +11521,7 @@
         <v>46</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
@@ -11549,16 +11541,16 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>26</v>
@@ -11568,7 +11560,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K7" s="21">
         <v>44738.0</v>
@@ -11581,7 +11573,7 @@
         <v>46</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -11601,16 +11593,16 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>26</v>
@@ -11620,7 +11612,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K8" s="21">
         <v>44739.0</v>
@@ -11633,7 +11625,7 @@
         <v>46</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
@@ -11653,16 +11645,16 @@
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>26</v>
@@ -11672,7 +11664,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="21">
         <v>44740.0</v>
@@ -11685,7 +11677,7 @@
         <v>46</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
@@ -11705,16 +11697,16 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>26</v>
@@ -11724,7 +11716,7 @@
       <c r="H10" s="41"/>
       <c r="I10" s="41"/>
       <c r="J10" s="40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K10" s="21">
         <v>44741.0</v>
@@ -11737,7 +11729,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
@@ -11757,68 +11749,51 @@
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
       <c r="J11" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K11" s="21">
         <v>44742.0</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="M11" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>26</v>
@@ -11828,7 +11803,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K12" s="21">
         <v>44743.0</v>
@@ -11841,7 +11816,7 @@
         <v>46</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -11861,16 +11836,16 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>26</v>
@@ -11880,7 +11855,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K13" s="21">
         <v>44744.0</v>
@@ -11893,7 +11868,7 @@
         <v>46</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -11913,16 +11888,16 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>26</v>
@@ -11932,7 +11907,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K14" s="21">
         <v>44745.0</v>
@@ -11945,7 +11920,7 @@
         <v>46</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
@@ -11965,16 +11940,16 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>26</v>
@@ -11984,7 +11959,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K15" s="21">
         <v>44746.0</v>
@@ -11997,7 +11972,7 @@
         <v>46</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -12017,16 +11992,16 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>26</v>
@@ -12036,7 +12011,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="40" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K16" s="21">
         <v>44747.0</v>
@@ -12049,7 +12024,7 @@
         <v>46</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -12069,16 +12044,16 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>26</v>
@@ -12088,7 +12063,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K17" s="21">
         <v>44748.0</v>
@@ -12101,7 +12076,7 @@
         <v>46</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
@@ -12121,16 +12096,16 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>26</v>
@@ -12140,7 +12115,7 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K18" s="21">
         <v>44749.0</v>
@@ -12153,7 +12128,7 @@
         <v>46</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
@@ -12173,16 +12148,16 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>26</v>
@@ -12192,7 +12167,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K19" s="21">
         <v>44750.0</v>
@@ -12205,7 +12180,7 @@
         <v>46</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
@@ -12225,16 +12200,16 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>26</v>
@@ -12244,7 +12219,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K20" s="21">
         <v>44751.0</v>
@@ -12257,7 +12232,7 @@
         <v>46</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
@@ -12277,16 +12252,16 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>26</v>
@@ -12296,7 +12271,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K21" s="21">
         <v>44752.0</v>
@@ -12309,7 +12284,7 @@
         <v>46</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -12329,16 +12304,16 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>26</v>
@@ -12348,7 +12323,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K22" s="21">
         <v>44753.0</v>
@@ -12361,7 +12336,7 @@
         <v>46</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -12381,16 +12356,16 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>26</v>
@@ -12400,7 +12375,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K23" s="21">
         <v>44754.0</v>
@@ -12413,7 +12388,7 @@
         <v>46</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -12433,16 +12408,16 @@
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>26</v>
@@ -12452,7 +12427,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K24" s="21">
         <v>44755.0</v>
@@ -12465,7 +12440,7 @@
         <v>46</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -12485,16 +12460,16 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>26</v>
@@ -12504,7 +12479,7 @@
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K25" s="21">
         <v>44756.0</v>
@@ -12517,7 +12492,7 @@
         <v>46</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
@@ -12537,16 +12512,16 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>26</v>
@@ -12556,7 +12531,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K26" s="21">
         <v>44757.0</v>
@@ -12569,7 +12544,7 @@
         <v>46</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -12589,16 +12564,16 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>192</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>26</v>
@@ -12608,7 +12583,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K27" s="21">
         <v>44758.0</v>
@@ -12621,7 +12596,7 @@
         <v>46</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -12641,16 +12616,16 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>26</v>
@@ -12660,7 +12635,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K28" s="21">
         <v>44759.0</v>
@@ -12673,7 +12648,7 @@
         <v>46</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
@@ -12693,16 +12668,16 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>26</v>
@@ -12712,7 +12687,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K29" s="21">
         <v>44760.0</v>
@@ -12725,7 +12700,7 @@
         <v>46</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
@@ -12745,16 +12720,16 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>26</v>
@@ -12764,7 +12739,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K30" s="21">
         <v>44761.0</v>
@@ -12777,7 +12752,7 @@
         <v>46</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
@@ -12797,16 +12772,16 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>26</v>
@@ -12816,7 +12791,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K31" s="21">
         <v>44762.0</v>
@@ -12829,7 +12804,7 @@
         <v>46</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
@@ -12849,16 +12824,16 @@
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>26</v>
@@ -12868,7 +12843,7 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K32" s="21">
         <v>44763.0</v>
@@ -12881,7 +12856,7 @@
         <v>46</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
@@ -12901,16 +12876,16 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>26</v>
@@ -12920,7 +12895,7 @@
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
       <c r="J33" s="40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K33" s="21">
         <v>44764.0</v>
@@ -12933,7 +12908,7 @@
         <v>46</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P33" s="41"/>
       <c r="Q33" s="41"/>
@@ -12953,16 +12928,16 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>26</v>
@@ -12972,7 +12947,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K34" s="21">
         <v>44765.0</v>
@@ -12985,7 +12960,7 @@
         <v>46</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
@@ -13005,16 +12980,16 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>217</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>215</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>26</v>
@@ -13024,7 +12999,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K35" s="21">
         <v>44766.0</v>
@@ -13037,7 +13012,7 @@
         <v>46</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
@@ -13057,16 +13032,16 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>26</v>
@@ -13076,7 +13051,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K36" s="21">
         <v>44767.0</v>
@@ -13089,7 +13064,7 @@
         <v>46</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
@@ -13109,16 +13084,16 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>26</v>
@@ -13128,7 +13103,7 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K37" s="21">
         <v>44768.0</v>
@@ -13141,7 +13116,7 @@
         <v>46</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
@@ -13161,16 +13136,16 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>26</v>
@@ -13180,7 +13155,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K38" s="21">
         <v>44769.0</v>
@@ -13193,7 +13168,7 @@
         <v>46</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
@@ -13213,16 +13188,16 @@
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>26</v>
@@ -13232,7 +13207,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="40" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K39" s="21">
         <v>44770.0</v>
@@ -13245,7 +13220,7 @@
         <v>46</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
@@ -13265,16 +13240,16 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>26</v>
@@ -13284,7 +13259,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="40" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K40" s="21">
         <v>44771.0</v>
@@ -13297,7 +13272,7 @@
         <v>46</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="19"/>
@@ -13317,16 +13292,16 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>26</v>
@@ -13336,7 +13311,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="40" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K41" s="21">
         <v>44772.0</v>
@@ -13349,7 +13324,7 @@
         <v>46</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
@@ -13369,16 +13344,16 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>26</v>
@@ -13388,7 +13363,7 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K42" s="21">
         <v>44773.0</v>
@@ -13401,7 +13376,7 @@
         <v>46</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -13421,16 +13396,16 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>26</v>
@@ -13440,7 +13415,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="40" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K43" s="21">
         <v>44774.0</v>
@@ -13453,7 +13428,7 @@
         <v>46</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P43" s="19"/>
       <c r="Q43" s="19"/>
@@ -13473,16 +13448,16 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>26</v>
@@ -13492,7 +13467,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K44" s="21">
         <v>44775.0</v>
@@ -13505,7 +13480,7 @@
         <v>46</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
@@ -13525,16 +13500,16 @@
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>26</v>
@@ -13544,7 +13519,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K45" s="21">
         <v>44776.0</v>
@@ -13557,7 +13532,7 @@
         <v>46</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
@@ -13577,16 +13552,16 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>26</v>
@@ -13596,7 +13571,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
       <c r="J46" s="40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K46" s="21">
         <v>44777.0</v>
@@ -13609,7 +13584,7 @@
         <v>46</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P46" s="41"/>
       <c r="Q46" s="41"/>
@@ -13629,68 +13604,51 @@
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
       <c r="J47" s="40" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K47" s="21">
         <v>44778.0</v>
       </c>
-      <c r="L47" s="19"/>
+      <c r="L47" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="M47" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N47" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>257</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>255</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>26</v>
@@ -13700,7 +13658,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K48" s="21">
         <v>44779.0</v>
@@ -13713,7 +13671,7 @@
         <v>46</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
@@ -13733,16 +13691,16 @@
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>26</v>
@@ -13752,7 +13710,7 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="40" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K49" s="21">
         <v>44780.0</v>
@@ -13765,7 +13723,7 @@
         <v>46</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
@@ -13785,16 +13743,16 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>26</v>
@@ -13804,7 +13762,7 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="40" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K50" s="21">
         <v>44781.0</v>
@@ -13817,7 +13775,7 @@
         <v>46</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
@@ -13837,16 +13795,16 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>26</v>
@@ -13856,7 +13814,7 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K51" s="21">
         <v>44782.0</v>
@@ -13869,7 +13827,7 @@
         <v>46</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
@@ -13889,16 +13847,16 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>26</v>
@@ -13908,7 +13866,7 @@
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K52" s="21">
         <v>44783.0</v>
@@ -13921,7 +13879,7 @@
         <v>46</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
@@ -13941,16 +13899,16 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>26</v>
@@ -13960,7 +13918,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K53" s="21">
         <v>44784.0</v>
@@ -13973,7 +13931,7 @@
         <v>46</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
@@ -13993,16 +13951,16 @@
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>26</v>
@@ -14012,7 +13970,7 @@
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K54" s="21">
         <v>44785.0</v>
@@ -14025,7 +13983,7 @@
         <v>46</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P54" s="19"/>
       <c r="Q54" s="19"/>
@@ -14045,16 +14003,16 @@
     </row>
     <row r="55">
       <c r="A55" s="42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>26</v>
@@ -14064,7 +14022,7 @@
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
       <c r="J55" s="40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K55" s="21">
         <v>44786.0</v>
@@ -14077,7 +14035,7 @@
         <v>46</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P55" s="41"/>
       <c r="Q55" s="41"/>
@@ -14097,16 +14055,16 @@
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>26</v>
@@ -14116,7 +14074,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="40" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K56" s="21">
         <v>44787.0</v>
@@ -14129,7 +14087,7 @@
         <v>46</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P56" s="19"/>
       <c r="Q56" s="19"/>
@@ -14149,16 +14107,16 @@
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>283</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>26</v>
@@ -14168,7 +14126,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="40" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K57" s="21">
         <v>44788.0</v>
@@ -14181,7 +14139,7 @@
         <v>46</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P57" s="19"/>
       <c r="Q57" s="19"/>
@@ -14201,16 +14159,16 @@
     </row>
     <row r="58">
       <c r="A58" s="22" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>26</v>
@@ -14220,7 +14178,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="40" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K58" s="21">
         <v>44789.0</v>
@@ -14233,7 +14191,7 @@
         <v>46</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P58" s="19"/>
       <c r="Q58" s="19"/>
@@ -14253,16 +14211,16 @@
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>26</v>
@@ -14272,7 +14230,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="40" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K59" s="21">
         <v>44790.0</v>
@@ -14285,7 +14243,7 @@
         <v>46</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
@@ -14305,16 +14263,16 @@
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>26</v>
@@ -14324,7 +14282,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="40" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K60" s="21">
         <v>44791.0</v>
@@ -14337,7 +14295,7 @@
         <v>46</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P60" s="19"/>
       <c r="Q60" s="19"/>
@@ -14357,16 +14315,16 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>26</v>
@@ -14376,7 +14334,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="40" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K61" s="21">
         <v>44792.0</v>
@@ -14389,7 +14347,7 @@
         <v>46</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
@@ -14409,16 +14367,16 @@
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>301</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>299</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>26</v>
@@ -14428,7 +14386,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="40" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K62" s="21">
         <v>44793.0</v>
@@ -14441,7 +14399,7 @@
         <v>46</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -14461,16 +14419,16 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>26</v>
@@ -14480,7 +14438,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="40" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K63" s="21">
         <v>44794.0</v>
@@ -14493,7 +14451,7 @@
         <v>46</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
@@ -14513,16 +14471,16 @@
     </row>
     <row r="64">
       <c r="A64" s="20" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>26</v>
@@ -14532,7 +14490,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K64" s="21">
         <v>44795.0</v>
@@ -14545,7 +14503,7 @@
         <v>46</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
@@ -14852,6 +14810,7 @@
     <col customWidth="1" min="2" max="2" width="31.88"/>
     <col customWidth="1" min="3" max="3" width="60.88"/>
     <col customWidth="1" min="10" max="10" width="43.13"/>
+    <col customWidth="1" min="11" max="11" width="98.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -14874,7 +14833,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>6</v>
@@ -14906,29 +14865,29 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="40" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L2" s="21">
         <v>44734.0</v>
@@ -14941,7 +14900,7 @@
         <v>46</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
@@ -14961,29 +14920,29 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
       <c r="K3" s="40" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L3" s="21">
         <v>44735.0</v>
@@ -14996,7 +14955,7 @@
         <v>46</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
@@ -15016,29 +14975,29 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="40" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L4" s="21">
         <v>44736.0</v>
@@ -15051,7 +15010,7 @@
         <v>46</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
@@ -15071,29 +15030,29 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>326</v>
-      </c>
       <c r="E5" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="40" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L5" s="21">
         <v>44737.0</v>
@@ -15106,7 +15065,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
@@ -15126,29 +15085,29 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="40" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L6" s="21">
         <v>44738.0</v>
@@ -15161,7 +15120,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
@@ -15181,29 +15140,29 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="40" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L7" s="21">
         <v>44739.0</v>
@@ -15216,7 +15175,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
@@ -15236,29 +15195,29 @@
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="40" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L8" s="21">
         <v>44740.0</v>
@@ -15271,7 +15230,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
@@ -15291,29 +15250,29 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="40" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L9" s="21">
         <v>44741.0</v>
@@ -15326,7 +15285,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
@@ -15346,84 +15305,67 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="F10" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G10" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+        <v>318</v>
+      </c>
       <c r="K10" s="40" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L10" s="21">
         <v>44742.0</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N10" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O10" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>351</v>
-      </c>
       <c r="E11" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="40" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L11" s="21">
         <v>44743.0</v>
@@ -15436,7 +15378,7 @@
         <v>46</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
@@ -15456,29 +15398,29 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="40" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L12" s="21">
         <v>44744.0</v>
@@ -15491,7 +15433,7 @@
         <v>46</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
@@ -15511,29 +15453,29 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="40" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L13" s="21">
         <v>44745.0</v>
@@ -15546,7 +15488,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
@@ -15566,29 +15508,29 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="40" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L14" s="21">
         <v>44746.0</v>
@@ -15601,7 +15543,7 @@
         <v>46</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -15621,29 +15563,29 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="40" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L15" s="21">
         <v>44747.0</v>
@@ -15656,7 +15598,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
@@ -15676,29 +15618,29 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="40" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L16" s="21">
         <v>44748.0</v>
@@ -15711,7 +15653,7 @@
         <v>46</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -15731,29 +15673,29 @@
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="40" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L17" s="21">
         <v>44749.0</v>
@@ -15766,7 +15708,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -15786,29 +15728,29 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="40" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L18" s="21">
         <v>44750.0</v>
@@ -15821,7 +15763,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
@@ -15841,29 +15783,29 @@
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="40" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L19" s="21">
         <v>44751.0</v>
@@ -15876,7 +15818,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
@@ -15896,29 +15838,29 @@
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="40" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L20" s="21">
         <v>44752.0</v>
@@ -15931,7 +15873,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
@@ -15951,29 +15893,29 @@
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="40" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L21" s="21">
         <v>44753.0</v>
@@ -15986,7 +15928,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
@@ -16006,29 +15948,29 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="40" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L22" s="21">
         <v>44754.0</v>
@@ -16041,7 +15983,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -16061,29 +16003,29 @@
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="40" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L23" s="21">
         <v>44755.0</v>
@@ -16096,7 +16038,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -16116,29 +16058,29 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
       <c r="K24" s="40" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L24" s="21">
         <v>44756.0</v>
@@ -16151,7 +16093,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
@@ -16171,29 +16113,29 @@
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="40" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L25" s="21">
         <v>44757.0</v>
@@ -16206,7 +16148,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
@@ -16226,29 +16168,29 @@
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>412</v>
-      </c>
       <c r="E26" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="40" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L26" s="21">
         <v>44758.0</v>
@@ -16261,7 +16203,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
@@ -16281,29 +16223,29 @@
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="40" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L27" s="21">
         <v>44759.0</v>
@@ -16316,7 +16258,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
@@ -16336,29 +16278,29 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="40" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L28" s="21">
         <v>44760.0</v>
@@ -16371,7 +16313,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
@@ -16391,29 +16333,29 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="40" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L29" s="21">
         <v>44761.0</v>
@@ -16426,7 +16368,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
@@ -16446,29 +16388,29 @@
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="40" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L30" s="21">
         <v>44762.0</v>
@@ -16481,7 +16423,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -16501,29 +16443,29 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="40" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L31" s="21">
         <v>44763.0</v>
@@ -16536,7 +16478,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
@@ -16556,29 +16498,29 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F32" s="41"/>
       <c r="G32" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
       <c r="K32" s="40" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L32" s="21">
         <v>44764.0</v>
@@ -16591,7 +16533,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
@@ -16611,29 +16553,29 @@
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="40" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L33" s="21">
         <v>44765.0</v>
@@ -16646,7 +16588,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
@@ -16666,29 +16608,29 @@
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>445</v>
-      </c>
       <c r="E34" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="40" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L34" s="21">
         <v>44766.0</v>
@@ -16701,7 +16643,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
@@ -16721,29 +16663,29 @@
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="40" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L35" s="21">
         <v>44767.0</v>
@@ -16756,7 +16698,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
@@ -16776,29 +16718,29 @@
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="40" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L36" s="21">
         <v>44768.0</v>
@@ -16811,7 +16753,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
@@ -16831,29 +16773,29 @@
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="40" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L37" s="21">
         <v>44769.0</v>
@@ -16866,7 +16808,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
@@ -16886,84 +16828,67 @@
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="F38" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G38" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+        <v>318</v>
+      </c>
       <c r="K38" s="40" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L38" s="21">
         <v>44770.0</v>
       </c>
-      <c r="M38" s="19"/>
+      <c r="M38" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N38" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="19"/>
-      <c r="AE38" s="19"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="40" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L39" s="21">
         <v>44771.0</v>
@@ -16976,7 +16901,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
@@ -16996,29 +16921,29 @@
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="40" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L40" s="21">
         <v>44772.0</v>
@@ -17031,7 +16956,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q40" s="19"/>
       <c r="R40" s="19"/>
@@ -17051,29 +16976,29 @@
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
       <c r="K41" s="40" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L41" s="21">
         <v>44773.0</v>
@@ -17086,7 +17011,7 @@
         <v>46</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
@@ -17106,29 +17031,29 @@
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="40" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L42" s="21">
         <v>44774.0</v>
@@ -17141,7 +17066,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
@@ -17161,29 +17086,29 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
       <c r="K43" s="40" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L43" s="21">
         <v>44775.0</v>
@@ -17196,7 +17121,7 @@
         <v>46</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="19"/>
       <c r="R43" s="19"/>
@@ -17216,29 +17141,29 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="40" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L44" s="21">
         <v>44776.0</v>
@@ -17251,7 +17176,7 @@
         <v>46</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q44" s="19"/>
       <c r="R44" s="19"/>
@@ -17271,29 +17196,29 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
       <c r="J45" s="41"/>
       <c r="K45" s="40" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L45" s="21">
         <v>44777.0</v>
@@ -17306,7 +17231,7 @@
         <v>46</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
@@ -17326,84 +17251,67 @@
     </row>
     <row r="46">
       <c r="A46" s="20" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="F46" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G46" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+        <v>318</v>
+      </c>
       <c r="K46" s="40" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L46" s="21">
         <v>44778.0</v>
       </c>
-      <c r="M46" s="19"/>
+      <c r="M46" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N46" s="20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>498</v>
-      </c>
       <c r="E47" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="40" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L47" s="21">
         <v>44779.0</v>
@@ -17416,7 +17324,7 @@
         <v>46</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
@@ -17436,29 +17344,29 @@
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="40" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L48" s="21">
         <v>44780.0</v>
@@ -17471,7 +17379,7 @@
         <v>46</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q48" s="19"/>
       <c r="R48" s="19"/>
@@ -17491,29 +17399,29 @@
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="40" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L49" s="21">
         <v>44781.0</v>
@@ -17526,7 +17434,7 @@
         <v>46</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q49" s="19"/>
       <c r="R49" s="19"/>
@@ -17546,29 +17454,29 @@
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="40" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L50" s="21">
         <v>44782.0</v>
@@ -17581,7 +17489,7 @@
         <v>46</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q50" s="19"/>
       <c r="R50" s="19"/>
@@ -17601,29 +17509,29 @@
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="40" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L51" s="21">
         <v>44783.0</v>
@@ -17636,7 +17544,7 @@
         <v>46</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q51" s="19"/>
       <c r="R51" s="19"/>
@@ -17656,29 +17564,29 @@
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="40" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L52" s="21">
         <v>44784.0</v>
@@ -17691,7 +17599,7 @@
         <v>46</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
@@ -17711,29 +17619,29 @@
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="40" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L53" s="21">
         <v>44785.0</v>
@@ -17746,7 +17654,7 @@
         <v>46</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
@@ -17766,29 +17674,29 @@
     </row>
     <row r="54">
       <c r="A54" s="42" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
       <c r="J54" s="41"/>
       <c r="K54" s="40" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L54" s="21">
         <v>44786.0</v>
@@ -17801,7 +17709,7 @@
         <v>46</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q54" s="41"/>
       <c r="R54" s="41"/>
@@ -17821,29 +17729,29 @@
     </row>
     <row r="55">
       <c r="A55" s="22" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F55" s="19"/>
       <c r="G55" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="40" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L55" s="21">
         <v>44787.0</v>
@@ -17856,7 +17764,7 @@
         <v>46</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
@@ -17876,29 +17784,29 @@
     </row>
     <row r="56">
       <c r="A56" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>535</v>
-      </c>
       <c r="E56" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="40" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L56" s="21">
         <v>44788.0</v>
@@ -17911,7 +17819,7 @@
         <v>46</v>
       </c>
       <c r="P56" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
@@ -17931,29 +17839,29 @@
     </row>
     <row r="57">
       <c r="A57" s="22" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="40" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L57" s="21">
         <v>44789.0</v>
@@ -17966,7 +17874,7 @@
         <v>46</v>
       </c>
       <c r="P57" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
@@ -17986,29 +17894,29 @@
     </row>
     <row r="58">
       <c r="A58" s="20" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="40" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L58" s="21">
         <v>44790.0</v>
@@ -18021,7 +17929,7 @@
         <v>46</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="19"/>
@@ -18041,29 +17949,29 @@
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="40" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L59" s="21">
         <v>44791.0</v>
@@ -18076,7 +17984,7 @@
         <v>46</v>
       </c>
       <c r="P59" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
@@ -18096,29 +18004,29 @@
     </row>
     <row r="60">
       <c r="A60" s="20" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="40" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="L60" s="21">
         <v>44792.0</v>
@@ -18131,7 +18039,7 @@
         <v>46</v>
       </c>
       <c r="P60" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
@@ -18151,29 +18059,29 @@
     </row>
     <row r="61">
       <c r="A61" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="D61" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="B61" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>556</v>
-      </c>
       <c r="E61" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="40" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L61" s="21">
         <v>44793.0</v>
@@ -18186,7 +18094,7 @@
         <v>46</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q61" s="19"/>
       <c r="R61" s="19"/>
@@ -18206,29 +18114,29 @@
     </row>
     <row r="62">
       <c r="A62" s="20" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="40" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L62" s="21">
         <v>44794.0</v>
@@ -18241,7 +18149,7 @@
         <v>46</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q62" s="19"/>
       <c r="R62" s="19"/>
@@ -18261,29 +18169,29 @@
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="19"/>
       <c r="K63" s="40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L63" s="21">
         <v>44795.0</v>
@@ -18296,7 +18204,7 @@
         <v>46</v>
       </c>
       <c r="P63" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q63" s="19"/>
       <c r="R63" s="19"/>
@@ -18319,37 +18227,37 @@
     </row>
     <row r="65">
       <c r="A65" s="20" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L65" s="21"/>
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E66" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K66" s="40" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L66" s="21">
         <v>45587.0</v>
@@ -18378,31 +18286,31 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K67" s="40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L67" s="21">
         <v>45587.0</v>
@@ -18431,31 +18339,31 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K68" s="40" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L68" s="21">
         <v>45587.0</v>
@@ -18484,31 +18392,31 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K69" s="40" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L69" s="21">
         <v>45587.0</v>
@@ -18537,31 +18445,31 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E70" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K70" s="40" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L70" s="21">
         <v>45587.0</v>
@@ -18590,31 +18498,31 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K71" s="40" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L71" s="21">
         <v>45587.0</v>
@@ -18643,31 +18551,31 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E72" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K72" s="40" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L72" s="21">
         <v>45587.0</v>
@@ -18725,31 +18633,31 @@
     </row>
     <row r="74">
       <c r="A74" s="20" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E74" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K74" s="40" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L74" s="21">
         <v>45587.0</v>
@@ -18778,31 +18686,31 @@
     </row>
     <row r="75">
       <c r="A75" s="20" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F75" s="19"/>
       <c r="G75" s="13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K75" s="40" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L75" s="21">
         <v>45587.0</v>
@@ -18831,31 +18739,31 @@
     </row>
     <row r="76">
       <c r="A76" s="22" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L76" s="21">
         <v>45587.0</v>
@@ -18884,31 +18792,31 @@
     </row>
     <row r="77">
       <c r="A77" s="46" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E77" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L77" s="21">
         <v>45587.0</v>
@@ -18937,31 +18845,31 @@
     </row>
     <row r="78">
       <c r="A78" s="46" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E78" s="48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L78" s="21">
         <v>45587.0</v>
@@ -18990,56 +18898,41 @@
     </row>
     <row r="79">
       <c r="A79" s="46" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="F79" s="19"/>
+        <v>317</v>
+      </c>
       <c r="G79" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
+        <v>318</v>
+      </c>
       <c r="J79" s="20" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L79" s="21">
         <v>45587.0</v>
       </c>
-      <c r="M79" s="19"/>
+      <c r="M79" s="21">
+        <v>45875.0</v>
+      </c>
       <c r="N79" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="19"/>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="19"/>
-      <c r="AD79" s="19"/>
-      <c r="AE79" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="O79" s="20" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="44"/>
